--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_FS6400_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>587483d7773129140c9e12db17d514c2</t>
+          <t>1b726b745327977401045b7434de6ad4</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1019%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1019%2B_72806.pat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>a49980d66bdd811484d8805a30666a0e</t>
+          <t>b308d45d9ffb849f696230917420d2e2</t>
         </is>
       </c>
     </row>
@@ -781,17 +781,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1520%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1520%2B_72806.pat</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7d1ed31f82c5a40a96efa2652c4535c3</t>
+          <t>ee1d1f09d11b6b9fa3f0edf6627a1544</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1522%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1522%2B_72806.pat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18e2877565db187add23f66a17efedec</t>
+          <t>6ce48443d5809d8bd586cfdd6520b685</t>
         </is>
       </c>
     </row>
@@ -1067,17 +1067,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1621%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>571a24a5bd74779557717904011f9f49</t>
+          <t>89699e60f438788936cd531da5448259</t>
         </is>
       </c>
     </row>
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1621xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>db629c8550988dc0dee5a132b469b7c5</t>
+          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
         </is>
       </c>
     </row>
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1819%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>d7623988624cf4ca9772d2bc6de85427</t>
+          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
         </is>
       </c>
     </row>
@@ -1573,17 +1573,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1821%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9ed6ff63d2e24911b34709f85d452dac</t>
+          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
         </is>
       </c>
     </row>
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1823xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>675c451bf57f6422bf1916d483f2d483</t>
+          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
         </is>
       </c>
     </row>
@@ -1859,17 +1859,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS220%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>e30bfb43f8d1ee753a80d53d1f54d79a</t>
+          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
         </is>
       </c>
     </row>
@@ -2035,17 +2035,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS224%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>e9dd18c0602f835de81a51f5b9028ef5</t>
+          <t>45036d62086128fbccbb0c07c1dadc6f</t>
         </is>
       </c>
     </row>
@@ -2079,17 +2079,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS2419%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>79110232d65bc1de75cea72270e8dbe1</t>
+          <t>eb12a7f890f75cbec459be88e288fe3b</t>
         </is>
       </c>
     </row>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS2419%2BII_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>115f5696e178123211147adccc5bb1d0</t>
+          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
         </is>
       </c>
     </row>
@@ -2431,17 +2431,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS2422%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3807c8d92e7f22cc20954a6ef775a2ab</t>
+          <t>1bb660489f3617975213b9e587fed7b4</t>
         </is>
       </c>
     </row>
@@ -2585,17 +2585,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS3622xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6a4cad387c4f25618ddd3c526a680737</t>
+          <t>669834673fab793775ee86547d920aa0</t>
         </is>
       </c>
     </row>
@@ -2739,17 +2739,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS420%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>b20080fd35efe37c4877390282734937</t>
+          <t>5735baee87d812edbd1a13bb7641d3b7</t>
         </is>
       </c>
     </row>
@@ -2915,17 +2915,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS423%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>b567d464021578883067fc557f46515a</t>
+          <t>e5605b52000e9e8a63657e0599268932</t>
         </is>
       </c>
     </row>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS720%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>269251a3274a58fc2570011a8e7b44fe</t>
+          <t>7ab8bda950fc06556b108d298cb2a640</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3201,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS723%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>b592e6ab8591fb3b8fd9be478c853fcd</t>
+          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
         </is>
       </c>
     </row>
@@ -3311,17 +3311,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS920%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ee4f55e2268e61513a7e4b2bc913c534</t>
+          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
         </is>
       </c>
     </row>
@@ -3487,17 +3487,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS923%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>28a760c2b1c79055f92a99a2686c1857</t>
+          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
         </is>
       </c>
     </row>
@@ -3597,17 +3597,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DVA1622_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3e2dfebca0f7d63345fd8412b389fe5f</t>
+          <t>36a6736d6dcb5f4ff570871809831183</t>
         </is>
       </c>
     </row>
@@ -3707,17 +3707,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DVA3219_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>707a403dd166ec182c7002ecc2741de0</t>
+          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
         </is>
       </c>
     </row>
@@ -3861,17 +3861,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DVA3221_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>3fc96acda8432480aebea1a0edcb7d2d</t>
+          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
         </is>
       </c>
     </row>
@@ -4015,17 +4015,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_FS2500_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2950e6e7d377a6f11c5963dd4ad50a12</t>
+          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
         </is>
       </c>
     </row>
@@ -4169,17 +4169,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_FS3400_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>cfbb47dd357411425a3203af03763526</t>
+          <t>12a28689a1816b6d8cb329edbe385e78</t>
         </is>
       </c>
     </row>
@@ -4323,17 +4323,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_FS3410_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>5238d737f773078adbd03b79b1de3f8a</t>
+          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
         </is>
       </c>
     </row>
@@ -4433,17 +4433,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_FS3600_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>75046346a0484b03e983b7450c1ea6d3</t>
+          <t>7f6686d018b515a022e8221b104b5d17</t>
         </is>
       </c>
     </row>
@@ -4587,17 +4587,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS1221%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>c1db5567778804945ae807c49cba9c2e</t>
+          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
         </is>
       </c>
     </row>
@@ -4763,17 +4763,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS1221RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>de681278818b5e95f14e1592354ac193</t>
+          <t>12a287daec77135d0977274464ef0b95</t>
         </is>
       </c>
     </row>
@@ -4939,17 +4939,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS1619xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>6257124c3f8b3541cad8a2d91277ac52</t>
+          <t>d84b6e3d631f17797de438384d7f4098</t>
         </is>
       </c>
     </row>
@@ -5093,17 +5093,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2421%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>6273440ea56106455fa20faf00125ddb</t>
+          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
         </is>
       </c>
     </row>
@@ -5269,17 +5269,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2421RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>fe96d4a052d60ddca953e55c2d1e9c7e</t>
+          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
         </is>
       </c>
     </row>
@@ -5445,17 +5445,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2423%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>73b745c9f99c61507388008939cb7fb0</t>
+          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
         </is>
       </c>
     </row>
@@ -5555,17 +5555,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2423RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>cd3a4e6ac370bf3abe3bb79ffbfd3917</t>
+          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
         </is>
       </c>
     </row>
@@ -5665,17 +5665,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2821RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>182d6da9efaa0e927b36efae6723c045</t>
+          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
         </is>
       </c>
     </row>
@@ -5841,17 +5841,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS3618xs_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>a6e3df7fd41851379ee6172a8334e1eb</t>
+          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
         </is>
       </c>
     </row>
@@ -5995,17 +5995,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS3621RPxs_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>28e91820284cb366f8571696839325e7</t>
+          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
         </is>
       </c>
     </row>
@@ -6149,17 +6149,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS3621xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>a76774ed60954d162b0127f22ee4281c</t>
+          <t>a0939c649b9264c7e798789c2632aa93</t>
         </is>
       </c>
     </row>
@@ -6303,17 +6303,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS4021xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>a77015c69a90067eea8260bd7dbd516f</t>
+          <t>fa55d5394111eaa7823551564ac74cd2</t>
         </is>
       </c>
     </row>
@@ -6457,17 +6457,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS422%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>bc543dc5610b5f654d015e1178cf305c</t>
+          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
         </is>
       </c>
     </row>
@@ -6567,17 +6567,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS820%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>cefc15e4f2bfad504d0134170afbd99a</t>
+          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
         </is>
       </c>
     </row>
@@ -6743,17 +6743,17 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS820RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>f62ba0eabca2b8b88f9fca4c98f28db1</t>
+          <t>1512187ce7f40824b1138e225fe4ca97</t>
         </is>
       </c>
     </row>
@@ -6919,17 +6919,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS822%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>1dc2a3be2025c38347f6962802ed0cc1</t>
+          <t>19033774f5c5379ee9345010a6de77ae</t>
         </is>
       </c>
     </row>
@@ -7029,17 +7029,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS822RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>719e5a562134a4520baae294fd13e626</t>
+          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
         </is>
       </c>
     </row>
@@ -7139,17 +7139,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_SA3200D_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>897fc910ae1e7f3973b33a8fb0e2b61f</t>
+          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
         </is>
       </c>
     </row>
@@ -7293,17 +7293,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_SA3400_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>fa43db2c6944d7816ebdc0c9a7d7538f</t>
+          <t>cf757438c9ea944760ea9f1afc5bb956</t>
         </is>
       </c>
     </row>
@@ -7447,17 +7447,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_SA3400D_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>8ffecb7225ca7f25b5444af8e4877366</t>
+          <t>94155b2af89d9468c0c10275f449f153</t>
         </is>
       </c>
     </row>
@@ -7557,17 +7557,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_SA3600_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>de14bc04bbc55371b47a9dab72b3c3f8</t>
+          <t>959f9ff2a40cafde128c12da37549313</t>
         </is>
       </c>
     </row>
@@ -7711,17 +7711,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_SA6400_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>8d145c508d01310c8d2b17d2e0ad980d</t>
+          <t>5ec675ed69c80465cf9a5980208efac8</t>
         </is>
       </c>
     </row>
@@ -7821,17 +7821,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS620slim_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>6850994e2aa3008987f7ed550ff23115</t>
+          <t>4c3a37f192511d17d956fad40ddfac8d</t>
         </is>
       </c>
     </row>
@@ -8085,17 +8085,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_SA3410_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>7440de3652733cc2321b47c24ccf2d2e</t>
+          <t>022967f2ae03fec0aab2fe733b126a60</t>
         </is>
       </c>
     </row>
@@ -8195,17 +8195,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_SA3610_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>d6eb361717e7bfbb234b3cbc29399730</t>
+          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
         </is>
       </c>
     </row>
@@ -8305,17 +8305,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS1618%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>7ffdff83e3df05e17084d90a1fbaaa63</t>
+          <t>83df618fab57a656368d5845025160ba</t>
         </is>
       </c>
     </row>
@@ -8481,17 +8481,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS218%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>4b8a3bc5aa91732fbdb78bdb37c0b155</t>
+          <t>eb96d86c522877b53801473cd8218493</t>
         </is>
       </c>
     </row>
@@ -8657,17 +8657,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS3018xs_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>7c49669f232d1c0390f11e687be547b5</t>
+          <t>99ea023c228e5c40d69e18edd5e1f547</t>
         </is>
       </c>
     </row>
@@ -8811,17 +8811,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS3617xs_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>fe6316949f44e00e4da6656962cff598</t>
+          <t>793aa6ad7d3c360a6266747d90795cc4</t>
         </is>
       </c>
     </row>
@@ -8965,17 +8965,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS3617xsII_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>47fbd309f18a7e67265f235019a297f4</t>
+          <t>36954c258a5a46747ead05d8d89022b4</t>
         </is>
       </c>
     </row>
@@ -9119,17 +9119,17 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS418play_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>09cefc95a7f1afdadad360ffa7902535</t>
+          <t>e43c906f97bf934c6a64f98465fd23bb</t>
         </is>
       </c>
     </row>
@@ -9295,17 +9295,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS718%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>ecd923f7beff0497d402e4a8d60f825c</t>
+          <t>2f1c376370096ec205e0a8318b7f6df8</t>
         </is>
       </c>
     </row>
@@ -9471,17 +9471,17 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_DS918%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>524a4f0e8f3411eeece4cef8fe6c4798</t>
+          <t>e78a003a9679790c19fc11974d2d0453</t>
         </is>
       </c>
     </row>
@@ -9647,17 +9647,17 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_FS1018_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>50cc5bbcd81cf0572025148dd5b7c820</t>
+          <t>2f79cc74468fac966e373914a1f6516d</t>
         </is>
       </c>
     </row>
@@ -9801,17 +9801,17 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_FS2017_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>d623d5fadbf511181373a352420b4dac</t>
+          <t>363854659883df19d9996a9d81477e89</t>
         </is>
       </c>
     </row>
@@ -9955,17 +9955,17 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS18017xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>265dc72c4bcaac9f01b07e18c1fd62c0</t>
+          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
         </is>
       </c>
     </row>
@@ -10109,17 +10109,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2418%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>17f0deffbf3e48942382cc0fce20a4f0</t>
+          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
         </is>
       </c>
     </row>
@@ -10285,17 +10285,17 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2418RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>952aa983c24a2dc501089f9525e56dd8</t>
+          <t>36231b0ec168e47d61fd256ff16c652b</t>
         </is>
       </c>
     </row>
@@ -10461,17 +10461,17 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS2818RP%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>a2647390fbad3234d3fccdb7e85e5fd3</t>
+          <t>6f54d58f6f212345826b174a10e30261</t>
         </is>
       </c>
     </row>
@@ -10637,17 +10637,17 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS3617RPxs_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>0af0bf4e88a0e306c543bbdd81f6fa7c</t>
+          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
         </is>
       </c>
     </row>
@@ -10791,17 +10791,17 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS3617xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>f41b51f5ebf1eacb8feb5ab2739a02fc</t>
+          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
         </is>
       </c>
     </row>
@@ -10945,17 +10945,17 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>7.2.2-72803-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72803/DSM_RS4017xs%2B_72803.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>c339e9865e6016fde603472348452ca6</t>
+          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
         </is>
       </c>
     </row>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -456,19 +456,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1019%2B_72806.pat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1b726b745327977401045b7434de6ad4</t>
+          <t>b308d45d9ffb849f696230917420d2e2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,41 +478,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1019%2B_42218.pat</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>e7887381980432a7be5ddf4dec0772ad</t>
+          <t>a7c5ac7a5963aac8bf9a599a8a6f6b86</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1019%2B_69057.pat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66dc986826177528dc9558195e1ddc89</t>
+          <t>7609e7c977d9d44baed886e846d7cf50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -522,19 +522,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1019%2B_64570.pat</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
+          <t>c1c9b295ca7f1434c0f1eeab4f989316</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -544,19 +544,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS6400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1019%2B_64561.pat</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bfb8182d0968cf91511e233fb5eacb07</t>
+          <t>6376f1f7bd1a260db67324629f3ddfb9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -566,19 +566,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1019%2B_42962.pat</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>651be491d10a47ecc534295d84341c03</t>
+          <t>b590bc9f0df784be4d6bae13d551f76b</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -588,12 +588,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1019%2B_42661.pat</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>030064272d82777681502745fcfa8c48</t>
+          <t>1318c234b08c06ad0a6b49a3d739fb95</t>
         </is>
       </c>
     </row>
@@ -605,171 +605,171 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1019%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1019%2B_41890.pat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>b308d45d9ffb849f696230917420d2e2</t>
+          <t>b0269246ab530bc8618ba288130d413a</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1019%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1520%2B_72806.pat</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>a7c5ac7a5963aac8bf9a599a8a6f6b86</t>
+          <t>ee1d1f09d11b6b9fa3f0edf6627a1544</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1019%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1520%2B_42218.pat</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7609e7c977d9d44baed886e846d7cf50</t>
+          <t>d1ebc3c9a2b9e04980a85c4784904f91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1019%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1520%2B_69057.pat</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>c1c9b295ca7f1434c0f1eeab4f989316</t>
+          <t>a028a246334bb45b398a240ecfe194e8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1019%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1520%2B_64570.pat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6376f1f7bd1a260db67324629f3ddfb9</t>
+          <t>5063db1ed248fb36074ce8d2aba645a9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1019%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1520%2B_64561.pat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>b590bc9f0df784be4d6bae13d551f76b</t>
+          <t>e340acc1bc119307787f3363773ab632</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1019%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1520%2B_42962.pat</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1318c234b08c06ad0a6b49a3d739fb95</t>
+          <t>d28994a9dcdae9730b4d1370a39d3130</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1019%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1520%2B_42661.pat</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>b0269246ab530bc8618ba288130d413a</t>
+          <t>1d8ecfcb2a956488ae355c79a72bb9ec</t>
         </is>
       </c>
     </row>
@@ -781,46 +781,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1520%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1520%2B_41890.pat</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ee1d1f09d11b6b9fa3f0edf6627a1544</t>
+          <t>872a481aa96c8941fe8872f65ddb0660</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1520%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1522%2B_72806.pat</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>d1ebc3c9a2b9e04980a85c4784904f91</t>
+          <t>6ce48443d5809d8bd586cfdd6520b685</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -830,19 +830,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1520%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1522%2B_69057.pat</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>a028a246334bb45b398a240ecfe194e8</t>
+          <t>234e958a0dcf489dae866c14d30ed761</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -852,19 +852,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1520%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1522%2B_64570.pat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5063db1ed248fb36074ce8d2aba645a9</t>
+          <t>c23e7b3a8dfec5551cd57d6397ebb079</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -874,19 +874,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1520%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1522%2B_64561.pat</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>e340acc1bc119307787f3363773ab632</t>
+          <t>28c079aead91f10b1cefc13110b561fe</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -896,166 +896,166 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1520%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1522%2B_42962.pat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>d28994a9dcdae9730b4d1370a39d3130</t>
+          <t>a116d65da8908275ea681dd7ac06b831</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1520%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1d8ecfcb2a956488ae355c79a72bb9ec</t>
+          <t>89699e60f438788936cd531da5448259</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1520%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>872a481aa96c8941fe8872f65ddb0660</t>
+          <t>1fd1d6e733bb096f418f68e06f81022e</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1522%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6ce48443d5809d8bd586cfdd6520b685</t>
+          <t>4bc6b4b8cfa7005505a6168a08c92b5f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1522%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>234e958a0dcf489dae866c14d30ed761</t>
+          <t>6f9fa1ff5b9b2dded366b1a2d2687aea</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1522%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621%2B_64561.pat</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>c23e7b3a8dfec5551cd57d6397ebb079</t>
+          <t>91bbf20b36ce890bc4ff5c6dca037357</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1522%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28c079aead91f10b1cefc13110b561fe</t>
+          <t>93a5a2b9515b39e18d0b48df84d5c007</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1522%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>a116d65da8908275ea681dd7ac06b831</t>
+          <t>b4b72eb8d4e84b2e2a8c29fc0a1ac6aa</t>
         </is>
       </c>
     </row>
@@ -1067,178 +1067,178 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1621%2B_41890.pat</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>89699e60f438788936cd531da5448259</t>
+          <t>4a7230bf83c693328518d7f253257a8c</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1fd1d6e733bb096f418f68e06f81022e</t>
+          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4bc6b4b8cfa7005505a6168a08c92b5f</t>
+          <t>302fdefb00c8d4f8bf95ac25dca1e864</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6f9fa1ff5b9b2dded366b1a2d2687aea</t>
+          <t>8af12dfa839057343d4b0d7f57efad16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91bbf20b36ce890bc4ff5c6dca037357</t>
+          <t>ff027f65c9712059a5a54bfbfb5a52b7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>93a5a2b9515b39e18d0b48df84d5c007</t>
+          <t>87ec2ee52f365de00a70b1f1ac571345</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>b4b72eb8d4e84b2e2a8c29fc0a1ac6aa</t>
+          <t>fffec3510c954fc718a1aecba2f98fc6</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1621%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4a7230bf83c693328518d7f253257a8c</t>
+          <t>18f849121a9a1918aca94c6774524910</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1248,19 +1248,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
+          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1270,19 +1270,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>302fdefb00c8d4f8bf95ac25dca1e864</t>
+          <t>82dc294d7f99545d9d7e2ff9bcae114b</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1292,19 +1292,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8af12dfa839057343d4b0d7f57efad16</t>
+          <t>bd5ed66d4f74e97416c0724737f88315</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1314,19 +1314,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ff027f65c9712059a5a54bfbfb5a52b7</t>
+          <t>e93f143ffe7a4612635efbd4b537b26a</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1336,19 +1336,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1819%2B_64561.pat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>87ec2ee52f365de00a70b1f1ac571345</t>
+          <t>b5ad13086be82102371f7e97cf6e10bb</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1358,19 +1358,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>fffec3510c954fc718a1aecba2f98fc6</t>
+          <t>5dac92403628186c629d2ab5aedbcc57</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1380,12 +1380,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>18f849121a9a1918aca94c6774524910</t>
+          <t>51a5104488a6f09dbc9a91689aa4a363</t>
         </is>
       </c>
     </row>
@@ -1397,171 +1397,171 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1819%2B_41890.pat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
+          <t>1a51c6e6d66e7a58c4cbbabcb65b71b1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>82dc294d7f99545d9d7e2ff9bcae114b</t>
+          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>bd5ed66d4f74e97416c0724737f88315</t>
+          <t>cbe674d818bc06b7eefef2b9c58fc859</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>e93f143ffe7a4612635efbd4b537b26a</t>
+          <t>6a7efda6e842ebee9597120e4a68870a</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1819%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>b5ad13086be82102371f7e97cf6e10bb</t>
+          <t>da6d86151013569e4b4d2f12515e0a5c</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1821%2B_64561.pat</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5dac92403628186c629d2ab5aedbcc57</t>
+          <t>3491ce7d8eff268df09b1570a04494e1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>51a5104488a6f09dbc9a91689aa4a363</t>
+          <t>e54b32884cbc1b913324c8cda5b2f978</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1819%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1a51c6e6d66e7a58c4cbbabcb65b71b1</t>
+          <t>c854e197ec6b7b57c5a6667a0a225a19</t>
         </is>
       </c>
     </row>
@@ -1573,46 +1573,46 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1821%2B_41890.pat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
+          <t>49d25b1c21d6a6b4c6342dadc399f7a8</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>cbe674d818bc06b7eefef2b9c58fc859</t>
+          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1622,19 +1622,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6a7efda6e842ebee9597120e4a68870a</t>
+          <t>134c17ae983809784f9cbfd133c64ea7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1644,19 +1644,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>da6d86151013569e4b4d2f12515e0a5c</t>
+          <t>1a8a5e1d8461e9a3af638dae7f121ad3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1666,188 +1666,188 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1821%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1823xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3491ce7d8eff268df09b1570a04494e1</t>
+          <t>5afb9895acb01d94dc74a93aaacdcc17</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>e54b32884cbc1b913324c8cda5b2f978</t>
+          <t>d337b8a44008bb726c28489e30577cee</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>c854e197ec6b7b57c5a6667a0a225a19</t>
+          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1821%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>49d25b1c21d6a6b4c6342dadc399f7a8</t>
+          <t>b77984bcefef6ddc2e847a336cb2d764</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
+          <t>29111f8860063c4a9a84827a2d9e019a</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>134c17ae983809784f9cbfd133c64ea7</t>
+          <t>34fa653e965663cd663d7d1e2b9e60d3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS220%2B_64561.pat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1a8a5e1d8461e9a3af638dae7f121ad3</t>
+          <t>8a3031a1315448f21c5c6043493f944d</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1823xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5afb9895acb01d94dc74a93aaacdcc17</t>
+          <t>dcdae26b1419f67f53a7936e6176cc7c</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>d337b8a44008bb726c28489e30577cee</t>
+          <t>536af980d23f2d79fcbdfb117444ca06</t>
         </is>
       </c>
     </row>
@@ -1859,46 +1859,46 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS220%2B_41890.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
+          <t>6cc9645989252b42796471d8882a2a31</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>b77984bcefef6ddc2e847a336cb2d764</t>
+          <t>45036d62086128fbccbb0c07c1dadc6f</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1908,166 +1908,166 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>29111f8860063c4a9a84827a2d9e019a</t>
+          <t>462cb5f704faa7a32651be4b4e17746e</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>34fa653e965663cd663d7d1e2b9e60d3</t>
+          <t>eb12a7f890f75cbec459be88e288fe3b</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS220%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8a3031a1315448f21c5c6043493f944d</t>
+          <t>59d48e64ad4d0e5bc35f9eec8869d9c5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>dcdae26b1419f67f53a7936e6176cc7c</t>
+          <t>8513269cb1ee01030e8d7cd3d57fc8d6</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>536af980d23f2d79fcbdfb117444ca06</t>
+          <t>5716f9a0aadb529cfa131c0c0a399c3e</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS220%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2B_64561.pat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6cc9645989252b42796471d8882a2a31</t>
+          <t>ccb4825884b029e98042c9b3defedae5</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>45036d62086128fbccbb0c07c1dadc6f</t>
+          <t>7b53fbb5c813af9db29b39382b5e5d68</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>462cb5f704faa7a32651be4b4e17746e</t>
+          <t>ae6cdda2edff9458b2fff7114474f38d</t>
         </is>
       </c>
     </row>
@@ -2079,171 +2079,171 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2B_41890.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>eb12a7f890f75cbec459be88e288fe3b</t>
+          <t>5ffee696b480659895d7e20280d75bae</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>59d48e64ad4d0e5bc35f9eec8869d9c5</t>
+          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>8513269cb1ee01030e8d7cd3d57fc8d6</t>
+          <t>939109f7fcdcce5e20a3cec9d6ced85a</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5716f9a0aadb529cfa131c0c0a399c3e</t>
+          <t>948e1799bcd25fbafd5eca2cfd11b338</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ccb4825884b029e98042c9b3defedae5</t>
+          <t>b3a6f54e2be6578c3e3594801208556b</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2BII_64561.pat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7b53fbb5c813af9db29b39382b5e5d68</t>
+          <t>2d5d0be0de12092805c49a1df7eb8a95</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ae6cdda2edff9458b2fff7114474f38d</t>
+          <t>50d27c3c6ba5571f4de5c1f787e804a5</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5ffee696b480659895d7e20280d75bae</t>
+          <t>33a068ae26e9e88e57c4b4e6ed218c98</t>
         </is>
       </c>
     </row>
@@ -2255,46 +2255,46 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2BII_41890.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
+          <t>8387a8d7dd9336bed04ebfb2c02ba12a</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>939109f7fcdcce5e20a3cec9d6ced85a</t>
+          <t>1bb660489f3617975213b9e587fed7b4</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2304,19 +2304,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>948e1799bcd25fbafd5eca2cfd11b338</t>
+          <t>2c443d1fa7b8542c58a203eaf9dbf224</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>b3a6f54e2be6578c3e3594801208556b</t>
+          <t>3e5e09f4d4b0f09ab03f28d12b76f03a</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2348,19 +2348,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2BII_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2422%2B_64561.pat</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2d5d0be0de12092805c49a1df7eb8a95</t>
+          <t>edb8a8cbf941abcb4b97812f628e547e</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2370,19 +2370,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>50d27c3c6ba5571f4de5c1f787e804a5</t>
+          <t>b00d3d1ccf1b1a6982b2b594420e0f3c</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2392,41 +2392,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>33a068ae26e9e88e57c4b4e6ed218c98</t>
+          <t>9ea5e0fe94c01072da36e2f69172abb3</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2BII_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>8387a8d7dd9336bed04ebfb2c02ba12a</t>
+          <t>7fe3c9ae80396a2ea9ed9909b8746c4b</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2436,19 +2436,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1bb660489f3617975213b9e587fed7b4</t>
+          <t>669834673fab793775ee86547d920aa0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2458,19 +2458,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2c443d1fa7b8542c58a203eaf9dbf224</t>
+          <t>ce86c68e6e93fe7cdcc63b165a70a878</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3e5e09f4d4b0f09ab03f28d12b76f03a</t>
+          <t>456fc142cf8d3f1c329601c9d9ed66f5</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2502,19 +2502,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2422%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3622xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>edb8a8cbf941abcb4b97812f628e547e</t>
+          <t>78a0f066e47066c6e7ac18d3aded40b2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2524,19 +2524,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>b00d3d1ccf1b1a6982b2b594420e0f3c</t>
+          <t>d3b223e1e973fcf5c67c64e72775a576</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2546,19 +2546,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>9ea5e0fe94c01072da36e2f69172abb3</t>
+          <t>7af76cca8226ecf95b25630bffa76b3d</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2568,19 +2568,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7fe3c9ae80396a2ea9ed9909b8746c4b</t>
+          <t>b9b452577b38adc82aca42e031be267b</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2590,144 +2590,144 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>669834673fab793775ee86547d920aa0</t>
+          <t>5735baee87d812edbd1a13bb7641d3b7</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ce86c68e6e93fe7cdcc63b165a70a878</t>
+          <t>50089a9ccd2b724f24de04c86f8ac2aa</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>456fc142cf8d3f1c329601c9d9ed66f5</t>
+          <t>dbfb5437026b296436f8b7a658a3e981</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3622xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>78a0f066e47066c6e7ac18d3aded40b2</t>
+          <t>f8254ae94c0b46a79d3d2a9b23282f87</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS420%2B_64561.pat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>d3b223e1e973fcf5c67c64e72775a576</t>
+          <t>f6b8f193b0a8f4c88456d05648e4d360</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7af76cca8226ecf95b25630bffa76b3d</t>
+          <t>0bd416ce234943719f646a0db895b81f</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>b9b452577b38adc82aca42e031be267b</t>
+          <t>ca3dc79e2cb77faafd76959e8367e83a</t>
         </is>
       </c>
     </row>
@@ -2739,46 +2739,46 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS420%2B_41890.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5735baee87d812edbd1a13bb7641d3b7</t>
+          <t>18aab1a6b5914a34e0bb0219c45cda43</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>50089a9ccd2b724f24de04c86f8ac2aa</t>
+          <t>e5605b52000e9e8a63657e0599268932</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2788,19 +2788,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>dbfb5437026b296436f8b7a658a3e981</t>
+          <t>f39d37dee5a64a3b00c2b5fc03aad432</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2810,19 +2810,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>f8254ae94c0b46a79d3d2a9b23282f87</t>
+          <t>62d79e110b5355f32c23b2aa2eb51c24</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2832,210 +2832,210 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS420%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS423%2B_64561.pat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>f6b8f193b0a8f4c88456d05648e4d360</t>
+          <t>c8d2bd03eca69ffa85f9e591a4865fad</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0bd416ce234943719f646a0db895b81f</t>
+          <t>4d901cefef7204d44fd4d0cbcbfc5b52</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ca3dc79e2cb77faafd76959e8367e83a</t>
+          <t>4c3a37f192511d17d956fad40ddfac8d</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS420%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>18aab1a6b5914a34e0bb0219c45cda43</t>
+          <t>d627699bdcee9943a53fdfb0a62e0bb8</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>e5605b52000e9e8a63657e0599268932</t>
+          <t>4d83fa3404cf8b4c4eac895ae9ad6a92</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>f39d37dee5a64a3b00c2b5fc03aad432</t>
+          <t>9691061ea45d029c515e22de919afa9a</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS620slim_64561.pat</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>62d79e110b5355f32c23b2aa2eb51c24</t>
+          <t>fbd8c639bee87f8bfe8bcddad2757b4c</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS423%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>c8d2bd03eca69ffa85f9e591a4865fad</t>
+          <t>1f2d07cae47692f36ef04651184d86a0</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>4d901cefef7204d44fd4d0cbcbfc5b52</t>
+          <t>7d563ad4aceaa1fd177011a7bb165ecf</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS620slim_41890.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>7ab8bda950fc06556b108d298cb2a640</t>
+          <t>1346b08d8eb175168aad043cd9291aee</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>83dd377fa9d66f21e2ab2536bb9a3943</t>
+          <t>7ab8bda950fc06556b108d298cb2a640</t>
         </is>
       </c>
     </row>
@@ -3069,17 +3069,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>390c2e64a19b894047df903d031abd0e</t>
+          <t>83dd377fa9d66f21e2ab2536bb9a3943</t>
         </is>
       </c>
     </row>
@@ -3091,17 +3091,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>6ff89c899fa9ef0e546a45bc8a5d1b50</t>
+          <t>390c2e64a19b894047df903d031abd0e</t>
         </is>
       </c>
     </row>
@@ -3113,17 +3113,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS720%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>417b5a0896e472d38e96c59f643494c5</t>
+          <t>6ff89c899fa9ef0e546a45bc8a5d1b50</t>
         </is>
       </c>
     </row>
@@ -3135,17 +3135,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS720%2B_64561.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>9ecc37490cb6e4de3af666db5766cb21</t>
+          <t>417b5a0896e472d38e96c59f643494c5</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>c811400d228502f37370b527b5624967</t>
+          <t>9ecc37490cb6e4de3af666db5766cb21</t>
         </is>
       </c>
     </row>
@@ -3179,39 +3179,39 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS720%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>738c619668c19c95ce541ca291a964f2</t>
+          <t>c811400d228502f37370b527b5624967</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS720%2B_41890.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
+          <t>738c619668c19c95ce541ca291a964f2</t>
         </is>
       </c>
     </row>
@@ -3223,17 +3223,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>83a24f5a0354c415160b546eadce092b</t>
+          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
         </is>
       </c>
     </row>
@@ -3245,17 +3245,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>302f4427cc76bc3830afc5cff1424298</t>
+          <t>83a24f5a0354c415160b546eadce092b</t>
         </is>
       </c>
     </row>
@@ -3267,17 +3267,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS723%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>4fdf8a51c1104991226ac3958bf8a6d3</t>
+          <t>302f4427cc76bc3830afc5cff1424298</t>
         </is>
       </c>
     </row>
@@ -3289,39 +3289,39 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS723%2B_64561.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>1860b260c80de7103d236f2eae0f0dfb</t>
+          <t>4fdf8a51c1104991226ac3958bf8a6d3</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
+          <t>1860b260c80de7103d236f2eae0f0dfb</t>
         </is>
       </c>
     </row>
@@ -3333,17 +3333,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>55a7e4ccbf6fcba9238a11976a4a7381</t>
+          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3846db325eb44d939730a338719ca9b5</t>
+          <t>55a7e4ccbf6fcba9238a11976a4a7381</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3377,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>753b33e8c92bbf331be8e58dd97c242f</t>
+          <t>3846db325eb44d939730a338719ca9b5</t>
         </is>
       </c>
     </row>
@@ -3399,17 +3399,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS920%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ea97f8eec345a012b54f86843f872c78</t>
+          <t>753b33e8c92bbf331be8e58dd97c242f</t>
         </is>
       </c>
     </row>
@@ -3421,17 +3421,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS920%2B_64561.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>69792ae34d9b3c6e707d0e3e6b82816f</t>
+          <t>ea97f8eec345a012b54f86843f872c78</t>
         </is>
       </c>
     </row>
@@ -3443,17 +3443,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>fa3936a53299b1a1142e4c614e2b360c</t>
+          <t>69792ae34d9b3c6e707d0e3e6b82816f</t>
         </is>
       </c>
     </row>
@@ -3465,39 +3465,39 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS920%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>c2aef3f200aedfc19552da626b877061</t>
+          <t>fa3936a53299b1a1142e4c614e2b360c</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS920%2B_41890.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
+          <t>c2aef3f200aedfc19552da626b877061</t>
         </is>
       </c>
     </row>
@@ -3509,17 +3509,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>74bcec33670a196b08cdf65512f1f4e6</t>
+          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>8504b920d4af57a5daa3d573cac34870</t>
+          <t>74bcec33670a196b08cdf65512f1f4e6</t>
         </is>
       </c>
     </row>
@@ -3553,17 +3553,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS923%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>a78678648ed963f07d6459261f696a1d</t>
+          <t>8504b920d4af57a5daa3d573cac34870</t>
         </is>
       </c>
     </row>
@@ -3575,39 +3575,39 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS923%2B_64561.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>fdff6232dacf9bd3b189506f51577128</t>
+          <t>a78678648ed963f07d6459261f696a1d</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>36a6736d6dcb5f4ff570871809831183</t>
+          <t>fdff6232dacf9bd3b189506f51577128</t>
         </is>
       </c>
     </row>
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>768f381ac51a665b16554bace91abe32</t>
+          <t>36a6736d6dcb5f4ff570871809831183</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
+          <t>768f381ac51a665b16554bace91abe32</t>
         </is>
       </c>
     </row>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA1622_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>4c09fb84e047a8aa4cf26ff7ebe2b397</t>
+          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
         </is>
       </c>
     </row>
@@ -3685,39 +3685,39 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA1622_64561.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
+          <t>4c09fb84e047a8aa4cf26ff7ebe2b397</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
+          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
         </is>
       </c>
     </row>
@@ -3729,17 +3729,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
+          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
         </is>
       </c>
     </row>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
+          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
         </is>
       </c>
     </row>
@@ -3773,17 +3773,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
+          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
         </is>
       </c>
     </row>
@@ -3795,17 +3795,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3219_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>05a1a69c82586672ce4b55c114480d98</t>
+          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
         </is>
       </c>
     </row>
@@ -3817,17 +3817,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3219_64561.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
+          <t>05a1a69c82586672ce4b55c114480d98</t>
         </is>
       </c>
     </row>
@@ -3839,39 +3839,39 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
+          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
+          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
         </is>
       </c>
     </row>
@@ -3883,17 +3883,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
+          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
         </is>
       </c>
     </row>
@@ -3905,17 +3905,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>fd448e5391b33575fcf8c25f11c09f23</t>
+          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
         </is>
       </c>
     </row>
@@ -3927,17 +3927,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2002e02d355c43e266222307e041302a</t>
+          <t>fd448e5391b33575fcf8c25f11c09f23</t>
         </is>
       </c>
     </row>
@@ -3949,17 +3949,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3221_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>a39005bb032ed4beec72675f9c2af4c1</t>
+          <t>2002e02d355c43e266222307e041302a</t>
         </is>
       </c>
     </row>
@@ -3971,17 +3971,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3221_64561.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
+          <t>a39005bb032ed4beec72675f9c2af4c1</t>
         </is>
       </c>
     </row>
@@ -3993,39 +3993,39 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>d433ae251ba95754edde1586851d1e0a</t>
+          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
+          <t>d433ae251ba95754edde1586851d1e0a</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>57e899896177917e2dfbff88320555d8</t>
+          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
         </is>
       </c>
     </row>
@@ -4059,17 +4059,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
+          <t>57e899896177917e2dfbff88320555d8</t>
         </is>
       </c>
     </row>
@@ -4081,17 +4081,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS2500_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>9b7aed00dba25928aff9a16e3deddb23</t>
+          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
         </is>
       </c>
     </row>
@@ -4103,17 +4103,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS2500_64561.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>169493af5375eb9da89ff324a3fe129a</t>
+          <t>9b7aed00dba25928aff9a16e3deddb23</t>
         </is>
       </c>
     </row>
@@ -4125,17 +4125,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>e071c4984d041309f151de29b9ba82b5</t>
+          <t>169493af5375eb9da89ff324a3fe129a</t>
         </is>
       </c>
     </row>
@@ -4147,39 +4147,39 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>9562d49a07f5481208b672ff777f3cbf</t>
+          <t>e071c4984d041309f151de29b9ba82b5</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>12a28689a1816b6d8cb329edbe385e78</t>
+          <t>9562d49a07f5481208b672ff777f3cbf</t>
         </is>
       </c>
     </row>
@@ -4191,17 +4191,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
+          <t>12a28689a1816b6d8cb329edbe385e78</t>
         </is>
       </c>
     </row>
@@ -4213,17 +4213,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
+          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
         </is>
       </c>
     </row>
@@ -4235,17 +4235,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
+          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
         </is>
       </c>
     </row>
@@ -4257,17 +4257,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>c494f83f4331fbdc7e8521533bca20f2</t>
+          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
         </is>
       </c>
     </row>
@@ -4279,17 +4279,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3400_64561.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
+          <t>c494f83f4331fbdc7e8521533bca20f2</t>
         </is>
       </c>
     </row>
@@ -4301,39 +4301,39 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1376f3daf42b193bbf0d24abd1b70371</t>
+          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
+          <t>1376f3daf42b193bbf0d24abd1b70371</t>
         </is>
       </c>
     </row>
@@ -4345,17 +4345,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
+          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
         </is>
       </c>
     </row>
@@ -4367,17 +4367,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
+          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
         </is>
       </c>
     </row>
@@ -4389,17 +4389,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3410_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>b05235f7b241fced6b01004916ef264a</t>
+          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
         </is>
       </c>
     </row>
@@ -4411,39 +4411,39 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3410_64561.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>1bade8eb7eadd514699d4beb714531ad</t>
+          <t>b05235f7b241fced6b01004916ef264a</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>7f6686d018b515a022e8221b104b5d17</t>
+          <t>1bade8eb7eadd514699d4beb714531ad</t>
         </is>
       </c>
     </row>
@@ -4455,17 +4455,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>d9a68ec3e8c921641a3b51af68e57411</t>
+          <t>7f6686d018b515a022e8221b104b5d17</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4477,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>05cbcf3b75043968d6dd8a48e4677098</t>
+          <t>d9a68ec3e8c921641a3b51af68e57411</t>
         </is>
       </c>
     </row>
@@ -4499,17 +4499,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ddc3a00cef97f70cf56264239041c94c</t>
+          <t>05cbcf3b75043968d6dd8a48e4677098</t>
         </is>
       </c>
     </row>
@@ -4521,17 +4521,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3600_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>fb5a352baca011fe525cc7b6100ee418</t>
+          <t>ddc3a00cef97f70cf56264239041c94c</t>
         </is>
       </c>
     </row>
@@ -4543,17 +4543,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3600_64561.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>b521eab70dc9836235f21a5cffd96d34</t>
+          <t>fb5a352baca011fe525cc7b6100ee418</t>
         </is>
       </c>
     </row>
@@ -4565,200 +4565,200 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
+          <t>b521eab70dc9836235f21a5cffd96d34</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
+          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>9ab734898b1f8af906b65ff91bf2b399</t>
+          <t>1b726b745327977401045b7434de6ad4</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
+          <t>e7887381980432a7be5ddf4dec0772ad</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>d71d82a7b5d978ad14e351817d176578</t>
+          <t>66dc986826177528dc9558195e1ddc89</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>bb968844672fd7b5729d7865af736aaf</t>
+          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS6400_64561.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>441e25883733556af6fb6cbab74090fd</t>
+          <t>bfb8182d0968cf91511e233fb5eacb07</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
+          <t>651be491d10a47ecc534295d84341c03</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>77bcf133981bc853c0f70b0e9177cefb</t>
+          <t>030064272d82777681502745fcfa8c48</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4768,19 +4768,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>12a287daec77135d0977274464ef0b95</t>
+          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>cd56441518205ee7063764d0ef94cbbe</t>
+          <t>9ab734898b1f8af906b65ff91bf2b399</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4812,19 +4812,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
+          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4834,19 +4834,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
+          <t>d71d82a7b5d978ad14e351817d176578</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4856,19 +4856,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221%2B_64561.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>5d568fcba621bcecaea9b8993a01ba65</t>
+          <t>bb968844672fd7b5729d7865af736aaf</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4878,19 +4878,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>3da6804567e48789084138326fae4e3a</t>
+          <t>441e25883733556af6fb6cbab74090fd</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4900,19 +4900,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
+          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4922,19 +4922,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221%2B_41890.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>531da5ab10ab1b49078041c221f3071e</t>
+          <t>77bcf133981bc853c0f70b0e9177cefb</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4944,19 +4944,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>d84b6e3d631f17797de438384d7f4098</t>
+          <t>12a287daec77135d0977274464ef0b95</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4966,19 +4966,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>1ef98087cb11be286a8eac26f55dbe52</t>
+          <t>cd56441518205ee7063764d0ef94cbbe</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4988,19 +4988,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
+          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5010,19 +5010,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>631c7162e33a11d4555121a188540c83</t>
+          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5032,19 +5032,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1619xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>59c540615429ba25af630a3579ec00d4</t>
+          <t>5d568fcba621bcecaea9b8993a01ba65</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5054,19 +5054,19 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>7e0747b8808941d51c35de503473b62e</t>
+          <t>3da6804567e48789084138326fae4e3a</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5076,195 +5076,195 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
+          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
+          <t>531da5ab10ab1b49078041c221f3071e</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
+          <t>d84b6e3d631f17797de438384d7f4098</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
+          <t>1ef98087cb11be286a8eac26f55dbe52</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>f58627f79cda538eb70055e921fe12ae</t>
+          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>38cb652ae92df261ad2df3047dd0640b</t>
+          <t>631c7162e33a11d4555121a188540c83</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1619xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
+          <t>59c540615429ba25af630a3579ec00d4</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>65b158d4349a90ca627b324d874c9b07</t>
+          <t>7e0747b8808941d51c35de503473b62e</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>971969c4e182012dcc8b267f649f0f08</t>
+          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5274,19 +5274,19 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
+          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5296,19 +5296,19 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>c0c53783189297b37b2f84ddea0ec457</t>
+          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5318,19 +5318,19 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
+          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5340,19 +5340,19 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>af67117d40dd4f8e0614f1b8e5466841</t>
+          <t>f58627f79cda538eb70055e921fe12ae</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5362,19 +5362,19 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421%2B_64561.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>02a7986fd80b9a9126559572ce5e94d1</t>
+          <t>38cb652ae92df261ad2df3047dd0640b</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5384,19 +5384,19 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
+          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
+          <t>65b158d4349a90ca627b324d874c9b07</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5428,19 +5428,19 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421%2B_41890.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>4fc000c5cc57d181ba21585c5afc841b</t>
+          <t>971969c4e182012dcc8b267f649f0f08</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5450,393 +5450,393 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
+          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>ce2c6810c902577904df02f0480c8856</t>
+          <t>c0c53783189297b37b2f84ddea0ec457</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>675f7e5fdc9df67320ee478223d5780e</t>
+          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>1837d171f2a6b3b6c5a2058ea8e3aa57</t>
+          <t>af67117d40dd4f8e0614f1b8e5466841</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>db45c561e81392e48cb03d8e495a0cbc</t>
+          <t>02a7986fd80b9a9126559572ce5e94d1</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
+          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>5594337e837b9398872733e9802d3eed</t>
+          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>222540970ddef547bfd1da48083bfec4</t>
+          <t>4fc000c5cc57d181ba21585c5afc841b</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>282ec64aa895854a51aa4bc3a4b1417d</t>
+          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>7146a92a3509f39c831492469793d71a</t>
+          <t>ce2c6810c902577904df02f0480c8856</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
+          <t>675f7e5fdc9df67320ee478223d5780e</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423%2B_64561.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>896946ab9bed611f26f5258724af6aef</t>
+          <t>1837d171f2a6b3b6c5a2058ea8e3aa57</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
+          <t>db45c561e81392e48cb03d8e495a0cbc</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>599c07e03af97e501d20c70f9039f78a</t>
+          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2821RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>b4fae8aef4c3195544c2d3e7ae652559</t>
+          <t>5594337e837b9398872733e9802d3eed</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>fdc9aea6a47208b45c56c733233b773f</t>
+          <t>222540970ddef547bfd1da48083bfec4</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
+          <t>282ec64aa895854a51aa4bc3a4b1417d</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2821RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>d380df03166f94d61df886cc92cf8c7c</t>
+          <t>7146a92a3509f39c831492469793d71a</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5846,19 +5846,19 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
+          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -5868,19 +5868,19 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
+          <t>896946ab9bed611f26f5258724af6aef</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -5890,19 +5890,19 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>448f7685611e0190c9224d23715a8577</t>
+          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -5912,19 +5912,19 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
+          <t>599c07e03af97e501d20c70f9039f78a</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -5934,19 +5934,19 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3618xs_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2821RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>5540449136a654f0b7505e00dca42d49</t>
+          <t>b4fae8aef4c3195544c2d3e7ae652559</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -5956,19 +5956,19 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>e543eac89077e981d3fa7f0ee8c421de</t>
+          <t>fdc9aea6a47208b45c56c733233b773f</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -5978,767 +5978,767 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>f36f1f22a48b184358823b6168a904fd</t>
+          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2821RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
+          <t>d380df03166f94d61df886cc92cf8c7c</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>890b61e7f6b048b821ba4ab8690184fa</t>
+          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>c3f385559425e886e928d1addc3241a6</t>
+          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0348510c72282255f50931e482d3ea7a</t>
+          <t>448f7685611e0190c9224d23715a8577</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621RPxs_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>1c0887fff149a556991f2c5b01f1b064</t>
+          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3618xs_64561.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>b5866fc58081412e5367df643ca6a4d1</t>
+          <t>5540449136a654f0b7505e00dca42d49</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>1c049c31b9f84f53da889c48e2a21d59</t>
+          <t>e543eac89077e981d3fa7f0ee8c421de</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>a0939c649b9264c7e798789c2632aa93</t>
+          <t>f36f1f22a48b184358823b6168a904fd</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>f2b6896f7ea7237bd52501f80e502396</t>
+          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
+          <t>890b61e7f6b048b821ba4ab8690184fa</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>b1517fb23721192de7e666da8cd2ae00</t>
+          <t>c3f385559425e886e928d1addc3241a6</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>ff7d10002fbc048f9851ed044a679947</t>
+          <t>0348510c72282255f50931e482d3ea7a</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621RPxs_64561.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
+          <t>1c0887fff149a556991f2c5b01f1b064</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
+          <t>b5866fc58081412e5367df643ca6a4d1</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>fa55d5394111eaa7823551564ac74cd2</t>
+          <t>1c049c31b9f84f53da889c48e2a21d59</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>cbcb77548de26b6843ab31d7a7258b62</t>
+          <t>a0939c649b9264c7e798789c2632aa93</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
+          <t>f2b6896f7ea7237bd52501f80e502396</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
+          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS4021xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>547885a4e22765674271c2e0906870f3</t>
+          <t>b1517fb23721192de7e666da8cd2ae00</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>fc15f132649a8c8626190dc864bbdf8c</t>
+          <t>ff7d10002fbc048f9851ed044a679947</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
+          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
+          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>eaf465492d0dd1890de82be665350657</t>
+          <t>fa55d5394111eaa7823551564ac74cd2</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
+          <t>cbcb77548de26b6843ab31d7a7258b62</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS422%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>900d7d45ed407908d65cea27c27eb32f</t>
+          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
+          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS4021xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
+          <t>547885a4e22765674271c2e0906870f3</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
+          <t>fc15f132649a8c8626190dc864bbdf8c</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>073cc8988b143e26e931784c3ad795a6</t>
+          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
+          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>0be796d6b960e5e38aa0e3fef1e1af13</t>
+          <t>eaf465492d0dd1890de82be665350657</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>423ecfdb73c88432232a28d96ebb4e06</t>
+          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS422%2B_64561.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>dc7cb29466311558acc2c70e166b478a</t>
+          <t>900d7d45ed407908d65cea27c27eb32f</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>7d3c1a6a282d21914e22995cd2a6d6f1</t>
+          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6748,19 +6748,19 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>1512187ce7f40824b1138e225fe4ca97</t>
+          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6770,19 +6770,19 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>530d5de622f46e1960ed5b1c32d168a9</t>
+          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6792,19 +6792,19 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
+          <t>073cc8988b143e26e931784c3ad795a6</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6814,19 +6814,19 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
+          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6836,19 +6836,19 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820%2B_64561.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>e9bda6e4234f75399cf322ff88aedd2e</t>
+          <t>0be796d6b960e5e38aa0e3fef1e1af13</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6858,19 +6858,19 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
+          <t>423ecfdb73c88432232a28d96ebb4e06</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6880,19 +6880,19 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>da20a8257ef0b55e81334933cb9ab662</t>
+          <t>dc7cb29466311558acc2c70e166b478a</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6902,19 +6902,19 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820%2B_41890.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>ed152c7d96651e7b9b8635ed929f6597</t>
+          <t>7d3c1a6a282d21914e22995cd2a6d6f1</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6924,1295 +6924,1295 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>19033774f5c5379ee9345010a6de77ae</t>
+          <t>1512187ce7f40824b1138e225fe4ca97</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>15b1df11e5b3161b2a04ee2547163e99</t>
+          <t>530d5de622f46e1960ed5b1c32d168a9</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>4ccecca2e30861ef3016419381db7f6e</t>
+          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>6aa22d16d31b258930f69a93b08ad0ce</t>
+          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2673a9d78c32b1daf5b3454478e89077</t>
+          <t>e9bda6e4234f75399cf322ff88aedd2e</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
+          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
+          <t>da20a8257ef0b55e81334933cb9ab662</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>3b8ddf443835f9caf3e618a0040eca41</t>
+          <t>ed152c7d96651e7b9b8635ed929f6597</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>90f252c276180d4e9fbc4619610fb934</t>
+          <t>19033774f5c5379ee9345010a6de77ae</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>bc988679f582cbb5da2d641f5021c5d3</t>
+          <t>15b1df11e5b3161b2a04ee2547163e99</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
+          <t>4ccecca2e30861ef3016419381db7f6e</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822%2B_64561.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
+          <t>6aa22d16d31b258930f69a93b08ad0ce</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
+          <t>2673a9d78c32b1daf5b3454478e89077</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
+          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3200D_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>240d715143a2d1d5338d24c16830b386</t>
+          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>14d4a437a999e6e0f036516091a7557e</t>
+          <t>3b8ddf443835f9caf3e618a0040eca41</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
+          <t>90f252c276180d4e9fbc4619610fb934</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>cf757438c9ea944760ea9f1afc5bb956</t>
+          <t>bc988679f582cbb5da2d641f5021c5d3</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
+          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>1d740651ca0623939589150c7a572502</t>
+          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>eabb43133e9136a808bc7f4442f01000</t>
+          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>72d1c84464a6001fdd494e784fc2184e</t>
+          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3200D_64561.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>cc0a219656db7ef26587ed59bbf1643f</t>
+          <t>240d715143a2d1d5338d24c16830b386</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
+          <t>14d4a437a999e6e0f036516091a7557e</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>94155b2af89d9468c0c10275f449f153</t>
+          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>482e8d9b4647d9820af3125511fc98cd</t>
+          <t>cf757438c9ea944760ea9f1afc5bb956</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
+          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400D_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>1fe072a1822187e6f92d8bb236e9090d</t>
+          <t>1d740651ca0623939589150c7a572502</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>07fdf9e297ca66fa0821341e3be1933b</t>
+          <t>eabb43133e9136a808bc7f4442f01000</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400_64561.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>959f9ff2a40cafde128c12da37549313</t>
+          <t>72d1c84464a6001fdd494e784fc2184e</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
+          <t>cc0a219656db7ef26587ed59bbf1643f</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>0cebda065505c2792d4c1f4a90a7876e</t>
+          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>cc489fe3b383290713dd13f363a1ee7e</t>
+          <t>94155b2af89d9468c0c10275f449f153</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3600_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>0201f14b4b60e8dd37bd5cd8e45ca89a</t>
+          <t>482e8d9b4647d9820af3125511fc98cd</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
+          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400D_64561.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
+          <t>1fe072a1822187e6f92d8bb236e9090d</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>5ec675ed69c80465cf9a5980208efac8</t>
+          <t>07fdf9e297ca66fa0821341e3be1933b</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
+          <t>022967f2ae03fec0aab2fe733b126a60</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>83b591bfb240c51b2feff8f02eac8bde</t>
+          <t>35e549de6071e76e023673d7769c2e78</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA6400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>596fba7691d54ba45ff383d5f73b8bcb</t>
+          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3410_64561.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>fdbbea86e280a8f754339a064f9ad2df</t>
+          <t>2c8af778e145d81c1687ca24f73828b9</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>4c3a37f192511d17d956fad40ddfac8d</t>
+          <t>e915219272385f93ad8ef32b3423b1fe</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>d627699bdcee9943a53fdfb0a62e0bb8</t>
+          <t>959f9ff2a40cafde128c12da37549313</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>4d83fa3404cf8b4c4eac895ae9ad6a92</t>
+          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>9691061ea45d029c515e22de919afa9a</t>
+          <t>0cebda065505c2792d4c1f4a90a7876e</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS620slim_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>fbd8c639bee87f8bfe8bcddad2757b4c</t>
+          <t>cc489fe3b383290713dd13f363a1ee7e</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3600_64561.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>1f2d07cae47692f36ef04651184d86a0</t>
+          <t>0201f14b4b60e8dd37bd5cd8e45ca89a</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>7d563ad4aceaa1fd177011a7bb165ecf</t>
+          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS620slim_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>1346b08d8eb175168aad043cd9291aee</t>
+          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>f051382db004b9bbf169e2b1da454914</t>
+          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>fbeda2c4f1bd0da48ab469e5a767c95f</t>
+          <t>b35118ff409b5edf589447f9ec75aba3</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_HD6500_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>9dc96261bdf57090feb2006b3ad18065</t>
+          <t>4244ef54d4741012ac22809514f07f7e</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3610_64561.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>245c3ccd788a17be79187ff32c074888</t>
+          <t>b10667044e8ab06c00f8016e33eeefb0</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>022967f2ae03fec0aab2fe733b126a60</t>
+          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>35e549de6071e76e023673d7769c2e78</t>
+          <t>5ec675ed69c80465cf9a5980208efac8</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
+          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3410_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>2c8af778e145d81c1687ca24f73828b9</t>
+          <t>83b591bfb240c51b2feff8f02eac8bde</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA6400_64561.pat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>e915219272385f93ad8ef32b3423b1fe</t>
+          <t>596fba7691d54ba45ff383d5f73b8bcb</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
+          <t>fdbbea86e280a8f754339a064f9ad2df</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8222,19 +8222,19 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>b35118ff409b5edf589447f9ec75aba3</t>
+          <t>f051382db004b9bbf169e2b1da454914</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8244,19 +8244,19 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>4244ef54d4741012ac22809514f07f7e</t>
+          <t>fbeda2c4f1bd0da48ab469e5a767c95f</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8266,34 +8266,34 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3610_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_HD6500_64561.pat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>b10667044e8ab06c00f8016e33eeefb0</t>
+          <t>9dc96261bdf57090feb2006b3ad18065</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
+          <t>245c3ccd788a17be79187ff32c074888</t>
         </is>
       </c>
     </row>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4758,7 +4758,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4768,100 +4768,100 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_HD6500_72806.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
+          <t>590930cf1b5ea59e98d2caf9d8a50d18</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>9ab734898b1f8af906b65ff91bf2b399</t>
+          <t>f051382db004b9bbf169e2b1da454914</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
+          <t>fbeda2c4f1bd0da48ab469e5a767c95f</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_HD6500_64561.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>d71d82a7b5d978ad14e351817d176578</t>
+          <t>9dc96261bdf57090feb2006b3ad18065</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>bb968844672fd7b5729d7865af736aaf</t>
+          <t>245c3ccd788a17be79187ff32c074888</t>
         </is>
       </c>
     </row>
@@ -4873,17 +4873,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>441e25883733556af6fb6cbab74090fd</t>
+          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
         </is>
       </c>
     </row>
@@ -4895,17 +4895,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
+          <t>9ab734898b1f8af906b65ff91bf2b399</t>
         </is>
       </c>
     </row>
@@ -4917,127 +4917,127 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>77bcf133981bc853c0f70b0e9177cefb</t>
+          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>12a287daec77135d0977274464ef0b95</t>
+          <t>d71d82a7b5d978ad14e351817d176578</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221%2B_64561.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>cd56441518205ee7063764d0ef94cbbe</t>
+          <t>bb968844672fd7b5729d7865af736aaf</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
+          <t>441e25883733556af6fb6cbab74090fd</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
+          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221%2B_41890.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>5d568fcba621bcecaea9b8993a01ba65</t>
+          <t>77bcf133981bc853c0f70b0e9177cefb</t>
         </is>
       </c>
     </row>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>3da6804567e48789084138326fae4e3a</t>
+          <t>12a287daec77135d0977274464ef0b95</t>
         </is>
       </c>
     </row>
@@ -5071,17 +5071,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
+          <t>cd56441518205ee7063764d0ef94cbbe</t>
         </is>
       </c>
     </row>
@@ -5093,127 +5093,127 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>531da5ab10ab1b49078041c221f3071e</t>
+          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>d84b6e3d631f17797de438384d7f4098</t>
+          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1221RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>1ef98087cb11be286a8eac26f55dbe52</t>
+          <t>5d568fcba621bcecaea9b8993a01ba65</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
+          <t>3da6804567e48789084138326fae4e3a</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>631c7162e33a11d4555121a188540c83</t>
+          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1619xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS1221RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>59c540615429ba25af630a3579ec00d4</t>
+          <t>531da5ab10ab1b49078041c221f3071e</t>
         </is>
       </c>
     </row>
@@ -5225,17 +5225,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>7e0747b8808941d51c35de503473b62e</t>
+          <t>d84b6e3d631f17797de438384d7f4098</t>
         </is>
       </c>
     </row>
@@ -5247,127 +5247,127 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
+          <t>1ef98087cb11be286a8eac26f55dbe52</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
+          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
+          <t>631c7162e33a11d4555121a188540c83</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS1619xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
+          <t>59c540615429ba25af630a3579ec00d4</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>f58627f79cda538eb70055e921fe12ae</t>
+          <t>7e0747b8808941d51c35de503473b62e</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>38cb652ae92df261ad2df3047dd0640b</t>
+          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
         </is>
       </c>
     </row>
@@ -5379,17 +5379,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
+          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
         </is>
       </c>
     </row>
@@ -5401,17 +5401,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>65b158d4349a90ca627b324d874c9b07</t>
+          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
         </is>
       </c>
     </row>
@@ -5423,127 +5423,127 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>971969c4e182012dcc8b267f649f0f08</t>
+          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
+          <t>f58627f79cda538eb70055e921fe12ae</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421%2B_64561.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>c0c53783189297b37b2f84ddea0ec457</t>
+          <t>38cb652ae92df261ad2df3047dd0640b</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
+          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>af67117d40dd4f8e0614f1b8e5466841</t>
+          <t>65b158d4349a90ca627b324d874c9b07</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421%2B_41890.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>02a7986fd80b9a9126559572ce5e94d1</t>
+          <t>971969c4e182012dcc8b267f649f0f08</t>
         </is>
       </c>
     </row>
@@ -5555,17 +5555,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
+          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
         </is>
       </c>
     </row>
@@ -5577,17 +5577,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
+          <t>c0c53783189297b37b2f84ddea0ec457</t>
         </is>
       </c>
     </row>
@@ -5599,134 +5599,134 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>4fc000c5cc57d181ba21585c5afc841b</t>
+          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
+          <t>af67117d40dd4f8e0614f1b8e5466841</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2421RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>ce2c6810c902577904df02f0480c8856</t>
+          <t>02a7986fd80b9a9126559572ce5e94d1</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>675f7e5fdc9df67320ee478223d5780e</t>
+          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1837d171f2a6b3b6c5a2058ea8e3aa57</t>
+          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2421RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>db45c561e81392e48cb03d8e495a0cbc</t>
+          <t>4fc000c5cc57d181ba21585c5afc841b</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5736,19 +5736,19 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
+          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -5758,19 +5758,19 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>5594337e837b9398872733e9802d3eed</t>
+          <t>ce2c6810c902577904df02f0480c8856</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -5780,19 +5780,19 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>222540970ddef547bfd1da48083bfec4</t>
+          <t>675f7e5fdc9df67320ee478223d5780e</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -5802,19 +5802,19 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423%2B_64561.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>282ec64aa895854a51aa4bc3a4b1417d</t>
+          <t>1837d171f2a6b3b6c5a2058ea8e3aa57</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5824,19 +5824,19 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>7146a92a3509f39c831492469793d71a</t>
+          <t>db45c561e81392e48cb03d8e495a0cbc</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -5846,100 +5846,100 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
+          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>896946ab9bed611f26f5258724af6aef</t>
+          <t>5594337e837b9398872733e9802d3eed</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
+          <t>222540970ddef547bfd1da48083bfec4</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2423RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>599c07e03af97e501d20c70f9039f78a</t>
+          <t>282ec64aa895854a51aa4bc3a4b1417d</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2821RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>b4fae8aef4c3195544c2d3e7ae652559</t>
+          <t>7146a92a3509f39c831492469793d71a</t>
         </is>
       </c>
     </row>
@@ -5951,17 +5951,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>fdc9aea6a47208b45c56c733233b773f</t>
+          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
         </is>
       </c>
     </row>
@@ -5973,17 +5973,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
+          <t>896946ab9bed611f26f5258724af6aef</t>
         </is>
       </c>
     </row>
@@ -5995,127 +5995,127 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2821RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>d380df03166f94d61df886cc92cf8c7c</t>
+          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
+          <t>599c07e03af97e501d20c70f9039f78a</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2821RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
+          <t>b4fae8aef4c3195544c2d3e7ae652559</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>448f7685611e0190c9224d23715a8577</t>
+          <t>fdc9aea6a47208b45c56c733233b773f</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
+          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3618xs_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2821RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>5540449136a654f0b7505e00dca42d49</t>
+          <t>d380df03166f94d61df886cc92cf8c7c</t>
         </is>
       </c>
     </row>
@@ -6127,17 +6127,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>e543eac89077e981d3fa7f0ee8c421de</t>
+          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
         </is>
       </c>
     </row>
@@ -6149,127 +6149,127 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>f36f1f22a48b184358823b6168a904fd</t>
+          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
+          <t>448f7685611e0190c9224d23715a8577</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>890b61e7f6b048b821ba4ab8690184fa</t>
+          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3618xs_64561.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>c3f385559425e886e928d1addc3241a6</t>
+          <t>5540449136a654f0b7505e00dca42d49</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>0348510c72282255f50931e482d3ea7a</t>
+          <t>e543eac89077e981d3fa7f0ee8c421de</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621RPxs_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>1c0887fff149a556991f2c5b01f1b064</t>
+          <t>f36f1f22a48b184358823b6168a904fd</t>
         </is>
       </c>
     </row>
@@ -6281,17 +6281,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>b5866fc58081412e5367df643ca6a4d1</t>
+          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
         </is>
       </c>
     </row>
@@ -6303,127 +6303,127 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>1c049c31b9f84f53da889c48e2a21d59</t>
+          <t>890b61e7f6b048b821ba4ab8690184fa</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>a0939c649b9264c7e798789c2632aa93</t>
+          <t>c3f385559425e886e928d1addc3241a6</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>f2b6896f7ea7237bd52501f80e502396</t>
+          <t>0348510c72282255f50931e482d3ea7a</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621RPxs_64561.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
+          <t>1c0887fff149a556991f2c5b01f1b064</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>b1517fb23721192de7e666da8cd2ae00</t>
+          <t>b5866fc58081412e5367df643ca6a4d1</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>ff7d10002fbc048f9851ed044a679947</t>
+          <t>1c049c31b9f84f53da889c48e2a21d59</t>
         </is>
       </c>
     </row>
@@ -6435,17 +6435,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
+          <t>a0939c649b9264c7e798789c2632aa93</t>
         </is>
       </c>
     </row>
@@ -6457,127 +6457,127 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
+          <t>f2b6896f7ea7237bd52501f80e502396</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>fa55d5394111eaa7823551564ac74cd2</t>
+          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>cbcb77548de26b6843ab31d7a7258b62</t>
+          <t>b1517fb23721192de7e666da8cd2ae00</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3621xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
+          <t>ff7d10002fbc048f9851ed044a679947</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
+          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS4021xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>547885a4e22765674271c2e0906870f3</t>
+          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
         </is>
       </c>
     </row>
@@ -6589,17 +6589,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>fc15f132649a8c8626190dc864bbdf8c</t>
+          <t>fa55d5394111eaa7823551564ac74cd2</t>
         </is>
       </c>
     </row>
@@ -6611,134 +6611,134 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
+          <t>cbcb77548de26b6843ab31d7a7258b62</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
+          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>eaf465492d0dd1890de82be665350657</t>
+          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS4021xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
+          <t>547885a4e22765674271c2e0906870f3</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS422%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>900d7d45ed407908d65cea27c27eb32f</t>
+          <t>fc15f132649a8c8626190dc864bbdf8c</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
+          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6748,100 +6748,100 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
+          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
+          <t>eaf465492d0dd1890de82be665350657</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>073cc8988b143e26e931784c3ad795a6</t>
+          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS422%2B_64561.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
+          <t>900d7d45ed407908d65cea27c27eb32f</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0be796d6b960e5e38aa0e3fef1e1af13</t>
+          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
         </is>
       </c>
     </row>
@@ -6853,17 +6853,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>423ecfdb73c88432232a28d96ebb4e06</t>
+          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
         </is>
       </c>
     </row>
@@ -6875,17 +6875,17 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>dc7cb29466311558acc2c70e166b478a</t>
+          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
         </is>
       </c>
     </row>
@@ -6897,127 +6897,127 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>7d3c1a6a282d21914e22995cd2a6d6f1</t>
+          <t>073cc8988b143e26e931784c3ad795a6</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>1512187ce7f40824b1138e225fe4ca97</t>
+          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820%2B_64561.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>530d5de622f46e1960ed5b1c32d168a9</t>
+          <t>0be796d6b960e5e38aa0e3fef1e1af13</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
+          <t>423ecfdb73c88432232a28d96ebb4e06</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
+          <t>dc7cb29466311558acc2c70e166b478a</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820%2B_41890.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>e9bda6e4234f75399cf322ff88aedd2e</t>
+          <t>7d3c1a6a282d21914e22995cd2a6d6f1</t>
         </is>
       </c>
     </row>
@@ -7029,17 +7029,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
+          <t>1512187ce7f40824b1138e225fe4ca97</t>
         </is>
       </c>
     </row>
@@ -7051,17 +7051,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>da20a8257ef0b55e81334933cb9ab662</t>
+          <t>530d5de622f46e1960ed5b1c32d168a9</t>
         </is>
       </c>
     </row>
@@ -7073,134 +7073,134 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>ed152c7d96651e7b9b8635ed929f6597</t>
+          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>19033774f5c5379ee9345010a6de77ae</t>
+          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS820RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>15b1df11e5b3161b2a04ee2547163e99</t>
+          <t>e9bda6e4234f75399cf322ff88aedd2e</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>4ccecca2e30861ef3016419381db7f6e</t>
+          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>6aa22d16d31b258930f69a93b08ad0ce</t>
+          <t>da20a8257ef0b55e81334933cb9ab662</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS820RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>2673a9d78c32b1daf5b3454478e89077</t>
+          <t>ed152c7d96651e7b9b8635ed929f6597</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7210,19 +7210,19 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
+          <t>19033774f5c5379ee9345010a6de77ae</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7232,19 +7232,19 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
+          <t>15b1df11e5b3161b2a04ee2547163e99</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7254,19 +7254,19 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>3b8ddf443835f9caf3e618a0040eca41</t>
+          <t>4ccecca2e30861ef3016419381db7f6e</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7276,19 +7276,19 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822%2B_64561.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>90f252c276180d4e9fbc4619610fb934</t>
+          <t>6aa22d16d31b258930f69a93b08ad0ce</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7298,19 +7298,19 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>bc988679f582cbb5da2d641f5021c5d3</t>
+          <t>2673a9d78c32b1daf5b3454478e89077</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7320,100 +7320,100 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
+          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
+          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
+          <t>3b8ddf443835f9caf3e618a0040eca41</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS822RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
+          <t>90f252c276180d4e9fbc4619610fb934</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3200D_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>240d715143a2d1d5338d24c16830b386</t>
+          <t>bc988679f582cbb5da2d641f5021c5d3</t>
         </is>
       </c>
     </row>
@@ -7425,17 +7425,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>14d4a437a999e6e0f036516091a7557e</t>
+          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
         </is>
       </c>
     </row>
@@ -7447,127 +7447,127 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
+          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>cf757438c9ea944760ea9f1afc5bb956</t>
+          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
+          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3200D_64561.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>1d740651ca0623939589150c7a572502</t>
+          <t>240d715143a2d1d5338d24c16830b386</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>eabb43133e9136a808bc7f4442f01000</t>
+          <t>14d4a437a999e6e0f036516091a7557e</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>72d1c84464a6001fdd494e784fc2184e</t>
+          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
         </is>
       </c>
     </row>
@@ -7579,17 +7579,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>cc0a219656db7ef26587ed59bbf1643f</t>
+          <t>cf757438c9ea944760ea9f1afc5bb956</t>
         </is>
       </c>
     </row>
@@ -7601,134 +7601,134 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
+          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>94155b2af89d9468c0c10275f449f153</t>
+          <t>1d740651ca0623939589150c7a572502</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>482e8d9b4647d9820af3125511fc98cd</t>
+          <t>eabb43133e9136a808bc7f4442f01000</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400_64561.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
+          <t>72d1c84464a6001fdd494e784fc2184e</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400D_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>1fe072a1822187e6f92d8bb236e9090d</t>
+          <t>cc0a219656db7ef26587ed59bbf1643f</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>07fdf9e297ca66fa0821341e3be1933b</t>
+          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7738,41 +7738,41 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>022967f2ae03fec0aab2fe733b126a60</t>
+          <t>94155b2af89d9468c0c10275f449f153</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>35e549de6071e76e023673d7769c2e78</t>
+          <t>482e8d9b4647d9820af3125511fc98cd</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7782,19 +7782,19 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
+          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7804,19 +7804,19 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3410_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3400D_64561.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>2c8af778e145d81c1687ca24f73828b9</t>
+          <t>1fe072a1822187e6f92d8bb236e9090d</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7826,19 +7826,19 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>e915219272385f93ad8ef32b3423b1fe</t>
+          <t>07fdf9e297ca66fa0821341e3be1933b</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7848,100 +7848,100 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>959f9ff2a40cafde128c12da37549313</t>
+          <t>022967f2ae03fec0aab2fe733b126a60</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
+          <t>35e549de6071e76e023673d7769c2e78</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>0cebda065505c2792d4c1f4a90a7876e</t>
+          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3410_64561.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>cc489fe3b383290713dd13f363a1ee7e</t>
+          <t>2c8af778e145d81c1687ca24f73828b9</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3600_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>0201f14b4b60e8dd37bd5cd8e45ca89a</t>
+          <t>e915219272385f93ad8ef32b3423b1fe</t>
         </is>
       </c>
     </row>
@@ -7953,17 +7953,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
+          <t>959f9ff2a40cafde128c12da37549313</t>
         </is>
       </c>
     </row>
@@ -7975,134 +7975,134 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
+          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
+          <t>0cebda065505c2792d4c1f4a90a7876e</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>b35118ff409b5edf589447f9ec75aba3</t>
+          <t>cc489fe3b383290713dd13f363a1ee7e</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3600_64561.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>4244ef54d4741012ac22809514f07f7e</t>
+          <t>0201f14b4b60e8dd37bd5cd8e45ca89a</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3610_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>b10667044e8ab06c00f8016e33eeefb0</t>
+          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
+          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8112,41 +8112,41 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>5ec675ed69c80465cf9a5980208efac8</t>
+          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
+          <t>b35118ff409b5edf589447f9ec75aba3</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8156,19 +8156,19 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>83b591bfb240c51b2feff8f02eac8bde</t>
+          <t>4244ef54d4741012ac22809514f07f7e</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8178,19 +8178,19 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA6400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA3610_64561.pat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>596fba7691d54ba45ff383d5f73b8bcb</t>
+          <t>b10667044e8ab06c00f8016e33eeefb0</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8200,122 +8200,122 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>fdbbea86e280a8f754339a064f9ad2df</t>
+          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>f051382db004b9bbf169e2b1da454914</t>
+          <t>5ec675ed69c80465cf9a5980208efac8</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>fbeda2c4f1bd0da48ab469e5a767c95f</t>
+          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_HD6500_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>9dc96261bdf57090feb2006b3ad18065</t>
+          <t>83b591bfb240c51b2feff8f02eac8bde</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_SA6400_64561.pat</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>245c3ccd788a17be79187ff32c074888</t>
+          <t>596fba7691d54ba45ff383d5f73b8bcb</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>83df618fab57a656368d5845025160ba</t>
+          <t>fdbbea86e280a8f754339a064f9ad2df</t>
         </is>
       </c>
     </row>
@@ -8327,17 +8327,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>ed156bf787405393f94f5b08b6dfa1d5</t>
+          <t>83df618fab57a656368d5845025160ba</t>
         </is>
       </c>
     </row>
@@ -8349,17 +8349,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>2e3cfb30b7cbf6043eb3e9d5bacf0b18</t>
+          <t>ed156bf787405393f94f5b08b6dfa1d5</t>
         </is>
       </c>
     </row>
@@ -8371,17 +8371,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>19f8ee90bb8e7bca2ac1549cc9fe179b</t>
+          <t>2e3cfb30b7cbf6043eb3e9d5bacf0b18</t>
         </is>
       </c>
     </row>
@@ -8393,17 +8393,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1618%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>8ad1164cc3029f3e298fd60625753679</t>
+          <t>19f8ee90bb8e7bca2ac1549cc9fe179b</t>
         </is>
       </c>
     </row>
@@ -8415,17 +8415,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1618%2B_64561.pat</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>f465cb6202ec5ddbd1ed72b8c78f29c4</t>
+          <t>8ad1164cc3029f3e298fd60625753679</t>
         </is>
       </c>
     </row>
@@ -8437,17 +8437,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>145228a6e467c702614f92fcc2edd40c</t>
+          <t>f465cb6202ec5ddbd1ed72b8c78f29c4</t>
         </is>
       </c>
     </row>
@@ -8459,39 +8459,39 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1618%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>76cfedd7ce8658f193776d68b41bd0ff</t>
+          <t>145228a6e467c702614f92fcc2edd40c</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1618%2B_41890.pat</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>eb96d86c522877b53801473cd8218493</t>
+          <t>76cfedd7ce8658f193776d68b41bd0ff</t>
         </is>
       </c>
     </row>
@@ -8503,17 +8503,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>7bbbd4113f997288935340a631399686</t>
+          <t>eb96d86c522877b53801473cd8218493</t>
         </is>
       </c>
     </row>
@@ -8525,17 +8525,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>67f05845194e8066380b40b6998615fc</t>
+          <t>7bbbd4113f997288935340a631399686</t>
         </is>
       </c>
     </row>
@@ -8547,17 +8547,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>6abf123155a576220e1cddaf51fa35b3</t>
+          <t>67f05845194e8066380b40b6998615fc</t>
         </is>
       </c>
     </row>
@@ -8569,17 +8569,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS218%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>434f7f85d7c46e33204019c93dab9156</t>
+          <t>6abf123155a576220e1cddaf51fa35b3</t>
         </is>
       </c>
     </row>
@@ -8591,17 +8591,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS218%2B_64561.pat</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>594de8b190f950ca66bcfc13121bc8d8</t>
+          <t>434f7f85d7c46e33204019c93dab9156</t>
         </is>
       </c>
     </row>
@@ -8613,17 +8613,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>45776652a71c7e43a7dbe8393e82f400</t>
+          <t>594de8b190f950ca66bcfc13121bc8d8</t>
         </is>
       </c>
     </row>
@@ -8635,39 +8635,39 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS218%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>02a51899fd5de5050971fe3b7b967c97</t>
+          <t>45776652a71c7e43a7dbe8393e82f400</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS218%2B_41890.pat</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>99ea023c228e5c40d69e18edd5e1f547</t>
+          <t>02a51899fd5de5050971fe3b7b967c97</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>05246f474115e163f50d0462df9182e8</t>
+          <t>99ea023c228e5c40d69e18edd5e1f547</t>
         </is>
       </c>
     </row>
@@ -8701,17 +8701,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>92feef4c0c74655e7328a95c1a0310c5</t>
+          <t>05246f474115e163f50d0462df9182e8</t>
         </is>
       </c>
     </row>
@@ -8723,17 +8723,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>a5cd14824e288e39830e704e58e52fb2</t>
+          <t>92feef4c0c74655e7328a95c1a0310c5</t>
         </is>
       </c>
     </row>
@@ -8745,17 +8745,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3018xs_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>6ecafd9d1ee18d0c0eeea9553941815a</t>
+          <t>a5cd14824e288e39830e704e58e52fb2</t>
         </is>
       </c>
     </row>
@@ -8767,17 +8767,17 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3018xs_64561.pat</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>c796157608dcc7efde22511a4b440335</t>
+          <t>6ecafd9d1ee18d0c0eeea9553941815a</t>
         </is>
       </c>
     </row>
@@ -8789,39 +8789,39 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>1c20a1f8300104da529c7c553ddc11a1</t>
+          <t>c796157608dcc7efde22511a4b440335</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>793aa6ad7d3c360a6266747d90795cc4</t>
+          <t>1c20a1f8300104da529c7c553ddc11a1</t>
         </is>
       </c>
     </row>
@@ -8833,17 +8833,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>b7d85926561ff125928b68e7fffa646b</t>
+          <t>793aa6ad7d3c360a6266747d90795cc4</t>
         </is>
       </c>
     </row>
@@ -8855,17 +8855,17 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>97c06b5d99a708b9c9eff62077b8a6bc</t>
+          <t>b7d85926561ff125928b68e7fffa646b</t>
         </is>
       </c>
     </row>
@@ -8877,17 +8877,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>4c6165e5c87d83d52a173679d320383f</t>
+          <t>97c06b5d99a708b9c9eff62077b8a6bc</t>
         </is>
       </c>
     </row>
@@ -8899,17 +8899,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3617xs_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>5a6d8ac45f6acdb2eb0c315bf4a6e335</t>
+          <t>4c6165e5c87d83d52a173679d320383f</t>
         </is>
       </c>
     </row>
@@ -8921,17 +8921,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3617xs_64561.pat</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>b46e3d7933c7f77c78d536d33f9b5c4a</t>
+          <t>5a6d8ac45f6acdb2eb0c315bf4a6e335</t>
         </is>
       </c>
     </row>
@@ -8943,39 +8943,39 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>94e6263912bc758ee3db81c62a94a8f6</t>
+          <t>b46e3d7933c7f77c78d536d33f9b5c4a</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>36954c258a5a46747ead05d8d89022b4</t>
+          <t>94e6263912bc758ee3db81c62a94a8f6</t>
         </is>
       </c>
     </row>
@@ -8987,17 +8987,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>aa762422e005c4a157d202fff8e8dd00</t>
+          <t>36954c258a5a46747ead05d8d89022b4</t>
         </is>
       </c>
     </row>
@@ -9009,17 +9009,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>31a3e2fdf2da08dceee4636c8fb87588</t>
+          <t>aa762422e005c4a157d202fff8e8dd00</t>
         </is>
       </c>
     </row>
@@ -9031,17 +9031,17 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>eccaf95f10ad80dd85880046c7b9753a</t>
+          <t>31a3e2fdf2da08dceee4636c8fb87588</t>
         </is>
       </c>
     </row>
@@ -9053,17 +9053,17 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3617xsII_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>393fe6c44cc593fbc97b98a25e23318c</t>
+          <t>eccaf95f10ad80dd85880046c7b9753a</t>
         </is>
       </c>
     </row>
@@ -9075,17 +9075,17 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3617xsII_64561.pat</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>188c85421a6d02003be3bae8b4e2e074</t>
+          <t>393fe6c44cc593fbc97b98a25e23318c</t>
         </is>
       </c>
     </row>
@@ -9097,39 +9097,39 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>aa935c4992d6296c3088fc4ca5e00b46</t>
+          <t>188c85421a6d02003be3bae8b4e2e074</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>e43c906f97bf934c6a64f98465fd23bb</t>
+          <t>aa935c4992d6296c3088fc4ca5e00b46</t>
         </is>
       </c>
     </row>
@@ -9141,17 +9141,17 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>720417d493fe763f5e7ba81d1cf6e126</t>
+          <t>e43c906f97bf934c6a64f98465fd23bb</t>
         </is>
       </c>
     </row>
@@ -9163,17 +9163,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>8fdfa2d630da44e5766a5c91da6360c1</t>
+          <t>720417d493fe763f5e7ba81d1cf6e126</t>
         </is>
       </c>
     </row>
@@ -9185,17 +9185,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>283e31f63c2a6e0f2bf8231d205f51b2</t>
+          <t>8fdfa2d630da44e5766a5c91da6360c1</t>
         </is>
       </c>
     </row>
@@ -9207,17 +9207,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS418play_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>caaa0dca57ac54db28134e5cddd52b9e</t>
+          <t>283e31f63c2a6e0f2bf8231d205f51b2</t>
         </is>
       </c>
     </row>
@@ -9229,17 +9229,17 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS418play_64561.pat</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>d817c27fd56f79bf1a329780097bd54b</t>
+          <t>caaa0dca57ac54db28134e5cddd52b9e</t>
         </is>
       </c>
     </row>
@@ -9251,17 +9251,17 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>493544a5e246aa7cea2479b4d454a183</t>
+          <t>d817c27fd56f79bf1a329780097bd54b</t>
         </is>
       </c>
     </row>
@@ -9273,39 +9273,39 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS418play_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>de20172f583702e6bdfee0e948d43dcc</t>
+          <t>493544a5e246aa7cea2479b4d454a183</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS418play_41890.pat</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>2f1c376370096ec205e0a8318b7f6df8</t>
+          <t>de20172f583702e6bdfee0e948d43dcc</t>
         </is>
       </c>
     </row>
@@ -9317,17 +9317,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>3dac0f41036e712d4278f140035ecaa9</t>
+          <t>2f1c376370096ec205e0a8318b7f6df8</t>
         </is>
       </c>
     </row>
@@ -9339,17 +9339,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>a6901170e8b2a9956d2883216465a6f5</t>
+          <t>3dac0f41036e712d4278f140035ecaa9</t>
         </is>
       </c>
     </row>
@@ -9361,17 +9361,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>8bf08b9db2691fc0b2a673e456c99431</t>
+          <t>a6901170e8b2a9956d2883216465a6f5</t>
         </is>
       </c>
     </row>
@@ -9383,17 +9383,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS718%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>c969fe039bcdae2d381a4a7cefa6d5b5</t>
+          <t>8bf08b9db2691fc0b2a673e456c99431</t>
         </is>
       </c>
     </row>
@@ -9405,17 +9405,17 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS718%2B_64561.pat</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>61b56754bd643b5d45ab13c4083f7980</t>
+          <t>c969fe039bcdae2d381a4a7cefa6d5b5</t>
         </is>
       </c>
     </row>
@@ -9427,17 +9427,17 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>5ce16aada281ae4e11359a4e853b65d8</t>
+          <t>61b56754bd643b5d45ab13c4083f7980</t>
         </is>
       </c>
     </row>
@@ -9449,39 +9449,39 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS718%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>dbe533e65776bb33b47d70f04e2f18fd</t>
+          <t>5ce16aada281ae4e11359a4e853b65d8</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS718%2B_41890.pat</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>e78a003a9679790c19fc11974d2d0453</t>
+          <t>dbe533e65776bb33b47d70f04e2f18fd</t>
         </is>
       </c>
     </row>
@@ -9493,17 +9493,17 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>0c8a0d2dc6f1d7e37ee63d74760808b8</t>
+          <t>e78a003a9679790c19fc11974d2d0453</t>
         </is>
       </c>
     </row>
@@ -9515,17 +9515,17 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>f42d7da7fcaa24bc9409e857bdefff30</t>
+          <t>0c8a0d2dc6f1d7e37ee63d74760808b8</t>
         </is>
       </c>
     </row>
@@ -9537,17 +9537,17 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>4fab55b87cb153239536cca3947f4513</t>
+          <t>f42d7da7fcaa24bc9409e857bdefff30</t>
         </is>
       </c>
     </row>
@@ -9559,17 +9559,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS918%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>17ca9408e48d43faabdd30ee2ff9d691</t>
+          <t>4fab55b87cb153239536cca3947f4513</t>
         </is>
       </c>
     </row>
@@ -9581,17 +9581,17 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS918%2B_64561.pat</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>d5b62813ebc2d78bdbdf08b2c42e1280</t>
+          <t>17ca9408e48d43faabdd30ee2ff9d691</t>
         </is>
       </c>
     </row>
@@ -9603,17 +9603,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>2c49260d2646a0944b56933f7d4029fb</t>
+          <t>d5b62813ebc2d78bdbdf08b2c42e1280</t>
         </is>
       </c>
     </row>
@@ -9625,39 +9625,39 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS918%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>3275314ddf85ebc0dec990970069c1d7</t>
+          <t>2c49260d2646a0944b56933f7d4029fb</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS918%2B_41890.pat</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>2f79cc74468fac966e373914a1f6516d</t>
+          <t>3275314ddf85ebc0dec990970069c1d7</t>
         </is>
       </c>
     </row>
@@ -9669,17 +9669,17 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>09ec9d58839bef77654226d82336a32d</t>
+          <t>2f79cc74468fac966e373914a1f6516d</t>
         </is>
       </c>
     </row>
@@ -9691,17 +9691,17 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>4be3e3c2a271217ab2f6788cb3dc7fd6</t>
+          <t>09ec9d58839bef77654226d82336a32d</t>
         </is>
       </c>
     </row>
@@ -9713,17 +9713,17 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>8a3a42a8c246a9a2b58a64e407f0cb29</t>
+          <t>4be3e3c2a271217ab2f6788cb3dc7fd6</t>
         </is>
       </c>
     </row>
@@ -9735,17 +9735,17 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS1018_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>4beaa1f006f57127266a6abee0233a38</t>
+          <t>8a3a42a8c246a9a2b58a64e407f0cb29</t>
         </is>
       </c>
     </row>
@@ -9757,17 +9757,17 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS1018_64561.pat</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>7a0fcb142fb19b892ab8e38d06494fb1</t>
+          <t>4beaa1f006f57127266a6abee0233a38</t>
         </is>
       </c>
     </row>
@@ -9779,39 +9779,39 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>94278d0a7d891e7a9307036c14b82d41</t>
+          <t>7a0fcb142fb19b892ab8e38d06494fb1</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>363854659883df19d9996a9d81477e89</t>
+          <t>94278d0a7d891e7a9307036c14b82d41</t>
         </is>
       </c>
     </row>
@@ -9823,17 +9823,17 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>45394e7dbb73997e62d298ef62ecd8d7</t>
+          <t>363854659883df19d9996a9d81477e89</t>
         </is>
       </c>
     </row>
@@ -9845,17 +9845,17 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>776ad030354617d05f4d4ce8ff0481ae</t>
+          <t>45394e7dbb73997e62d298ef62ecd8d7</t>
         </is>
       </c>
     </row>
@@ -9867,17 +9867,17 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>075de3efc95aed64e8417181aa03b732</t>
+          <t>776ad030354617d05f4d4ce8ff0481ae</t>
         </is>
       </c>
     </row>
@@ -9889,17 +9889,17 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS2017_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>f670d1e39e4fab97ddb5706489a7576d</t>
+          <t>075de3efc95aed64e8417181aa03b732</t>
         </is>
       </c>
     </row>
@@ -9911,17 +9911,17 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS2017_64561.pat</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>45eeec29b35688e4e0416cb6c00a0e58</t>
+          <t>f670d1e39e4fab97ddb5706489a7576d</t>
         </is>
       </c>
     </row>
@@ -9933,39 +9933,39 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>67b2fe123490609b486c4f4022496b2e</t>
+          <t>45eeec29b35688e4e0416cb6c00a0e58</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
+          <t>67b2fe123490609b486c4f4022496b2e</t>
         </is>
       </c>
     </row>
@@ -9977,17 +9977,17 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>9e4168fc0c7808bebd35c485396ea56c</t>
+          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
         </is>
       </c>
     </row>
@@ -9999,17 +9999,17 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>0e7173198b5c4efee2d2d373e3766bdb</t>
+          <t>9e4168fc0c7808bebd35c485396ea56c</t>
         </is>
       </c>
     </row>
@@ -10021,17 +10021,17 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>958d1a8901c7e4f4890ff0db334836f0</t>
+          <t>0e7173198b5c4efee2d2d373e3766bdb</t>
         </is>
       </c>
     </row>
@@ -10043,17 +10043,17 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS18017xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>134d419a7e6e46a83e8fed9ed7420192</t>
+          <t>958d1a8901c7e4f4890ff0db334836f0</t>
         </is>
       </c>
     </row>
@@ -10065,17 +10065,17 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS18017xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>7fc30e7930edb4d0f0dc921e5e70a3f6</t>
+          <t>134d419a7e6e46a83e8fed9ed7420192</t>
         </is>
       </c>
     </row>
@@ -10087,39 +10087,39 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>f1c9c5e5cea427f44b97a4a65af1fa0b</t>
+          <t>7fc30e7930edb4d0f0dc921e5e70a3f6</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
+          <t>f1c9c5e5cea427f44b97a4a65af1fa0b</t>
         </is>
       </c>
     </row>
@@ -10131,17 +10131,17 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>f76279d2edfbfbaefc15b6ea12a2a83e</t>
+          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
         </is>
       </c>
     </row>
@@ -10153,17 +10153,17 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>40567cfb40f22da1aa2b08377edd2a15</t>
+          <t>f76279d2edfbfbaefc15b6ea12a2a83e</t>
         </is>
       </c>
     </row>
@@ -10175,17 +10175,17 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>f0fdf339b197a18e092baf73d0712bdd</t>
+          <t>40567cfb40f22da1aa2b08377edd2a15</t>
         </is>
       </c>
     </row>
@@ -10197,17 +10197,17 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2418%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>876cebdad61cce02031ada19ae3569a7</t>
+          <t>f0fdf339b197a18e092baf73d0712bdd</t>
         </is>
       </c>
     </row>
@@ -10219,17 +10219,17 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2418%2B_64561.pat</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>840a5db84c548c58a6d3bb36d0b758d0</t>
+          <t>876cebdad61cce02031ada19ae3569a7</t>
         </is>
       </c>
     </row>
@@ -10241,17 +10241,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>e7e3965cf4435a1703cc5ee0a5fd8ae3</t>
+          <t>840a5db84c548c58a6d3bb36d0b758d0</t>
         </is>
       </c>
     </row>
@@ -10263,39 +10263,39 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2418%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>6d973d04a9175d1445e78c55979d02d7</t>
+          <t>e7e3965cf4435a1703cc5ee0a5fd8ae3</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2418%2B_41890.pat</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>36231b0ec168e47d61fd256ff16c652b</t>
+          <t>6d973d04a9175d1445e78c55979d02d7</t>
         </is>
       </c>
     </row>
@@ -10307,17 +10307,17 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>5be145510b50bb75e686a5226f9d0d6c</t>
+          <t>36231b0ec168e47d61fd256ff16c652b</t>
         </is>
       </c>
     </row>
@@ -10329,17 +10329,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>03228534673ac90d808023b466908e39</t>
+          <t>5be145510b50bb75e686a5226f9d0d6c</t>
         </is>
       </c>
     </row>
@@ -10351,17 +10351,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>be81f2c53a6a09905ff6cdbd20421c90</t>
+          <t>03228534673ac90d808023b466908e39</t>
         </is>
       </c>
     </row>
@@ -10373,17 +10373,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2418RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>a0e7871e16846c6c523b3d0bcaf0325c</t>
+          <t>be81f2c53a6a09905ff6cdbd20421c90</t>
         </is>
       </c>
     </row>
@@ -10395,17 +10395,17 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2418RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>db3cb61e0d74f28a1f26dd190407bde1</t>
+          <t>a0e7871e16846c6c523b3d0bcaf0325c</t>
         </is>
       </c>
     </row>
@@ -10417,17 +10417,17 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>025536e3e2121979213300abe0246102</t>
+          <t>db3cb61e0d74f28a1f26dd190407bde1</t>
         </is>
       </c>
     </row>
@@ -10439,39 +10439,39 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2418RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>b3104cc0a1969618f95343cd0702f5a7</t>
+          <t>025536e3e2121979213300abe0246102</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2418RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>6f54d58f6f212345826b174a10e30261</t>
+          <t>b3104cc0a1969618f95343cd0702f5a7</t>
         </is>
       </c>
     </row>
@@ -10483,17 +10483,17 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>1a3876d1da179b81a5c7ace54cf3b85c</t>
+          <t>6f54d58f6f212345826b174a10e30261</t>
         </is>
       </c>
     </row>
@@ -10505,17 +10505,17 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>8ec7d62c99ae0474aad04a0f58bca61c</t>
+          <t>1a3876d1da179b81a5c7ace54cf3b85c</t>
         </is>
       </c>
     </row>
@@ -10527,17 +10527,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>f67b8f20f9a6500e47ad51eb3e295fc7</t>
+          <t>8ec7d62c99ae0474aad04a0f58bca61c</t>
         </is>
       </c>
     </row>
@@ -10549,17 +10549,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2818RP%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>aa896aa854b26ba5db477d7a29546dcb</t>
+          <t>f67b8f20f9a6500e47ad51eb3e295fc7</t>
         </is>
       </c>
     </row>
@@ -10571,17 +10571,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS2818RP%2B_64561.pat</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>a29d83759366fcfacd31b90bcf76daad</t>
+          <t>aa896aa854b26ba5db477d7a29546dcb</t>
         </is>
       </c>
     </row>
@@ -10593,17 +10593,17 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>ac1fca114c808f1640047497ddc00702</t>
+          <t>a29d83759366fcfacd31b90bcf76daad</t>
         </is>
       </c>
     </row>
@@ -10615,39 +10615,39 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2818RP%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>3b8333252e3c23c7f82febf7d0fd2e52</t>
+          <t>ac1fca114c808f1640047497ddc00702</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_RS2818RP%2B_41890.pat</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
+          <t>3b8333252e3c23c7f82febf7d0fd2e52</t>
         </is>
       </c>
     </row>
@@ -10659,17 +10659,17 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>7cdb7e52d29859c4e340fb6c84014749</t>
+          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
         </is>
       </c>
     </row>
@@ -10681,17 +10681,17 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>da66dd2a759ee30147a320f3206623cd</t>
+          <t>7cdb7e52d29859c4e340fb6c84014749</t>
         </is>
       </c>
     </row>
@@ -10703,17 +10703,17 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>30250ce09306308aebb9474f12fa92ec</t>
+          <t>da66dd2a759ee30147a320f3206623cd</t>
         </is>
       </c>
     </row>
@@ -10725,17 +10725,17 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3617RPxs_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>687cceaa6fd86acb7fecc6d7ea94d787</t>
+          <t>30250ce09306308aebb9474f12fa92ec</t>
         </is>
       </c>
     </row>
@@ -10747,17 +10747,17 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3617RPxs_64561.pat</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>243f3490787b5a7417546b88a0f0b047</t>
+          <t>687cceaa6fd86acb7fecc6d7ea94d787</t>
         </is>
       </c>
     </row>
@@ -10769,39 +10769,39 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>147becad951f52352e7c7bd83ff4ed18</t>
+          <t>243f3490787b5a7417546b88a0f0b047</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
+          <t>147becad951f52352e7c7bd83ff4ed18</t>
         </is>
       </c>
     </row>
@@ -10813,17 +10813,17 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>dd4ac96e4b78cf36f35d08bd03f0ee3e</t>
+          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
         </is>
       </c>
     </row>
@@ -10835,17 +10835,17 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>67f33c491bd136346b5e83b7339c7076</t>
+          <t>dd4ac96e4b78cf36f35d08bd03f0ee3e</t>
         </is>
       </c>
     </row>
@@ -10857,17 +10857,17 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>4f67e26410d154bae815ee60170caa5a</t>
+          <t>67f33c491bd136346b5e83b7339c7076</t>
         </is>
       </c>
     </row>
@@ -10879,17 +10879,17 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3617xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>cf076f488d4ed18f1b273304a4655ea7</t>
+          <t>4f67e26410d154bae815ee60170caa5a</t>
         </is>
       </c>
     </row>
@@ -10901,17 +10901,17 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS3617xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>cb211e965855d849974f08963d96c40a</t>
+          <t>cf076f488d4ed18f1b273304a4655ea7</t>
         </is>
       </c>
     </row>
@@ -10923,39 +10923,39 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>b2d19eafb644c39bd87dddf45deff971</t>
+          <t>cb211e965855d849974f08963d96c40a</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
+          <t>b2d19eafb644c39bd87dddf45deff971</t>
         </is>
       </c>
     </row>
@@ -10967,17 +10967,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>31785a02d8b2f6145d077877668cc362</t>
+          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
         </is>
       </c>
     </row>
@@ -10989,17 +10989,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>ae6b1c6363420cc54dbbf0aef654b182</t>
+          <t>31785a02d8b2f6145d077877668cc362</t>
         </is>
       </c>
     </row>
@@ -11011,17 +11011,17 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>f7e3807fe5d30bfdba0620f9b31a339e</t>
+          <t>ae6b1c6363420cc54dbbf0aef654b182</t>
         </is>
       </c>
     </row>
@@ -11033,17 +11033,17 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS4017xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>8bb5895053f26860224b8cbc08eb57d2</t>
+          <t>f7e3807fe5d30bfdba0620f9b31a339e</t>
         </is>
       </c>
     </row>
@@ -11055,17 +11055,17 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_RS4017xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>cf8ee4e0654b4c91dd2fb44ec697fe04</t>
+          <t>8bb5895053f26860224b8cbc08eb57d2</t>
         </is>
       </c>
     </row>
@@ -11077,15 +11077,37 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
+          <t>7.1.1-42962-1</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>cf8ee4e0654b4c91dd2fb44ec697fe04</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
           <t>7.1.0-42661-1</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr">
+      <c r="C486" t="inlineStr">
         <is>
           <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4017xs%2B_42661.pat</t>
         </is>
       </c>
-      <c r="D485" t="inlineStr">
+      <c r="D486" t="inlineStr">
         <is>
           <t>2b16f828ab77fc2ee354c3ee3e55b855</t>
         </is>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -456,100 +456,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1019%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_HD6500_72806.pat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>b308d45d9ffb849f696230917420d2e2</t>
+          <t>590930cf1b5ea59e98d2caf9d8a50d18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1019%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>a7c5ac7a5963aac8bf9a599a8a6f6b86</t>
+          <t>f051382db004b9bbf169e2b1da454914</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1019%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7609e7c977d9d44baed886e846d7cf50</t>
+          <t>fbeda2c4f1bd0da48ab469e5a767c95f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1019%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_HD6500_64561.pat</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>c1c9b295ca7f1434c0f1eeab4f989316</t>
+          <t>9dc96261bdf57090feb2006b3ad18065</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1019%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6376f1f7bd1a260db67324629f3ddfb9</t>
+          <t>245c3ccd788a17be79187ff32c074888</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1019%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1019%2B_72806.pat</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>b590bc9f0df784be4d6bae13d551f76b</t>
+          <t>b308d45d9ffb849f696230917420d2e2</t>
         </is>
       </c>
     </row>
@@ -583,17 +583,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1019%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1019%2B_42218.pat</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1318c234b08c06ad0a6b49a3d739fb95</t>
+          <t>a7c5ac7a5963aac8bf9a599a8a6f6b86</t>
         </is>
       </c>
     </row>
@@ -605,127 +605,127 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1019%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1019%2B_69057.pat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>b0269246ab530bc8618ba288130d413a</t>
+          <t>7609e7c977d9d44baed886e846d7cf50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1520%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1019%2B_64570.pat</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ee1d1f09d11b6b9fa3f0edf6627a1544</t>
+          <t>c1c9b295ca7f1434c0f1eeab4f989316</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1520%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1019%2B_64561.pat</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>d1ebc3c9a2b9e04980a85c4784904f91</t>
+          <t>6376f1f7bd1a260db67324629f3ddfb9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1520%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1019%2B_42962.pat</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>a028a246334bb45b398a240ecfe194e8</t>
+          <t>b590bc9f0df784be4d6bae13d551f76b</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1520%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1019%2B_42661.pat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5063db1ed248fb36074ce8d2aba645a9</t>
+          <t>1318c234b08c06ad0a6b49a3d739fb95</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1520%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1019%2B_41890.pat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>e340acc1bc119307787f3363773ab632</t>
+          <t>b0269246ab530bc8618ba288130d413a</t>
         </is>
       </c>
     </row>
@@ -737,17 +737,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1520%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1520%2B_72806.pat</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>d28994a9dcdae9730b4d1370a39d3130</t>
+          <t>ee1d1f09d11b6b9fa3f0edf6627a1544</t>
         </is>
       </c>
     </row>
@@ -759,17 +759,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1520%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1520%2B_42218.pat</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1d8ecfcb2a956488ae355c79a72bb9ec</t>
+          <t>d1ebc3c9a2b9e04980a85c4784904f91</t>
         </is>
       </c>
     </row>
@@ -781,134 +781,134 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1520%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1520%2B_69057.pat</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>872a481aa96c8941fe8872f65ddb0660</t>
+          <t>a028a246334bb45b398a240ecfe194e8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1522%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1520%2B_64570.pat</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6ce48443d5809d8bd586cfdd6520b685</t>
+          <t>5063db1ed248fb36074ce8d2aba645a9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1522%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1520%2B_64561.pat</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>234e958a0dcf489dae866c14d30ed761</t>
+          <t>e340acc1bc119307787f3363773ab632</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1522%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1520%2B_42962.pat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>c23e7b3a8dfec5551cd57d6397ebb079</t>
+          <t>d28994a9dcdae9730b4d1370a39d3130</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1522%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1520%2B_42661.pat</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>28c079aead91f10b1cefc13110b561fe</t>
+          <t>1d8ecfcb2a956488ae355c79a72bb9ec</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1522%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1520%2B_41890.pat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>a116d65da8908275ea681dd7ac06b831</t>
+          <t>872a481aa96c8941fe8872f65ddb0660</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -918,100 +918,100 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1522%2B_72806.pat</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89699e60f438788936cd531da5448259</t>
+          <t>6ce48443d5809d8bd586cfdd6520b685</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1522%2B_69057.pat</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1fd1d6e733bb096f418f68e06f81022e</t>
+          <t>234e958a0dcf489dae866c14d30ed761</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1522%2B_64570.pat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4bc6b4b8cfa7005505a6168a08c92b5f</t>
+          <t>c23e7b3a8dfec5551cd57d6397ebb079</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1522%2B_64561.pat</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6f9fa1ff5b9b2dded366b1a2d2687aea</t>
+          <t>28c079aead91f10b1cefc13110b561fe</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1522%2B_42962.pat</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>91bbf20b36ce890bc4ff5c6dca037357</t>
+          <t>a116d65da8908275ea681dd7ac06b831</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93a5a2b9515b39e18d0b48df84d5c007</t>
+          <t>89699e60f438788936cd531da5448259</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>b4b72eb8d4e84b2e2a8c29fc0a1ac6aa</t>
+          <t>1fd1d6e733bb096f418f68e06f81022e</t>
         </is>
       </c>
     </row>
@@ -1067,127 +1067,127 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1621%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4a7230bf83c693328518d7f253257a8c</t>
+          <t>4bc6b4b8cfa7005505a6168a08c92b5f</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
+          <t>6f9fa1ff5b9b2dded366b1a2d2687aea</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621%2B_64561.pat</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>302fdefb00c8d4f8bf95ac25dca1e864</t>
+          <t>91bbf20b36ce890bc4ff5c6dca037357</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8af12dfa839057343d4b0d7f57efad16</t>
+          <t>93a5a2b9515b39e18d0b48df84d5c007</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ff027f65c9712059a5a54bfbfb5a52b7</t>
+          <t>b4b72eb8d4e84b2e2a8c29fc0a1ac6aa</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1621%2B_41890.pat</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>87ec2ee52f365de00a70b1f1ac571345</t>
+          <t>4a7230bf83c693328518d7f253257a8c</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>fffec3510c954fc718a1aecba2f98fc6</t>
+          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
         </is>
       </c>
     </row>
@@ -1221,127 +1221,127 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18f849121a9a1918aca94c6774524910</t>
+          <t>302fdefb00c8d4f8bf95ac25dca1e864</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
+          <t>8af12dfa839057343d4b0d7f57efad16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>82dc294d7f99545d9d7e2ff9bcae114b</t>
+          <t>ff027f65c9712059a5a54bfbfb5a52b7</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1621xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bd5ed66d4f74e97416c0724737f88315</t>
+          <t>87ec2ee52f365de00a70b1f1ac571345</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>e93f143ffe7a4612635efbd4b537b26a</t>
+          <t>fffec3510c954fc718a1aecba2f98fc6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1819%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>b5ad13086be82102371f7e97cf6e10bb</t>
+          <t>18f849121a9a1918aca94c6774524910</t>
         </is>
       </c>
     </row>
@@ -1353,17 +1353,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5dac92403628186c629d2ab5aedbcc57</t>
+          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1375,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>51a5104488a6f09dbc9a91689aa4a363</t>
+          <t>82dc294d7f99545d9d7e2ff9bcae114b</t>
         </is>
       </c>
     </row>
@@ -1397,127 +1397,127 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1819%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1a51c6e6d66e7a58c4cbbabcb65b71b1</t>
+          <t>bd5ed66d4f74e97416c0724737f88315</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
+          <t>e93f143ffe7a4612635efbd4b537b26a</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1819%2B_64561.pat</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>cbe674d818bc06b7eefef2b9c58fc859</t>
+          <t>b5ad13086be82102371f7e97cf6e10bb</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6a7efda6e842ebee9597120e4a68870a</t>
+          <t>5dac92403628186c629d2ab5aedbcc57</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>da6d86151013569e4b4d2f12515e0a5c</t>
+          <t>51a5104488a6f09dbc9a91689aa4a363</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1821%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1819%2B_41890.pat</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3491ce7d8eff268df09b1570a04494e1</t>
+          <t>1a51c6e6d66e7a58c4cbbabcb65b71b1</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>e54b32884cbc1b913324c8cda5b2f978</t>
+          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
         </is>
       </c>
     </row>
@@ -1551,17 +1551,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>c854e197ec6b7b57c5a6667a0a225a19</t>
+          <t>cbe674d818bc06b7eefef2b9c58fc859</t>
         </is>
       </c>
     </row>
@@ -1573,134 +1573,134 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1821%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>49d25b1c21d6a6b4c6342dadc399f7a8</t>
+          <t>6a7efda6e842ebee9597120e4a68870a</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
+          <t>da6d86151013569e4b4d2f12515e0a5c</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1821%2B_64561.pat</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>134c17ae983809784f9cbfd133c64ea7</t>
+          <t>3491ce7d8eff268df09b1570a04494e1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1a8a5e1d8461e9a3af638dae7f121ad3</t>
+          <t>e54b32884cbc1b913324c8cda5b2f978</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1823xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5afb9895acb01d94dc74a93aaacdcc17</t>
+          <t>c854e197ec6b7b57c5a6667a0a225a19</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS1821%2B_41890.pat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>d337b8a44008bb726c28489e30577cee</t>
+          <t>49d25b1c21d6a6b4c6342dadc399f7a8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1710,100 +1710,100 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
+          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>b77984bcefef6ddc2e847a336cb2d764</t>
+          <t>134c17ae983809784f9cbfd133c64ea7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>29111f8860063c4a9a84827a2d9e019a</t>
+          <t>1a8a5e1d8461e9a3af638dae7f121ad3</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS1823xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>34fa653e965663cd663d7d1e2b9e60d3</t>
+          <t>5afb9895acb01d94dc74a93aaacdcc17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS220%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8a3031a1315448f21c5c6043493f944d</t>
+          <t>d337b8a44008bb726c28489e30577cee</t>
         </is>
       </c>
     </row>
@@ -1815,17 +1815,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>dcdae26b1419f67f53a7936e6176cc7c</t>
+          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>536af980d23f2d79fcbdfb117444ca06</t>
+          <t>b77984bcefef6ddc2e847a336cb2d764</t>
         </is>
       </c>
     </row>
@@ -1859,171 +1859,171 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS220%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6cc9645989252b42796471d8882a2a31</t>
+          <t>29111f8860063c4a9a84827a2d9e019a</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>45036d62086128fbccbb0c07c1dadc6f</t>
+          <t>34fa653e965663cd663d7d1e2b9e60d3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS220%2B_64561.pat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>462cb5f704faa7a32651be4b4e17746e</t>
+          <t>8a3031a1315448f21c5c6043493f944d</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>eb12a7f890f75cbec459be88e288fe3b</t>
+          <t>dcdae26b1419f67f53a7936e6176cc7c</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>59d48e64ad4d0e5bc35f9eec8869d9c5</t>
+          <t>536af980d23f2d79fcbdfb117444ca06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS220%2B_41890.pat</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8513269cb1ee01030e8d7cd3d57fc8d6</t>
+          <t>6cc9645989252b42796471d8882a2a31</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5716f9a0aadb529cfa131c0c0a399c3e</t>
+          <t>45036d62086128fbccbb0c07c1dadc6f</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ccb4825884b029e98042c9b3defedae5</t>
+          <t>462cb5f704faa7a32651be4b4e17746e</t>
         </is>
       </c>
     </row>
@@ -2035,17 +2035,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7b53fbb5c813af9db29b39382b5e5d68</t>
+          <t>eb12a7f890f75cbec459be88e288fe3b</t>
         </is>
       </c>
     </row>
@@ -2057,17 +2057,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ae6cdda2edff9458b2fff7114474f38d</t>
+          <t>59d48e64ad4d0e5bc35f9eec8869d9c5</t>
         </is>
       </c>
     </row>
@@ -2079,127 +2079,127 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5ffee696b480659895d7e20280d75bae</t>
+          <t>8513269cb1ee01030e8d7cd3d57fc8d6</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
+          <t>5716f9a0aadb529cfa131c0c0a399c3e</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2B_64561.pat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>939109f7fcdcce5e20a3cec9d6ced85a</t>
+          <t>ccb4825884b029e98042c9b3defedae5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>948e1799bcd25fbafd5eca2cfd11b338</t>
+          <t>7b53fbb5c813af9db29b39382b5e5d68</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>b3a6f54e2be6578c3e3594801208556b</t>
+          <t>ae6cdda2edff9458b2fff7114474f38d</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2BII_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2B_41890.pat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2d5d0be0de12092805c49a1df7eb8a95</t>
+          <t>5ffee696b480659895d7e20280d75bae</t>
         </is>
       </c>
     </row>
@@ -2211,17 +2211,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>50d27c3c6ba5571f4de5c1f787e804a5</t>
+          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
         </is>
       </c>
     </row>
@@ -2233,17 +2233,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>33a068ae26e9e88e57c4b4e6ed218c98</t>
+          <t>939109f7fcdcce5e20a3cec9d6ced85a</t>
         </is>
       </c>
     </row>
@@ -2255,127 +2255,127 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2BII_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>8387a8d7dd9336bed04ebfb2c02ba12a</t>
+          <t>948e1799bcd25fbafd5eca2cfd11b338</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1bb660489f3617975213b9e587fed7b4</t>
+          <t>b3a6f54e2be6578c3e3594801208556b</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2419%2BII_64561.pat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2c443d1fa7b8542c58a203eaf9dbf224</t>
+          <t>2d5d0be0de12092805c49a1df7eb8a95</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3e5e09f4d4b0f09ab03f28d12b76f03a</t>
+          <t>50d27c3c6ba5571f4de5c1f787e804a5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2422%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>edb8a8cbf941abcb4b97812f628e547e</t>
+          <t>33a068ae26e9e88e57c4b4e6ed218c98</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS2419%2BII_41890.pat</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>b00d3d1ccf1b1a6982b2b594420e0f3c</t>
+          <t>8387a8d7dd9336bed04ebfb2c02ba12a</t>
         </is>
       </c>
     </row>
@@ -2387,17 +2387,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>9ea5e0fe94c01072da36e2f69172abb3</t>
+          <t>1bb660489f3617975213b9e587fed7b4</t>
         </is>
       </c>
     </row>
@@ -2409,127 +2409,127 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7fe3c9ae80396a2ea9ed9909b8746c4b</t>
+          <t>2c443d1fa7b8542c58a203eaf9dbf224</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>669834673fab793775ee86547d920aa0</t>
+          <t>3e5e09f4d4b0f09ab03f28d12b76f03a</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS2422%2B_64561.pat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ce86c68e6e93fe7cdcc63b165a70a878</t>
+          <t>edb8a8cbf941abcb4b97812f628e547e</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>456fc142cf8d3f1c329601c9d9ed66f5</t>
+          <t>b00d3d1ccf1b1a6982b2b594420e0f3c</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3622xs%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>78a0f066e47066c6e7ac18d3aded40b2</t>
+          <t>9ea5e0fe94c01072da36e2f69172abb3</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>d3b223e1e973fcf5c67c64e72775a576</t>
+          <t>7fe3c9ae80396a2ea9ed9909b8746c4b</t>
         </is>
       </c>
     </row>
@@ -2541,17 +2541,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7af76cca8226ecf95b25630bffa76b3d</t>
+          <t>669834673fab793775ee86547d920aa0</t>
         </is>
       </c>
     </row>
@@ -2563,127 +2563,127 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>b9b452577b38adc82aca42e031be267b</t>
+          <t>ce86c68e6e93fe7cdcc63b165a70a878</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>5735baee87d812edbd1a13bb7641d3b7</t>
+          <t>456fc142cf8d3f1c329601c9d9ed66f5</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS3622xs%2B_64561.pat</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>50089a9ccd2b724f24de04c86f8ac2aa</t>
+          <t>78a0f066e47066c6e7ac18d3aded40b2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>dbfb5437026b296436f8b7a658a3e981</t>
+          <t>d3b223e1e973fcf5c67c64e72775a576</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>f8254ae94c0b46a79d3d2a9b23282f87</t>
+          <t>7af76cca8226ecf95b25630bffa76b3d</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS420%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>f6b8f193b0a8f4c88456d05648e4d360</t>
+          <t>b9b452577b38adc82aca42e031be267b</t>
         </is>
       </c>
     </row>
@@ -2695,17 +2695,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0bd416ce234943719f646a0db895b81f</t>
+          <t>5735baee87d812edbd1a13bb7641d3b7</t>
         </is>
       </c>
     </row>
@@ -2717,17 +2717,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ca3dc79e2cb77faafd76959e8367e83a</t>
+          <t>50089a9ccd2b724f24de04c86f8ac2aa</t>
         </is>
       </c>
     </row>
@@ -2739,134 +2739,134 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS420%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>18aab1a6b5914a34e0bb0219c45cda43</t>
+          <t>dbfb5437026b296436f8b7a658a3e981</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>e5605b52000e9e8a63657e0599268932</t>
+          <t>f8254ae94c0b46a79d3d2a9b23282f87</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS420%2B_64561.pat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>f39d37dee5a64a3b00c2b5fc03aad432</t>
+          <t>f6b8f193b0a8f4c88456d05648e4d360</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>62d79e110b5355f32c23b2aa2eb51c24</t>
+          <t>0bd416ce234943719f646a0db895b81f</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS423%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>c8d2bd03eca69ffa85f9e591a4865fad</t>
+          <t>ca3dc79e2cb77faafd76959e8367e83a</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS420%2B_41890.pat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4d901cefef7204d44fd4d0cbcbfc5b52</t>
+          <t>18aab1a6b5914a34e0bb0219c45cda43</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2876,100 +2876,100 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4c3a37f192511d17d956fad40ddfac8d</t>
+          <t>e5605b52000e9e8a63657e0599268932</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>d627699bdcee9943a53fdfb0a62e0bb8</t>
+          <t>f39d37dee5a64a3b00c2b5fc03aad432</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4d83fa3404cf8b4c4eac895ae9ad6a92</t>
+          <t>62d79e110b5355f32c23b2aa2eb51c24</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS423%2B_64561.pat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>9691061ea45d029c515e22de919afa9a</t>
+          <t>c8d2bd03eca69ffa85f9e591a4865fad</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS620slim_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>fbd8c639bee87f8bfe8bcddad2757b4c</t>
+          <t>4d901cefef7204d44fd4d0cbcbfc5b52</t>
         </is>
       </c>
     </row>
@@ -2981,17 +2981,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1f2d07cae47692f36ef04651184d86a0</t>
+          <t>4c3a37f192511d17d956fad40ddfac8d</t>
         </is>
       </c>
     </row>
@@ -3003,17 +3003,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>7d563ad4aceaa1fd177011a7bb165ecf</t>
+          <t>d627699bdcee9943a53fdfb0a62e0bb8</t>
         </is>
       </c>
     </row>
@@ -3025,127 +3025,127 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS620slim_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1346b08d8eb175168aad043cd9291aee</t>
+          <t>4d83fa3404cf8b4c4eac895ae9ad6a92</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>7ab8bda950fc06556b108d298cb2a640</t>
+          <t>9691061ea45d029c515e22de919afa9a</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS620slim_64561.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>83dd377fa9d66f21e2ab2536bb9a3943</t>
+          <t>fbd8c639bee87f8bfe8bcddad2757b4c</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>390c2e64a19b894047df903d031abd0e</t>
+          <t>1f2d07cae47692f36ef04651184d86a0</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6ff89c899fa9ef0e546a45bc8a5d1b50</t>
+          <t>7d563ad4aceaa1fd177011a7bb165ecf</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS720%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS620slim_41890.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>417b5a0896e472d38e96c59f643494c5</t>
+          <t>1346b08d8eb175168aad043cd9291aee</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>9ecc37490cb6e4de3af666db5766cb21</t>
+          <t>7ab8bda950fc06556b108d298cb2a640</t>
         </is>
       </c>
     </row>
@@ -3179,17 +3179,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>c811400d228502f37370b527b5624967</t>
+          <t>83dd377fa9d66f21e2ab2536bb9a3943</t>
         </is>
       </c>
     </row>
@@ -3201,134 +3201,134 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS720%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>738c619668c19c95ce541ca291a964f2</t>
+          <t>390c2e64a19b894047df903d031abd0e</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
+          <t>6ff89c899fa9ef0e546a45bc8a5d1b50</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS720%2B_64561.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>83a24f5a0354c415160b546eadce092b</t>
+          <t>417b5a0896e472d38e96c59f643494c5</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>302f4427cc76bc3830afc5cff1424298</t>
+          <t>9ecc37490cb6e4de3af666db5766cb21</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS723%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>4fdf8a51c1104991226ac3958bf8a6d3</t>
+          <t>c811400d228502f37370b527b5624967</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS720%2B_41890.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>1860b260c80de7103d236f2eae0f0dfb</t>
+          <t>738c619668c19c95ce541ca291a964f2</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3338,100 +3338,100 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
+          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>55a7e4ccbf6fcba9238a11976a4a7381</t>
+          <t>83a24f5a0354c415160b546eadce092b</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3846db325eb44d939730a338719ca9b5</t>
+          <t>302f4427cc76bc3830afc5cff1424298</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS723%2B_64561.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>753b33e8c92bbf331be8e58dd97c242f</t>
+          <t>4fdf8a51c1104991226ac3958bf8a6d3</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS920%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ea97f8eec345a012b54f86843f872c78</t>
+          <t>1860b260c80de7103d236f2eae0f0dfb</t>
         </is>
       </c>
     </row>
@@ -3443,17 +3443,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>69792ae34d9b3c6e707d0e3e6b82816f</t>
+          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
         </is>
       </c>
     </row>
@@ -3465,17 +3465,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>fa3936a53299b1a1142e4c614e2b360c</t>
+          <t>55a7e4ccbf6fcba9238a11976a4a7381</t>
         </is>
       </c>
     </row>
@@ -3487,134 +3487,134 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.0.0-41890-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS920%2B_41890.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>c2aef3f200aedfc19552da626b877061</t>
+          <t>3846db325eb44d939730a338719ca9b5</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
+          <t>753b33e8c92bbf331be8e58dd97c242f</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS920%2B_64561.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>74bcec33670a196b08cdf65512f1f4e6</t>
+          <t>ea97f8eec345a012b54f86843f872c78</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>8504b920d4af57a5daa3d573cac34870</t>
+          <t>69792ae34d9b3c6e707d0e3e6b82816f</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS923%2B_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>a78678648ed963f07d6459261f696a1d</t>
+          <t>fa3936a53299b1a1142e4c614e2b360c</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.0-41890-0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0/41890/DSM_DS920%2B_41890.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>fdff6232dacf9bd3b189506f51577128</t>
+          <t>c2aef3f200aedfc19552da626b877061</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3624,19 +3624,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>36a6736d6dcb5f4ff570871809831183</t>
+          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3646,19 +3646,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>768f381ac51a665b16554bace91abe32</t>
+          <t>74bcec33670a196b08cdf65512f1f4e6</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3668,19 +3668,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
+          <t>8504b920d4af57a5daa3d573cac34870</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3690,41 +3690,41 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA1622_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DS923%2B_64561.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>4c09fb84e047a8aa4cf26ff7ebe2b397</t>
+          <t>a78678648ed963f07d6459261f696a1d</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
+          <t>fdff6232dacf9bd3b189506f51577128</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3734,100 +3734,100 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
+          <t>36a6736d6dcb5f4ff570871809831183</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
+          <t>768f381ac51a665b16554bace91abe32</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
+          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA1622_64561.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
+          <t>4c09fb84e047a8aa4cf26ff7ebe2b397</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3219_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>05a1a69c82586672ce4b55c114480d98</t>
+          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
         </is>
       </c>
     </row>
@@ -3839,17 +3839,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
+          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
         </is>
       </c>
     </row>
@@ -3861,127 +3861,127 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
+          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
+          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
+          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3219_64561.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>fd448e5391b33575fcf8c25f11c09f23</t>
+          <t>05a1a69c82586672ce4b55c114480d98</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2002e02d355c43e266222307e041302a</t>
+          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3221_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>a39005bb032ed4beec72675f9c2af4c1</t>
+          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
         </is>
       </c>
     </row>
@@ -3993,17 +3993,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
+          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
         </is>
       </c>
     </row>
@@ -4015,127 +4015,127 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>d433ae251ba95754edde1586851d1e0a</t>
+          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
+          <t>fd448e5391b33575fcf8c25f11c09f23</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>57e899896177917e2dfbff88320555d8</t>
+          <t>2002e02d355c43e266222307e041302a</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_DVA3221_64561.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
+          <t>a39005bb032ed4beec72675f9c2af4c1</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS2500_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>9b7aed00dba25928aff9a16e3deddb23</t>
+          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>169493af5375eb9da89ff324a3fe129a</t>
+          <t>d433ae251ba95754edde1586851d1e0a</t>
         </is>
       </c>
     </row>
@@ -4147,17 +4147,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>e071c4984d041309f151de29b9ba82b5</t>
+          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
         </is>
       </c>
     </row>
@@ -4169,127 +4169,127 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>9562d49a07f5481208b672ff777f3cbf</t>
+          <t>57e899896177917e2dfbff88320555d8</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>12a28689a1816b6d8cb329edbe385e78</t>
+          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS2500_64561.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
+          <t>9b7aed00dba25928aff9a16e3deddb23</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
+          <t>169493af5375eb9da89ff324a3fe129a</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
+          <t>e071c4984d041309f151de29b9ba82b5</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>c494f83f4331fbdc7e8521533bca20f2</t>
+          <t>9562d49a07f5481208b672ff777f3cbf</t>
         </is>
       </c>
     </row>
@@ -4301,17 +4301,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
+          <t>12a28689a1816b6d8cb329edbe385e78</t>
         </is>
       </c>
     </row>
@@ -4323,134 +4323,134 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1376f3daf42b193bbf0d24abd1b70371</t>
+          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
+          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
+          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3400_64561.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
+          <t>c494f83f4331fbdc7e8521533bca20f2</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3410_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>b05235f7b241fced6b01004916ef264a</t>
+          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>1bade8eb7eadd514699d4beb714531ad</t>
+          <t>1376f3daf42b193bbf0d24abd1b70371</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4460,100 +4460,100 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>7f6686d018b515a022e8221b104b5d17</t>
+          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>d9a68ec3e8c921641a3b51af68e57411</t>
+          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>05cbcf3b75043968d6dd8a48e4677098</t>
+          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3410_64561.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ddc3a00cef97f70cf56264239041c94c</t>
+          <t>b05235f7b241fced6b01004916ef264a</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3600_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>fb5a352baca011fe525cc7b6100ee418</t>
+          <t>1bade8eb7eadd514699d4beb714531ad</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4565,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>b521eab70dc9836235f21a5cffd96d34</t>
+          <t>7f6686d018b515a022e8221b104b5d17</t>
         </is>
       </c>
     </row>
@@ -4587,127 +4587,127 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
+          <t>d9a68ec3e8c921641a3b51af68e57411</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>1b726b745327977401045b7434de6ad4</t>
+          <t>05cbcf3b75043968d6dd8a48e4677098</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>e7887381980432a7be5ddf4dec0772ad</t>
+          <t>ddc3a00cef97f70cf56264239041c94c</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS3600_64561.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>66dc986826177528dc9558195e1ddc89</t>
+          <t>fb5a352baca011fe525cc7b6100ee418</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
+          <t>b521eab70dc9836235f21a5cffd96d34</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS6400_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>bfb8182d0968cf91511e233fb5eacb07</t>
+          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
         </is>
       </c>
     </row>
@@ -4719,17 +4719,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>651be491d10a47ecc534295d84341c03</t>
+          <t>1b726b745327977401045b7434de6ad4</t>
         </is>
       </c>
     </row>
@@ -4741,127 +4741,127 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>030064272d82777681502745fcfa8c48</t>
+          <t>e7887381980432a7be5ddf4dec0772ad</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_HD6500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>590930cf1b5ea59e98d2caf9d8a50d18</t>
+          <t>66dc986826177528dc9558195e1ddc89</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>f051382db004b9bbf169e2b1da454914</t>
+          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.0-64561-0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_FS6400_64561.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>fbeda2c4f1bd0da48ab469e5a767c95f</t>
+          <t>bfb8182d0968cf91511e233fb5eacb07</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.2.0-64561-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64561/DSM_HD6500_64561.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>9dc96261bdf57090feb2006b3ad18065</t>
+          <t>651be491d10a47ecc534295d84341c03</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>245c3ccd788a17be79187ff32c074888</t>
+          <t>030064272d82777681502745fcfa8c48</t>
         </is>
       </c>
     </row>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2998,7 +2998,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS925+</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>36a6736d6dcb5f4ff570871809831183</t>
+          <t>fe642d1e762e8a050aa5d307e0f4c0d1</t>
         </is>
       </c>
     </row>
@@ -3025,17 +3025,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>768f381ac51a665b16554bace91abe32</t>
+          <t>36a6736d6dcb5f4ff570871809831183</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
+          <t>768f381ac51a665b16554bace91abe32</t>
         </is>
       </c>
     </row>
@@ -3069,39 +3069,39 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
+          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
+          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
         </is>
       </c>
     </row>
@@ -3113,17 +3113,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
+          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
         </is>
       </c>
     </row>
@@ -3135,17 +3135,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
+          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
+          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
         </is>
       </c>
     </row>
@@ -3179,17 +3179,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
+          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
         </is>
       </c>
     </row>
@@ -3201,39 +3201,39 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
+          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
+          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
         </is>
       </c>
     </row>
@@ -3245,17 +3245,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
+          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
         </is>
       </c>
     </row>
@@ -3267,17 +3267,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>fd448e5391b33575fcf8c25f11c09f23</t>
+          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
         </is>
       </c>
     </row>
@@ -3289,17 +3289,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2002e02d355c43e266222307e041302a</t>
+          <t>fd448e5391b33575fcf8c25f11c09f23</t>
         </is>
       </c>
     </row>
@@ -3311,17 +3311,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
+          <t>2002e02d355c43e266222307e041302a</t>
         </is>
       </c>
     </row>
@@ -3333,39 +3333,39 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>d433ae251ba95754edde1586851d1e0a</t>
+          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
+          <t>d433ae251ba95754edde1586851d1e0a</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3377,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>57e899896177917e2dfbff88320555d8</t>
+          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
         </is>
       </c>
     </row>
@@ -3399,17 +3399,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
+          <t>57e899896177917e2dfbff88320555d8</t>
         </is>
       </c>
     </row>
@@ -3421,17 +3421,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>169493af5375eb9da89ff324a3fe129a</t>
+          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
         </is>
       </c>
     </row>
@@ -3443,17 +3443,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>e071c4984d041309f151de29b9ba82b5</t>
+          <t>169493af5375eb9da89ff324a3fe129a</t>
         </is>
       </c>
     </row>
@@ -3465,39 +3465,39 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>9562d49a07f5481208b672ff777f3cbf</t>
+          <t>e071c4984d041309f151de29b9ba82b5</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>12a28689a1816b6d8cb329edbe385e78</t>
+          <t>9562d49a07f5481208b672ff777f3cbf</t>
         </is>
       </c>
     </row>
@@ -3509,17 +3509,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
+          <t>12a28689a1816b6d8cb329edbe385e78</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
+          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
         </is>
       </c>
     </row>
@@ -3553,17 +3553,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
+          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
         </is>
       </c>
     </row>
@@ -3575,17 +3575,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
+          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
         </is>
       </c>
     </row>
@@ -3597,39 +3597,39 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1376f3daf42b193bbf0d24abd1b70371</t>
+          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
+          <t>1376f3daf42b193bbf0d24abd1b70371</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
+          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
         </is>
       </c>
     </row>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
+          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
         </is>
       </c>
     </row>
@@ -3685,39 +3685,39 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1bade8eb7eadd514699d4beb714531ad</t>
+          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7f6686d018b515a022e8221b104b5d17</t>
+          <t>1bade8eb7eadd514699d4beb714531ad</t>
         </is>
       </c>
     </row>
@@ -3729,17 +3729,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>d9a68ec3e8c921641a3b51af68e57411</t>
+          <t>7f6686d018b515a022e8221b104b5d17</t>
         </is>
       </c>
     </row>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>05cbcf3b75043968d6dd8a48e4677098</t>
+          <t>d9a68ec3e8c921641a3b51af68e57411</t>
         </is>
       </c>
     </row>
@@ -3773,17 +3773,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ddc3a00cef97f70cf56264239041c94c</t>
+          <t>05cbcf3b75043968d6dd8a48e4677098</t>
         </is>
       </c>
     </row>
@@ -3795,17 +3795,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>b521eab70dc9836235f21a5cffd96d34</t>
+          <t>ddc3a00cef97f70cf56264239041c94c</t>
         </is>
       </c>
     </row>
@@ -3817,39 +3817,39 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
+          <t>b521eab70dc9836235f21a5cffd96d34</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1b726b745327977401045b7434de6ad4</t>
+          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
         </is>
       </c>
     </row>
@@ -3861,17 +3861,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>e7887381980432a7be5ddf4dec0772ad</t>
+          <t>1b726b745327977401045b7434de6ad4</t>
         </is>
       </c>
     </row>
@@ -3883,17 +3883,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>66dc986826177528dc9558195e1ddc89</t>
+          <t>e7887381980432a7be5ddf4dec0772ad</t>
         </is>
       </c>
     </row>
@@ -3905,17 +3905,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
+          <t>66dc986826177528dc9558195e1ddc89</t>
         </is>
       </c>
     </row>
@@ -3927,17 +3927,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>651be491d10a47ecc534295d84341c03</t>
+          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
         </is>
       </c>
     </row>
@@ -3949,39 +3949,39 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>030064272d82777681502745fcfa8c48</t>
+          <t>651be491d10a47ecc534295d84341c03</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
+          <t>030064272d82777681502745fcfa8c48</t>
         </is>
       </c>
     </row>
@@ -3993,17 +3993,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>9ab734898b1f8af906b65ff91bf2b399</t>
+          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
         </is>
       </c>
     </row>
@@ -4015,17 +4015,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
+          <t>9ab734898b1f8af906b65ff91bf2b399</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>d71d82a7b5d978ad14e351817d176578</t>
+          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
         </is>
       </c>
     </row>
@@ -4059,17 +4059,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>441e25883733556af6fb6cbab74090fd</t>
+          <t>d71d82a7b5d978ad14e351817d176578</t>
         </is>
       </c>
     </row>
@@ -4081,39 +4081,39 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
+          <t>441e25883733556af6fb6cbab74090fd</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>12a287daec77135d0977274464ef0b95</t>
+          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
         </is>
       </c>
     </row>
@@ -4125,17 +4125,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>cd56441518205ee7063764d0ef94cbbe</t>
+          <t>12a287daec77135d0977274464ef0b95</t>
         </is>
       </c>
     </row>
@@ -4147,17 +4147,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
+          <t>cd56441518205ee7063764d0ef94cbbe</t>
         </is>
       </c>
     </row>
@@ -4169,17 +4169,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
+          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
         </is>
       </c>
     </row>
@@ -4191,17 +4191,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>3da6804567e48789084138326fae4e3a</t>
+          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
         </is>
       </c>
     </row>
@@ -4213,39 +4213,39 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
+          <t>3da6804567e48789084138326fae4e3a</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>d84b6e3d631f17797de438384d7f4098</t>
+          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
         </is>
       </c>
     </row>
@@ -4257,17 +4257,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1ef98087cb11be286a8eac26f55dbe52</t>
+          <t>d84b6e3d631f17797de438384d7f4098</t>
         </is>
       </c>
     </row>
@@ -4279,17 +4279,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
+          <t>1ef98087cb11be286a8eac26f55dbe52</t>
         </is>
       </c>
     </row>
@@ -4301,17 +4301,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>631c7162e33a11d4555121a188540c83</t>
+          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
         </is>
       </c>
     </row>
@@ -4323,17 +4323,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>7e0747b8808941d51c35de503473b62e</t>
+          <t>631c7162e33a11d4555121a188540c83</t>
         </is>
       </c>
     </row>
@@ -4345,39 +4345,39 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
+          <t>7e0747b8808941d51c35de503473b62e</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
+          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
         </is>
       </c>
     </row>
@@ -4389,17 +4389,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
+          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
         </is>
       </c>
     </row>
@@ -4411,17 +4411,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
+          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
         </is>
       </c>
     </row>
@@ -4433,17 +4433,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>f58627f79cda538eb70055e921fe12ae</t>
+          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
         </is>
       </c>
     </row>
@@ -4455,17 +4455,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
+          <t>f58627f79cda538eb70055e921fe12ae</t>
         </is>
       </c>
     </row>
@@ -4477,39 +4477,39 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>65b158d4349a90ca627b324d874c9b07</t>
+          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
+          <t>65b158d4349a90ca627b324d874c9b07</t>
         </is>
       </c>
     </row>
@@ -4521,17 +4521,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>c0c53783189297b37b2f84ddea0ec457</t>
+          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
         </is>
       </c>
     </row>
@@ -4543,17 +4543,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
+          <t>c0c53783189297b37b2f84ddea0ec457</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4565,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>af67117d40dd4f8e0614f1b8e5466841</t>
+          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
         </is>
       </c>
     </row>
@@ -4587,17 +4587,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
+          <t>af67117d40dd4f8e0614f1b8e5466841</t>
         </is>
       </c>
     </row>
@@ -4609,39 +4609,39 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
+          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
+          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
         </is>
       </c>
     </row>
@@ -4653,17 +4653,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ce2c6810c902577904df02f0480c8856</t>
+          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
         </is>
       </c>
     </row>
@@ -4675,17 +4675,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>675f7e5fdc9df67320ee478223d5780e</t>
+          <t>ce2c6810c902577904df02f0480c8856</t>
         </is>
       </c>
     </row>
@@ -4697,39 +4697,39 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>db45c561e81392e48cb03d8e495a0cbc</t>
+          <t>675f7e5fdc9df67320ee478223d5780e</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
+          <t>db45c561e81392e48cb03d8e495a0cbc</t>
         </is>
       </c>
     </row>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>5594337e837b9398872733e9802d3eed</t>
+          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
         </is>
       </c>
     </row>
@@ -4763,17 +4763,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>222540970ddef547bfd1da48083bfec4</t>
+          <t>5594337e837b9398872733e9802d3eed</t>
         </is>
       </c>
     </row>
@@ -4785,39 +4785,39 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>7146a92a3509f39c831492469793d71a</t>
+          <t>222540970ddef547bfd1da48083bfec4</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
+          <t>7146a92a3509f39c831492469793d71a</t>
         </is>
       </c>
     </row>
@@ -4829,17 +4829,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>896946ab9bed611f26f5258724af6aef</t>
+          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
         </is>
       </c>
     </row>
@@ -4851,17 +4851,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
+          <t>896946ab9bed611f26f5258724af6aef</t>
         </is>
       </c>
     </row>
@@ -4873,17 +4873,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>599c07e03af97e501d20c70f9039f78a</t>
+          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
         </is>
       </c>
     </row>
@@ -4895,17 +4895,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>fdc9aea6a47208b45c56c733233b773f</t>
+          <t>599c07e03af97e501d20c70f9039f78a</t>
         </is>
       </c>
     </row>
@@ -4917,39 +4917,39 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
+          <t>fdc9aea6a47208b45c56c733233b773f</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
+          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
         </is>
       </c>
     </row>
@@ -4961,17 +4961,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
+          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
         </is>
       </c>
     </row>
@@ -4983,17 +4983,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>448f7685611e0190c9224d23715a8577</t>
+          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
         </is>
       </c>
     </row>
@@ -5005,17 +5005,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
+          <t>448f7685611e0190c9224d23715a8577</t>
         </is>
       </c>
     </row>
@@ -5027,17 +5027,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>e543eac89077e981d3fa7f0ee8c421de</t>
+          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
         </is>
       </c>
     </row>
@@ -5049,39 +5049,39 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>f36f1f22a48b184358823b6168a904fd</t>
+          <t>e543eac89077e981d3fa7f0ee8c421de</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
+          <t>f36f1f22a48b184358823b6168a904fd</t>
         </is>
       </c>
     </row>
@@ -5093,17 +5093,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>890b61e7f6b048b821ba4ab8690184fa</t>
+          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
         </is>
       </c>
     </row>
@@ -5115,17 +5115,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>c3f385559425e886e928d1addc3241a6</t>
+          <t>890b61e7f6b048b821ba4ab8690184fa</t>
         </is>
       </c>
     </row>
@@ -5137,17 +5137,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0348510c72282255f50931e482d3ea7a</t>
+          <t>c3f385559425e886e928d1addc3241a6</t>
         </is>
       </c>
     </row>
@@ -5159,17 +5159,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>b5866fc58081412e5367df643ca6a4d1</t>
+          <t>0348510c72282255f50931e482d3ea7a</t>
         </is>
       </c>
     </row>
@@ -5181,39 +5181,39 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1c049c31b9f84f53da889c48e2a21d59</t>
+          <t>b5866fc58081412e5367df643ca6a4d1</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>a0939c649b9264c7e798789c2632aa93</t>
+          <t>1c049c31b9f84f53da889c48e2a21d59</t>
         </is>
       </c>
     </row>
@@ -5225,17 +5225,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>f2b6896f7ea7237bd52501f80e502396</t>
+          <t>a0939c649b9264c7e798789c2632aa93</t>
         </is>
       </c>
     </row>
@@ -5247,17 +5247,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
+          <t>f2b6896f7ea7237bd52501f80e502396</t>
         </is>
       </c>
     </row>
@@ -5269,17 +5269,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>b1517fb23721192de7e666da8cd2ae00</t>
+          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
         </is>
       </c>
     </row>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
+          <t>b1517fb23721192de7e666da8cd2ae00</t>
         </is>
       </c>
     </row>
@@ -5313,39 +5313,39 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
+          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>fa55d5394111eaa7823551564ac74cd2</t>
+          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
         </is>
       </c>
     </row>
@@ -5357,17 +5357,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>cbcb77548de26b6843ab31d7a7258b62</t>
+          <t>fa55d5394111eaa7823551564ac74cd2</t>
         </is>
       </c>
     </row>
@@ -5379,17 +5379,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
+          <t>cbcb77548de26b6843ab31d7a7258b62</t>
         </is>
       </c>
     </row>
@@ -5401,17 +5401,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
+          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
         </is>
       </c>
     </row>
@@ -5423,17 +5423,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>fc15f132649a8c8626190dc864bbdf8c</t>
+          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
         </is>
       </c>
     </row>
@@ -5445,39 +5445,39 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
+          <t>fc15f132649a8c8626190dc864bbdf8c</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
+          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
         </is>
       </c>
     </row>
@@ -5489,17 +5489,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>eaf465492d0dd1890de82be665350657</t>
+          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
         </is>
       </c>
     </row>
@@ -5511,17 +5511,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
+          <t>eaf465492d0dd1890de82be665350657</t>
         </is>
       </c>
     </row>
@@ -5533,39 +5533,39 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
+          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
+          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
         </is>
       </c>
     </row>
@@ -5577,17 +5577,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
+          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
         </is>
       </c>
     </row>
@@ -5599,17 +5599,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>073cc8988b143e26e931784c3ad795a6</t>
+          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
         </is>
       </c>
     </row>
@@ -5621,17 +5621,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
+          <t>073cc8988b143e26e931784c3ad795a6</t>
         </is>
       </c>
     </row>
@@ -5643,17 +5643,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>423ecfdb73c88432232a28d96ebb4e06</t>
+          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
         </is>
       </c>
     </row>
@@ -5665,39 +5665,39 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>dc7cb29466311558acc2c70e166b478a</t>
+          <t>423ecfdb73c88432232a28d96ebb4e06</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>1512187ce7f40824b1138e225fe4ca97</t>
+          <t>dc7cb29466311558acc2c70e166b478a</t>
         </is>
       </c>
     </row>
@@ -5709,17 +5709,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>530d5de622f46e1960ed5b1c32d168a9</t>
+          <t>1512187ce7f40824b1138e225fe4ca97</t>
         </is>
       </c>
     </row>
@@ -5731,17 +5731,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
+          <t>530d5de622f46e1960ed5b1c32d168a9</t>
         </is>
       </c>
     </row>
@@ -5753,17 +5753,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
+          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
         </is>
       </c>
     </row>
@@ -5775,17 +5775,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
+          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
         </is>
       </c>
     </row>
@@ -5797,39 +5797,39 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>da20a8257ef0b55e81334933cb9ab662</t>
+          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>19033774f5c5379ee9345010a6de77ae</t>
+          <t>da20a8257ef0b55e81334933cb9ab662</t>
         </is>
       </c>
     </row>
@@ -5841,17 +5841,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>15b1df11e5b3161b2a04ee2547163e99</t>
+          <t>19033774f5c5379ee9345010a6de77ae</t>
         </is>
       </c>
     </row>
@@ -5863,17 +5863,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>4ccecca2e30861ef3016419381db7f6e</t>
+          <t>15b1df11e5b3161b2a04ee2547163e99</t>
         </is>
       </c>
     </row>
@@ -5885,39 +5885,39 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2673a9d78c32b1daf5b3454478e89077</t>
+          <t>4ccecca2e30861ef3016419381db7f6e</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
+          <t>2673a9d78c32b1daf5b3454478e89077</t>
         </is>
       </c>
     </row>
@@ -5929,17 +5929,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
+          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
         </is>
       </c>
     </row>
@@ -5951,17 +5951,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>3b8ddf443835f9caf3e618a0040eca41</t>
+          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
         </is>
       </c>
     </row>
@@ -5973,39 +5973,39 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>bc988679f582cbb5da2d641f5021c5d3</t>
+          <t>3b8ddf443835f9caf3e618a0040eca41</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
+          <t>bc988679f582cbb5da2d641f5021c5d3</t>
         </is>
       </c>
     </row>
@@ -6017,17 +6017,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
+          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
         </is>
       </c>
     </row>
@@ -6039,17 +6039,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
+          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
         </is>
       </c>
     </row>
@@ -6061,17 +6061,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
+          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
         </is>
       </c>
     </row>
@@ -6083,17 +6083,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>14d4a437a999e6e0f036516091a7557e</t>
+          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
         </is>
       </c>
     </row>
@@ -6105,39 +6105,39 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
+          <t>14d4a437a999e6e0f036516091a7557e</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>cf757438c9ea944760ea9f1afc5bb956</t>
+          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
         </is>
       </c>
     </row>
@@ -6149,17 +6149,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
+          <t>cf757438c9ea944760ea9f1afc5bb956</t>
         </is>
       </c>
     </row>
@@ -6171,17 +6171,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>1d740651ca0623939589150c7a572502</t>
+          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
         </is>
       </c>
     </row>
@@ -6193,17 +6193,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>eabb43133e9136a808bc7f4442f01000</t>
+          <t>1d740651ca0623939589150c7a572502</t>
         </is>
       </c>
     </row>
@@ -6215,17 +6215,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>cc0a219656db7ef26587ed59bbf1643f</t>
+          <t>eabb43133e9136a808bc7f4442f01000</t>
         </is>
       </c>
     </row>
@@ -6237,39 +6237,39 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
+          <t>cc0a219656db7ef26587ed59bbf1643f</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>94155b2af89d9468c0c10275f449f153</t>
+          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
         </is>
       </c>
     </row>
@@ -6281,17 +6281,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>482e8d9b4647d9820af3125511fc98cd</t>
+          <t>94155b2af89d9468c0c10275f449f153</t>
         </is>
       </c>
     </row>
@@ -6303,17 +6303,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
+          <t>482e8d9b4647d9820af3125511fc98cd</t>
         </is>
       </c>
     </row>
@@ -6325,39 +6325,39 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>07fdf9e297ca66fa0821341e3be1933b</t>
+          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>022967f2ae03fec0aab2fe733b126a60</t>
+          <t>07fdf9e297ca66fa0821341e3be1933b</t>
         </is>
       </c>
     </row>
@@ -6369,17 +6369,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>35e549de6071e76e023673d7769c2e78</t>
+          <t>022967f2ae03fec0aab2fe733b126a60</t>
         </is>
       </c>
     </row>
@@ -6391,17 +6391,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
+          <t>35e549de6071e76e023673d7769c2e78</t>
         </is>
       </c>
     </row>
@@ -6413,39 +6413,39 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>e915219272385f93ad8ef32b3423b1fe</t>
+          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>959f9ff2a40cafde128c12da37549313</t>
+          <t>e915219272385f93ad8ef32b3423b1fe</t>
         </is>
       </c>
     </row>
@@ -6457,17 +6457,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
+          <t>959f9ff2a40cafde128c12da37549313</t>
         </is>
       </c>
     </row>
@@ -6479,17 +6479,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>0cebda065505c2792d4c1f4a90a7876e</t>
+          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
         </is>
       </c>
     </row>
@@ -6501,17 +6501,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>cc489fe3b383290713dd13f363a1ee7e</t>
+          <t>0cebda065505c2792d4c1f4a90a7876e</t>
         </is>
       </c>
     </row>
@@ -6523,17 +6523,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
+          <t>cc489fe3b383290713dd13f363a1ee7e</t>
         </is>
       </c>
     </row>
@@ -6545,39 +6545,39 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
+          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
+          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
         </is>
       </c>
     </row>
@@ -6589,17 +6589,17 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>b35118ff409b5edf589447f9ec75aba3</t>
+          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
         </is>
       </c>
     </row>
@@ -6611,17 +6611,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>4244ef54d4741012ac22809514f07f7e</t>
+          <t>b35118ff409b5edf589447f9ec75aba3</t>
         </is>
       </c>
     </row>
@@ -6633,39 +6633,39 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
+          <t>4244ef54d4741012ac22809514f07f7e</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>5ec675ed69c80465cf9a5980208efac8</t>
+          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
         </is>
       </c>
     </row>
@@ -6677,17 +6677,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
+          <t>5ec675ed69c80465cf9a5980208efac8</t>
         </is>
       </c>
     </row>
@@ -6699,17 +6699,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>83b591bfb240c51b2feff8f02eac8bde</t>
+          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
         </is>
       </c>
     </row>
@@ -6721,39 +6721,39 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>fdbbea86e280a8f754339a064f9ad2df</t>
+          <t>83b591bfb240c51b2feff8f02eac8bde</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>83df618fab57a656368d5845025160ba</t>
+          <t>fdbbea86e280a8f754339a064f9ad2df</t>
         </is>
       </c>
     </row>
@@ -6765,17 +6765,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>ed156bf787405393f94f5b08b6dfa1d5</t>
+          <t>83df618fab57a656368d5845025160ba</t>
         </is>
       </c>
     </row>
@@ -6787,17 +6787,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2e3cfb30b7cbf6043eb3e9d5bacf0b18</t>
+          <t>ed156bf787405393f94f5b08b6dfa1d5</t>
         </is>
       </c>
     </row>
@@ -6809,17 +6809,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>19f8ee90bb8e7bca2ac1549cc9fe179b</t>
+          <t>2e3cfb30b7cbf6043eb3e9d5bacf0b18</t>
         </is>
       </c>
     </row>
@@ -6831,17 +6831,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>f465cb6202ec5ddbd1ed72b8c78f29c4</t>
+          <t>19f8ee90bb8e7bca2ac1549cc9fe179b</t>
         </is>
       </c>
     </row>
@@ -6853,39 +6853,39 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>145228a6e467c702614f92fcc2edd40c</t>
+          <t>f465cb6202ec5ddbd1ed72b8c78f29c4</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>eb96d86c522877b53801473cd8218493</t>
+          <t>145228a6e467c702614f92fcc2edd40c</t>
         </is>
       </c>
     </row>
@@ -6897,17 +6897,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>7bbbd4113f997288935340a631399686</t>
+          <t>eb96d86c522877b53801473cd8218493</t>
         </is>
       </c>
     </row>
@@ -6919,17 +6919,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>67f05845194e8066380b40b6998615fc</t>
+          <t>7bbbd4113f997288935340a631399686</t>
         </is>
       </c>
     </row>
@@ -6941,17 +6941,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>6abf123155a576220e1cddaf51fa35b3</t>
+          <t>67f05845194e8066380b40b6998615fc</t>
         </is>
       </c>
     </row>
@@ -6963,17 +6963,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>594de8b190f950ca66bcfc13121bc8d8</t>
+          <t>6abf123155a576220e1cddaf51fa35b3</t>
         </is>
       </c>
     </row>
@@ -6985,39 +6985,39 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>45776652a71c7e43a7dbe8393e82f400</t>
+          <t>594de8b190f950ca66bcfc13121bc8d8</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>99ea023c228e5c40d69e18edd5e1f547</t>
+          <t>45776652a71c7e43a7dbe8393e82f400</t>
         </is>
       </c>
     </row>
@@ -7029,17 +7029,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>05246f474115e163f50d0462df9182e8</t>
+          <t>99ea023c228e5c40d69e18edd5e1f547</t>
         </is>
       </c>
     </row>
@@ -7051,17 +7051,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>92feef4c0c74655e7328a95c1a0310c5</t>
+          <t>05246f474115e163f50d0462df9182e8</t>
         </is>
       </c>
     </row>
@@ -7073,17 +7073,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>a5cd14824e288e39830e704e58e52fb2</t>
+          <t>92feef4c0c74655e7328a95c1a0310c5</t>
         </is>
       </c>
     </row>
@@ -7095,17 +7095,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>c796157608dcc7efde22511a4b440335</t>
+          <t>a5cd14824e288e39830e704e58e52fb2</t>
         </is>
       </c>
     </row>
@@ -7117,39 +7117,39 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>1c20a1f8300104da529c7c553ddc11a1</t>
+          <t>c796157608dcc7efde22511a4b440335</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>793aa6ad7d3c360a6266747d90795cc4</t>
+          <t>1c20a1f8300104da529c7c553ddc11a1</t>
         </is>
       </c>
     </row>
@@ -7161,17 +7161,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>b7d85926561ff125928b68e7fffa646b</t>
+          <t>793aa6ad7d3c360a6266747d90795cc4</t>
         </is>
       </c>
     </row>
@@ -7183,17 +7183,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>97c06b5d99a708b9c9eff62077b8a6bc</t>
+          <t>b7d85926561ff125928b68e7fffa646b</t>
         </is>
       </c>
     </row>
@@ -7205,17 +7205,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>4c6165e5c87d83d52a173679d320383f</t>
+          <t>97c06b5d99a708b9c9eff62077b8a6bc</t>
         </is>
       </c>
     </row>
@@ -7227,17 +7227,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>b46e3d7933c7f77c78d536d33f9b5c4a</t>
+          <t>4c6165e5c87d83d52a173679d320383f</t>
         </is>
       </c>
     </row>
@@ -7249,39 +7249,39 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>94e6263912bc758ee3db81c62a94a8f6</t>
+          <t>b46e3d7933c7f77c78d536d33f9b5c4a</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>36954c258a5a46747ead05d8d89022b4</t>
+          <t>94e6263912bc758ee3db81c62a94a8f6</t>
         </is>
       </c>
     </row>
@@ -7293,17 +7293,17 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>aa762422e005c4a157d202fff8e8dd00</t>
+          <t>36954c258a5a46747ead05d8d89022b4</t>
         </is>
       </c>
     </row>
@@ -7315,17 +7315,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>31a3e2fdf2da08dceee4636c8fb87588</t>
+          <t>aa762422e005c4a157d202fff8e8dd00</t>
         </is>
       </c>
     </row>
@@ -7337,17 +7337,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>eccaf95f10ad80dd85880046c7b9753a</t>
+          <t>31a3e2fdf2da08dceee4636c8fb87588</t>
         </is>
       </c>
     </row>
@@ -7359,17 +7359,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>188c85421a6d02003be3bae8b4e2e074</t>
+          <t>eccaf95f10ad80dd85880046c7b9753a</t>
         </is>
       </c>
     </row>
@@ -7381,39 +7381,39 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>aa935c4992d6296c3088fc4ca5e00b46</t>
+          <t>188c85421a6d02003be3bae8b4e2e074</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>e43c906f97bf934c6a64f98465fd23bb</t>
+          <t>aa935c4992d6296c3088fc4ca5e00b46</t>
         </is>
       </c>
     </row>
@@ -7425,17 +7425,17 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>720417d493fe763f5e7ba81d1cf6e126</t>
+          <t>e43c906f97bf934c6a64f98465fd23bb</t>
         </is>
       </c>
     </row>
@@ -7447,17 +7447,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>8fdfa2d630da44e5766a5c91da6360c1</t>
+          <t>720417d493fe763f5e7ba81d1cf6e126</t>
         </is>
       </c>
     </row>
@@ -7469,17 +7469,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>283e31f63c2a6e0f2bf8231d205f51b2</t>
+          <t>8fdfa2d630da44e5766a5c91da6360c1</t>
         </is>
       </c>
     </row>
@@ -7491,17 +7491,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>d817c27fd56f79bf1a329780097bd54b</t>
+          <t>283e31f63c2a6e0f2bf8231d205f51b2</t>
         </is>
       </c>
     </row>
@@ -7513,39 +7513,39 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>493544a5e246aa7cea2479b4d454a183</t>
+          <t>d817c27fd56f79bf1a329780097bd54b</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>2f1c376370096ec205e0a8318b7f6df8</t>
+          <t>493544a5e246aa7cea2479b4d454a183</t>
         </is>
       </c>
     </row>
@@ -7557,17 +7557,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>3dac0f41036e712d4278f140035ecaa9</t>
+          <t>2f1c376370096ec205e0a8318b7f6df8</t>
         </is>
       </c>
     </row>
@@ -7579,17 +7579,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>a6901170e8b2a9956d2883216465a6f5</t>
+          <t>3dac0f41036e712d4278f140035ecaa9</t>
         </is>
       </c>
     </row>
@@ -7601,17 +7601,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>8bf08b9db2691fc0b2a673e456c99431</t>
+          <t>a6901170e8b2a9956d2883216465a6f5</t>
         </is>
       </c>
     </row>
@@ -7623,17 +7623,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>61b56754bd643b5d45ab13c4083f7980</t>
+          <t>8bf08b9db2691fc0b2a673e456c99431</t>
         </is>
       </c>
     </row>
@@ -7645,39 +7645,39 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>5ce16aada281ae4e11359a4e853b65d8</t>
+          <t>61b56754bd643b5d45ab13c4083f7980</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>e78a003a9679790c19fc11974d2d0453</t>
+          <t>5ce16aada281ae4e11359a4e853b65d8</t>
         </is>
       </c>
     </row>
@@ -7689,17 +7689,17 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>0c8a0d2dc6f1d7e37ee63d74760808b8</t>
+          <t>e78a003a9679790c19fc11974d2d0453</t>
         </is>
       </c>
     </row>
@@ -7711,17 +7711,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>f42d7da7fcaa24bc9409e857bdefff30</t>
+          <t>0c8a0d2dc6f1d7e37ee63d74760808b8</t>
         </is>
       </c>
     </row>
@@ -7733,17 +7733,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>4fab55b87cb153239536cca3947f4513</t>
+          <t>f42d7da7fcaa24bc9409e857bdefff30</t>
         </is>
       </c>
     </row>
@@ -7755,17 +7755,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>d5b62813ebc2d78bdbdf08b2c42e1280</t>
+          <t>4fab55b87cb153239536cca3947f4513</t>
         </is>
       </c>
     </row>
@@ -7777,39 +7777,39 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>2c49260d2646a0944b56933f7d4029fb</t>
+          <t>d5b62813ebc2d78bdbdf08b2c42e1280</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>2f79cc74468fac966e373914a1f6516d</t>
+          <t>2c49260d2646a0944b56933f7d4029fb</t>
         </is>
       </c>
     </row>
@@ -7821,17 +7821,17 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>09ec9d58839bef77654226d82336a32d</t>
+          <t>2f79cc74468fac966e373914a1f6516d</t>
         </is>
       </c>
     </row>
@@ -7843,17 +7843,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>4be3e3c2a271217ab2f6788cb3dc7fd6</t>
+          <t>09ec9d58839bef77654226d82336a32d</t>
         </is>
       </c>
     </row>
@@ -7865,17 +7865,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>8a3a42a8c246a9a2b58a64e407f0cb29</t>
+          <t>4be3e3c2a271217ab2f6788cb3dc7fd6</t>
         </is>
       </c>
     </row>
@@ -7887,17 +7887,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>7a0fcb142fb19b892ab8e38d06494fb1</t>
+          <t>8a3a42a8c246a9a2b58a64e407f0cb29</t>
         </is>
       </c>
     </row>
@@ -7909,39 +7909,39 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>94278d0a7d891e7a9307036c14b82d41</t>
+          <t>7a0fcb142fb19b892ab8e38d06494fb1</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>363854659883df19d9996a9d81477e89</t>
+          <t>94278d0a7d891e7a9307036c14b82d41</t>
         </is>
       </c>
     </row>
@@ -7953,17 +7953,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>45394e7dbb73997e62d298ef62ecd8d7</t>
+          <t>363854659883df19d9996a9d81477e89</t>
         </is>
       </c>
     </row>
@@ -7975,17 +7975,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>776ad030354617d05f4d4ce8ff0481ae</t>
+          <t>45394e7dbb73997e62d298ef62ecd8d7</t>
         </is>
       </c>
     </row>
@@ -7997,17 +7997,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>075de3efc95aed64e8417181aa03b732</t>
+          <t>776ad030354617d05f4d4ce8ff0481ae</t>
         </is>
       </c>
     </row>
@@ -8019,17 +8019,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>45eeec29b35688e4e0416cb6c00a0e58</t>
+          <t>075de3efc95aed64e8417181aa03b732</t>
         </is>
       </c>
     </row>
@@ -8041,39 +8041,39 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>67b2fe123490609b486c4f4022496b2e</t>
+          <t>45eeec29b35688e4e0416cb6c00a0e58</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
+          <t>67b2fe123490609b486c4f4022496b2e</t>
         </is>
       </c>
     </row>
@@ -8085,17 +8085,17 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>9e4168fc0c7808bebd35c485396ea56c</t>
+          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
         </is>
       </c>
     </row>
@@ -8107,17 +8107,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>0e7173198b5c4efee2d2d373e3766bdb</t>
+          <t>9e4168fc0c7808bebd35c485396ea56c</t>
         </is>
       </c>
     </row>
@@ -8129,17 +8129,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>958d1a8901c7e4f4890ff0db334836f0</t>
+          <t>0e7173198b5c4efee2d2d373e3766bdb</t>
         </is>
       </c>
     </row>
@@ -8151,17 +8151,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>7fc30e7930edb4d0f0dc921e5e70a3f6</t>
+          <t>958d1a8901c7e4f4890ff0db334836f0</t>
         </is>
       </c>
     </row>
@@ -8173,39 +8173,39 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>f1c9c5e5cea427f44b97a4a65af1fa0b</t>
+          <t>7fc30e7930edb4d0f0dc921e5e70a3f6</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
+          <t>f1c9c5e5cea427f44b97a4a65af1fa0b</t>
         </is>
       </c>
     </row>
@@ -8217,17 +8217,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>f76279d2edfbfbaefc15b6ea12a2a83e</t>
+          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>40567cfb40f22da1aa2b08377edd2a15</t>
+          <t>f76279d2edfbfbaefc15b6ea12a2a83e</t>
         </is>
       </c>
     </row>
@@ -8261,17 +8261,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>f0fdf339b197a18e092baf73d0712bdd</t>
+          <t>40567cfb40f22da1aa2b08377edd2a15</t>
         </is>
       </c>
     </row>
@@ -8283,17 +8283,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>840a5db84c548c58a6d3bb36d0b758d0</t>
+          <t>f0fdf339b197a18e092baf73d0712bdd</t>
         </is>
       </c>
     </row>
@@ -8305,39 +8305,39 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>e7e3965cf4435a1703cc5ee0a5fd8ae3</t>
+          <t>840a5db84c548c58a6d3bb36d0b758d0</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>36231b0ec168e47d61fd256ff16c652b</t>
+          <t>e7e3965cf4435a1703cc5ee0a5fd8ae3</t>
         </is>
       </c>
     </row>
@@ -8349,17 +8349,17 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>5be145510b50bb75e686a5226f9d0d6c</t>
+          <t>36231b0ec168e47d61fd256ff16c652b</t>
         </is>
       </c>
     </row>
@@ -8371,17 +8371,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>03228534673ac90d808023b466908e39</t>
+          <t>5be145510b50bb75e686a5226f9d0d6c</t>
         </is>
       </c>
     </row>
@@ -8393,17 +8393,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>be81f2c53a6a09905ff6cdbd20421c90</t>
+          <t>03228534673ac90d808023b466908e39</t>
         </is>
       </c>
     </row>
@@ -8415,17 +8415,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>db3cb61e0d74f28a1f26dd190407bde1</t>
+          <t>be81f2c53a6a09905ff6cdbd20421c90</t>
         </is>
       </c>
     </row>
@@ -8437,39 +8437,39 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>025536e3e2121979213300abe0246102</t>
+          <t>db3cb61e0d74f28a1f26dd190407bde1</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>6f54d58f6f212345826b174a10e30261</t>
+          <t>025536e3e2121979213300abe0246102</t>
         </is>
       </c>
     </row>
@@ -8481,17 +8481,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>1a3876d1da179b81a5c7ace54cf3b85c</t>
+          <t>6f54d58f6f212345826b174a10e30261</t>
         </is>
       </c>
     </row>
@@ -8503,17 +8503,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>8ec7d62c99ae0474aad04a0f58bca61c</t>
+          <t>1a3876d1da179b81a5c7ace54cf3b85c</t>
         </is>
       </c>
     </row>
@@ -8525,17 +8525,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>f67b8f20f9a6500e47ad51eb3e295fc7</t>
+          <t>8ec7d62c99ae0474aad04a0f58bca61c</t>
         </is>
       </c>
     </row>
@@ -8547,17 +8547,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>a29d83759366fcfacd31b90bcf76daad</t>
+          <t>f67b8f20f9a6500e47ad51eb3e295fc7</t>
         </is>
       </c>
     </row>
@@ -8569,39 +8569,39 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>ac1fca114c808f1640047497ddc00702</t>
+          <t>a29d83759366fcfacd31b90bcf76daad</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
+          <t>ac1fca114c808f1640047497ddc00702</t>
         </is>
       </c>
     </row>
@@ -8613,17 +8613,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>7cdb7e52d29859c4e340fb6c84014749</t>
+          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
         </is>
       </c>
     </row>
@@ -8635,17 +8635,17 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>da66dd2a759ee30147a320f3206623cd</t>
+          <t>7cdb7e52d29859c4e340fb6c84014749</t>
         </is>
       </c>
     </row>
@@ -8657,17 +8657,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>30250ce09306308aebb9474f12fa92ec</t>
+          <t>da66dd2a759ee30147a320f3206623cd</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>243f3490787b5a7417546b88a0f0b047</t>
+          <t>30250ce09306308aebb9474f12fa92ec</t>
         </is>
       </c>
     </row>
@@ -8701,39 +8701,39 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>147becad951f52352e7c7bd83ff4ed18</t>
+          <t>243f3490787b5a7417546b88a0f0b047</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
+          <t>147becad951f52352e7c7bd83ff4ed18</t>
         </is>
       </c>
     </row>
@@ -8745,17 +8745,17 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>dd4ac96e4b78cf36f35d08bd03f0ee3e</t>
+          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
         </is>
       </c>
     </row>
@@ -8767,17 +8767,17 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>67f33c491bd136346b5e83b7339c7076</t>
+          <t>dd4ac96e4b78cf36f35d08bd03f0ee3e</t>
         </is>
       </c>
     </row>
@@ -8789,17 +8789,17 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>4f67e26410d154bae815ee60170caa5a</t>
+          <t>67f33c491bd136346b5e83b7339c7076</t>
         </is>
       </c>
     </row>
@@ -8811,17 +8811,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>cb211e965855d849974f08963d96c40a</t>
+          <t>4f67e26410d154bae815ee60170caa5a</t>
         </is>
       </c>
     </row>
@@ -8833,39 +8833,39 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>b2d19eafb644c39bd87dddf45deff971</t>
+          <t>cb211e965855d849974f08963d96c40a</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
+          <t>b2d19eafb644c39bd87dddf45deff971</t>
         </is>
       </c>
     </row>
@@ -8877,17 +8877,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>31785a02d8b2f6145d077877668cc362</t>
+          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
         </is>
       </c>
     </row>
@@ -8899,17 +8899,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>ae6b1c6363420cc54dbbf0aef654b182</t>
+          <t>31785a02d8b2f6145d077877668cc362</t>
         </is>
       </c>
     </row>
@@ -8921,17 +8921,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>f7e3807fe5d30bfdba0620f9b31a339e</t>
+          <t>ae6b1c6363420cc54dbbf0aef654b182</t>
         </is>
       </c>
     </row>
@@ -8943,17 +8943,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>cf8ee4e0654b4c91dd2fb44ec697fe04</t>
+          <t>f7e3807fe5d30bfdba0620f9b31a339e</t>
         </is>
       </c>
     </row>
@@ -8965,15 +8965,37 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
+          <t>7.1.1-42962-1</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>cf8ee4e0654b4c91dd2fb44ec697fe04</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
           <t>7.1.0-42661-1</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4017xs%2B_42661.pat</t>
         </is>
       </c>
-      <c r="D389" t="inlineStr">
+      <c r="D390" t="inlineStr">
         <is>
           <t>2b16f828ab77fc2ee354c3ee3e55b855</t>
         </is>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,7 +886,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1525+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1525%2B_72806.pat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89699e60f438788936cd531da5448259</t>
+          <t>c000af5015b63683cd133f955952703c</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1fd1d6e733bb096f418f68e06f81022e</t>
+          <t>89699e60f438788936cd531da5448259</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4bc6b4b8cfa7005505a6168a08c92b5f</t>
+          <t>1fd1d6e733bb096f418f68e06f81022e</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6f9fa1ff5b9b2dded366b1a2d2687aea</t>
+          <t>4bc6b4b8cfa7005505a6168a08c92b5f</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93a5a2b9515b39e18d0b48df84d5c007</t>
+          <t>6f9fa1ff5b9b2dded366b1a2d2687aea</t>
         </is>
       </c>
     </row>
@@ -1001,39 +1001,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>b4b72eb8d4e84b2e2a8c29fc0a1ac6aa</t>
+          <t>93a5a2b9515b39e18d0b48df84d5c007</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
+          <t>b4b72eb8d4e84b2e2a8c29fc0a1ac6aa</t>
         </is>
       </c>
     </row>
@@ -1045,17 +1045,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>302fdefb00c8d4f8bf95ac25dca1e864</t>
+          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
         </is>
       </c>
     </row>
@@ -1067,17 +1067,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8af12dfa839057343d4b0d7f57efad16</t>
+          <t>302fdefb00c8d4f8bf95ac25dca1e864</t>
         </is>
       </c>
     </row>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ff027f65c9712059a5a54bfbfb5a52b7</t>
+          <t>8af12dfa839057343d4b0d7f57efad16</t>
         </is>
       </c>
     </row>
@@ -1111,17 +1111,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>fffec3510c954fc718a1aecba2f98fc6</t>
+          <t>ff027f65c9712059a5a54bfbfb5a52b7</t>
         </is>
       </c>
     </row>
@@ -1133,39 +1133,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18f849121a9a1918aca94c6774524910</t>
+          <t>fffec3510c954fc718a1aecba2f98fc6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
+          <t>18f849121a9a1918aca94c6774524910</t>
         </is>
       </c>
     </row>
@@ -1177,17 +1177,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>82dc294d7f99545d9d7e2ff9bcae114b</t>
+          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
         </is>
       </c>
     </row>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>bd5ed66d4f74e97416c0724737f88315</t>
+          <t>82dc294d7f99545d9d7e2ff9bcae114b</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>e93f143ffe7a4612635efbd4b537b26a</t>
+          <t>bd5ed66d4f74e97416c0724737f88315</t>
         </is>
       </c>
     </row>
@@ -1243,17 +1243,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5dac92403628186c629d2ab5aedbcc57</t>
+          <t>e93f143ffe7a4612635efbd4b537b26a</t>
         </is>
       </c>
     </row>
@@ -1265,39 +1265,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>51a5104488a6f09dbc9a91689aa4a363</t>
+          <t>5dac92403628186c629d2ab5aedbcc57</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
+          <t>51a5104488a6f09dbc9a91689aa4a363</t>
         </is>
       </c>
     </row>
@@ -1309,17 +1309,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>cbe674d818bc06b7eefef2b9c58fc859</t>
+          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
         </is>
       </c>
     </row>
@@ -1331,17 +1331,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6a7efda6e842ebee9597120e4a68870a</t>
+          <t>cbe674d818bc06b7eefef2b9c58fc859</t>
         </is>
       </c>
     </row>
@@ -1353,17 +1353,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>da6d86151013569e4b4d2f12515e0a5c</t>
+          <t>6a7efda6e842ebee9597120e4a68870a</t>
         </is>
       </c>
     </row>
@@ -1375,17 +1375,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>e54b32884cbc1b913324c8cda5b2f978</t>
+          <t>da6d86151013569e4b4d2f12515e0a5c</t>
         </is>
       </c>
     </row>
@@ -1397,39 +1397,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>c854e197ec6b7b57c5a6667a0a225a19</t>
+          <t>e54b32884cbc1b913324c8cda5b2f978</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
+          <t>c854e197ec6b7b57c5a6667a0a225a19</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>134c17ae983809784f9cbfd133c64ea7</t>
+          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
         </is>
       </c>
     </row>
@@ -1463,17 +1463,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1a8a5e1d8461e9a3af638dae7f121ad3</t>
+          <t>134c17ae983809784f9cbfd133c64ea7</t>
         </is>
       </c>
     </row>
@@ -1485,39 +1485,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>d337b8a44008bb726c28489e30577cee</t>
+          <t>1a8a5e1d8461e9a3af638dae7f121ad3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
+          <t>d337b8a44008bb726c28489e30577cee</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>b77984bcefef6ddc2e847a336cb2d764</t>
+          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
         </is>
       </c>
     </row>
@@ -1551,17 +1551,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>29111f8860063c4a9a84827a2d9e019a</t>
+          <t>b77984bcefef6ddc2e847a336cb2d764</t>
         </is>
       </c>
     </row>
@@ -1573,17 +1573,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>34fa653e965663cd663d7d1e2b9e60d3</t>
+          <t>29111f8860063c4a9a84827a2d9e019a</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1595,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>dcdae26b1419f67f53a7936e6176cc7c</t>
+          <t>34fa653e965663cd663d7d1e2b9e60d3</t>
         </is>
       </c>
     </row>
@@ -1617,39 +1617,39 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>536af980d23f2d79fcbdfb117444ca06</t>
+          <t>dcdae26b1419f67f53a7936e6176cc7c</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>45036d62086128fbccbb0c07c1dadc6f</t>
+          <t>536af980d23f2d79fcbdfb117444ca06</t>
         </is>
       </c>
     </row>
@@ -1661,39 +1661,39 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>462cb5f704faa7a32651be4b4e17746e</t>
+          <t>45036d62086128fbccbb0c07c1dadc6f</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>eb12a7f890f75cbec459be88e288fe3b</t>
+          <t>462cb5f704faa7a32651be4b4e17746e</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1705,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>59d48e64ad4d0e5bc35f9eec8869d9c5</t>
+          <t>eb12a7f890f75cbec459be88e288fe3b</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1727,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8513269cb1ee01030e8d7cd3d57fc8d6</t>
+          <t>59d48e64ad4d0e5bc35f9eec8869d9c5</t>
         </is>
       </c>
     </row>
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5716f9a0aadb529cfa131c0c0a399c3e</t>
+          <t>8513269cb1ee01030e8d7cd3d57fc8d6</t>
         </is>
       </c>
     </row>
@@ -1771,17 +1771,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7b53fbb5c813af9db29b39382b5e5d68</t>
+          <t>5716f9a0aadb529cfa131c0c0a399c3e</t>
         </is>
       </c>
     </row>
@@ -1793,39 +1793,39 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ae6cdda2edff9458b2fff7114474f38d</t>
+          <t>7b53fbb5c813af9db29b39382b5e5d68</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
+          <t>ae6cdda2edff9458b2fff7114474f38d</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>939109f7fcdcce5e20a3cec9d6ced85a</t>
+          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
         </is>
       </c>
     </row>
@@ -1859,17 +1859,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>948e1799bcd25fbafd5eca2cfd11b338</t>
+          <t>939109f7fcdcce5e20a3cec9d6ced85a</t>
         </is>
       </c>
     </row>
@@ -1881,17 +1881,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>b3a6f54e2be6578c3e3594801208556b</t>
+          <t>948e1799bcd25fbafd5eca2cfd11b338</t>
         </is>
       </c>
     </row>
@@ -1903,17 +1903,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>50d27c3c6ba5571f4de5c1f787e804a5</t>
+          <t>b3a6f54e2be6578c3e3594801208556b</t>
         </is>
       </c>
     </row>
@@ -1925,39 +1925,39 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>33a068ae26e9e88e57c4b4e6ed218c98</t>
+          <t>50d27c3c6ba5571f4de5c1f787e804a5</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1bb660489f3617975213b9e587fed7b4</t>
+          <t>33a068ae26e9e88e57c4b4e6ed218c98</t>
         </is>
       </c>
     </row>
@@ -1969,17 +1969,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2c443d1fa7b8542c58a203eaf9dbf224</t>
+          <t>1bb660489f3617975213b9e587fed7b4</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3e5e09f4d4b0f09ab03f28d12b76f03a</t>
+          <t>2c443d1fa7b8542c58a203eaf9dbf224</t>
         </is>
       </c>
     </row>
@@ -2013,17 +2013,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>b00d3d1ccf1b1a6982b2b594420e0f3c</t>
+          <t>3e5e09f4d4b0f09ab03f28d12b76f03a</t>
         </is>
       </c>
     </row>
@@ -2035,17 +2035,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>9ea5e0fe94c01072da36e2f69172abb3</t>
+          <t>b00d3d1ccf1b1a6982b2b594420e0f3c</t>
         </is>
       </c>
     </row>
@@ -2057,39 +2057,39 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7fe3c9ae80396a2ea9ed9909b8746c4b</t>
+          <t>9ea5e0fe94c01072da36e2f69172abb3</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>669834673fab793775ee86547d920aa0</t>
+          <t>7fe3c9ae80396a2ea9ed9909b8746c4b</t>
         </is>
       </c>
     </row>
@@ -2101,17 +2101,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ce86c68e6e93fe7cdcc63b165a70a878</t>
+          <t>669834673fab793775ee86547d920aa0</t>
         </is>
       </c>
     </row>
@@ -2123,17 +2123,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>456fc142cf8d3f1c329601c9d9ed66f5</t>
+          <t>ce86c68e6e93fe7cdcc63b165a70a878</t>
         </is>
       </c>
     </row>
@@ -2145,17 +2145,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>d3b223e1e973fcf5c67c64e72775a576</t>
+          <t>456fc142cf8d3f1c329601c9d9ed66f5</t>
         </is>
       </c>
     </row>
@@ -2167,17 +2167,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7af76cca8226ecf95b25630bffa76b3d</t>
+          <t>d3b223e1e973fcf5c67c64e72775a576</t>
         </is>
       </c>
     </row>
@@ -2189,39 +2189,39 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>b9b452577b38adc82aca42e031be267b</t>
+          <t>7af76cca8226ecf95b25630bffa76b3d</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5735baee87d812edbd1a13bb7641d3b7</t>
+          <t>b9b452577b38adc82aca42e031be267b</t>
         </is>
       </c>
     </row>
@@ -2233,17 +2233,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>50089a9ccd2b724f24de04c86f8ac2aa</t>
+          <t>5735baee87d812edbd1a13bb7641d3b7</t>
         </is>
       </c>
     </row>
@@ -2255,17 +2255,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>dbfb5437026b296436f8b7a658a3e981</t>
+          <t>50089a9ccd2b724f24de04c86f8ac2aa</t>
         </is>
       </c>
     </row>
@@ -2277,17 +2277,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>f8254ae94c0b46a79d3d2a9b23282f87</t>
+          <t>dbfb5437026b296436f8b7a658a3e981</t>
         </is>
       </c>
     </row>
@@ -2299,17 +2299,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0bd416ce234943719f646a0db895b81f</t>
+          <t>f8254ae94c0b46a79d3d2a9b23282f87</t>
         </is>
       </c>
     </row>
@@ -2321,39 +2321,39 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ca3dc79e2cb77faafd76959e8367e83a</t>
+          <t>0bd416ce234943719f646a0db895b81f</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>e5605b52000e9e8a63657e0599268932</t>
+          <t>ca3dc79e2cb77faafd76959e8367e83a</t>
         </is>
       </c>
     </row>
@@ -2365,17 +2365,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>f39d37dee5a64a3b00c2b5fc03aad432</t>
+          <t>e5605b52000e9e8a63657e0599268932</t>
         </is>
       </c>
     </row>
@@ -2387,17 +2387,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>62d79e110b5355f32c23b2aa2eb51c24</t>
+          <t>f39d37dee5a64a3b00c2b5fc03aad432</t>
         </is>
       </c>
     </row>
@@ -2409,39 +2409,39 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4d901cefef7204d44fd4d0cbcbfc5b52</t>
+          <t>62d79e110b5355f32c23b2aa2eb51c24</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4c3a37f192511d17d956fad40ddfac8d</t>
+          <t>4d901cefef7204d44fd4d0cbcbfc5b52</t>
         </is>
       </c>
     </row>
@@ -2453,17 +2453,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>d627699bdcee9943a53fdfb0a62e0bb8</t>
+          <t>4c3a37f192511d17d956fad40ddfac8d</t>
         </is>
       </c>
     </row>
@@ -2475,17 +2475,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4d83fa3404cf8b4c4eac895ae9ad6a92</t>
+          <t>d627699bdcee9943a53fdfb0a62e0bb8</t>
         </is>
       </c>
     </row>
@@ -2497,17 +2497,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>9691061ea45d029c515e22de919afa9a</t>
+          <t>4d83fa3404cf8b4c4eac895ae9ad6a92</t>
         </is>
       </c>
     </row>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1f2d07cae47692f36ef04651184d86a0</t>
+          <t>9691061ea45d029c515e22de919afa9a</t>
         </is>
       </c>
     </row>
@@ -2541,39 +2541,39 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7d563ad4aceaa1fd177011a7bb165ecf</t>
+          <t>1f2d07cae47692f36ef04651184d86a0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7ab8bda950fc06556b108d298cb2a640</t>
+          <t>7d563ad4aceaa1fd177011a7bb165ecf</t>
         </is>
       </c>
     </row>
@@ -2585,17 +2585,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>83dd377fa9d66f21e2ab2536bb9a3943</t>
+          <t>7ab8bda950fc06556b108d298cb2a640</t>
         </is>
       </c>
     </row>
@@ -2607,17 +2607,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>390c2e64a19b894047df903d031abd0e</t>
+          <t>83dd377fa9d66f21e2ab2536bb9a3943</t>
         </is>
       </c>
     </row>
@@ -2629,17 +2629,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6ff89c899fa9ef0e546a45bc8a5d1b50</t>
+          <t>390c2e64a19b894047df903d031abd0e</t>
         </is>
       </c>
     </row>
@@ -2651,17 +2651,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9ecc37490cb6e4de3af666db5766cb21</t>
+          <t>6ff89c899fa9ef0e546a45bc8a5d1b50</t>
         </is>
       </c>
     </row>
@@ -2673,39 +2673,39 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>c811400d228502f37370b527b5624967</t>
+          <t>9ecc37490cb6e4de3af666db5766cb21</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
+          <t>c811400d228502f37370b527b5624967</t>
         </is>
       </c>
     </row>
@@ -2717,17 +2717,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>83a24f5a0354c415160b546eadce092b</t>
+          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
         </is>
       </c>
     </row>
@@ -2739,17 +2739,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>302f4427cc76bc3830afc5cff1424298</t>
+          <t>83a24f5a0354c415160b546eadce092b</t>
         </is>
       </c>
     </row>
@@ -2761,39 +2761,39 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1860b260c80de7103d236f2eae0f0dfb</t>
+          <t>302f4427cc76bc3830afc5cff1424298</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
+          <t>1860b260c80de7103d236f2eae0f0dfb</t>
         </is>
       </c>
     </row>
@@ -2805,17 +2805,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>55a7e4ccbf6fcba9238a11976a4a7381</t>
+          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
         </is>
       </c>
     </row>
@@ -2827,17 +2827,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3846db325eb44d939730a338719ca9b5</t>
+          <t>55a7e4ccbf6fcba9238a11976a4a7381</t>
         </is>
       </c>
     </row>
@@ -2849,17 +2849,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>753b33e8c92bbf331be8e58dd97c242f</t>
+          <t>3846db325eb44d939730a338719ca9b5</t>
         </is>
       </c>
     </row>
@@ -2871,17 +2871,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>69792ae34d9b3c6e707d0e3e6b82816f</t>
+          <t>753b33e8c92bbf331be8e58dd97c242f</t>
         </is>
       </c>
     </row>
@@ -2893,39 +2893,39 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>fa3936a53299b1a1142e4c614e2b360c</t>
+          <t>69792ae34d9b3c6e707d0e3e6b82816f</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
+          <t>fa3936a53299b1a1142e4c614e2b360c</t>
         </is>
       </c>
     </row>
@@ -2937,17 +2937,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>74bcec33670a196b08cdf65512f1f4e6</t>
+          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
         </is>
       </c>
     </row>
@@ -2959,17 +2959,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>8504b920d4af57a5daa3d573cac34870</t>
+          <t>74bcec33670a196b08cdf65512f1f4e6</t>
         </is>
       </c>
     </row>
@@ -2981,46 +2981,46 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>fdff6232dacf9bd3b189506f51577128</t>
+          <t>8504b920d4af57a5daa3d573cac34870</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DS925+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>fe642d1e762e8a050aa5d307e0f4c0d1</t>
+          <t>fdff6232dacf9bd3b189506f51577128</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS925+</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3030,12 +3030,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>36a6736d6dcb5f4ff570871809831183</t>
+          <t>fe642d1e762e8a050aa5d307e0f4c0d1</t>
         </is>
       </c>
     </row>
@@ -3047,17 +3047,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>768f381ac51a665b16554bace91abe32</t>
+          <t>36a6736d6dcb5f4ff570871809831183</t>
         </is>
       </c>
     </row>
@@ -3069,17 +3069,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
+          <t>768f381ac51a665b16554bace91abe32</t>
         </is>
       </c>
     </row>
@@ -3091,39 +3091,39 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
+          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
+          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
         </is>
       </c>
     </row>
@@ -3135,17 +3135,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
+          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
         </is>
       </c>
     </row>
@@ -3157,17 +3157,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
+          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
         </is>
       </c>
     </row>
@@ -3179,17 +3179,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
+          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
         </is>
       </c>
     </row>
@@ -3201,17 +3201,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
+          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
         </is>
       </c>
     </row>
@@ -3223,39 +3223,39 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
+          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
+          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
         </is>
       </c>
     </row>
@@ -3267,17 +3267,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
+          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
         </is>
       </c>
     </row>
@@ -3289,17 +3289,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>fd448e5391b33575fcf8c25f11c09f23</t>
+          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
         </is>
       </c>
     </row>
@@ -3311,17 +3311,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2002e02d355c43e266222307e041302a</t>
+          <t>fd448e5391b33575fcf8c25f11c09f23</t>
         </is>
       </c>
     </row>
@@ -3333,17 +3333,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
+          <t>2002e02d355c43e266222307e041302a</t>
         </is>
       </c>
     </row>
@@ -3355,39 +3355,39 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>d433ae251ba95754edde1586851d1e0a</t>
+          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
+          <t>d433ae251ba95754edde1586851d1e0a</t>
         </is>
       </c>
     </row>
@@ -3399,17 +3399,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>57e899896177917e2dfbff88320555d8</t>
+          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
         </is>
       </c>
     </row>
@@ -3421,17 +3421,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
+          <t>57e899896177917e2dfbff88320555d8</t>
         </is>
       </c>
     </row>
@@ -3443,17 +3443,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>169493af5375eb9da89ff324a3fe129a</t>
+          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
         </is>
       </c>
     </row>
@@ -3465,17 +3465,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>e071c4984d041309f151de29b9ba82b5</t>
+          <t>169493af5375eb9da89ff324a3fe129a</t>
         </is>
       </c>
     </row>
@@ -3487,39 +3487,39 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>9562d49a07f5481208b672ff777f3cbf</t>
+          <t>e071c4984d041309f151de29b9ba82b5</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>12a28689a1816b6d8cb329edbe385e78</t>
+          <t>9562d49a07f5481208b672ff777f3cbf</t>
         </is>
       </c>
     </row>
@@ -3531,17 +3531,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
+          <t>12a28689a1816b6d8cb329edbe385e78</t>
         </is>
       </c>
     </row>
@@ -3553,17 +3553,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
+          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
         </is>
       </c>
     </row>
@@ -3575,17 +3575,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
+          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
         </is>
       </c>
     </row>
@@ -3597,17 +3597,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
+          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
         </is>
       </c>
     </row>
@@ -3619,39 +3619,39 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1376f3daf42b193bbf0d24abd1b70371</t>
+          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
+          <t>1376f3daf42b193bbf0d24abd1b70371</t>
         </is>
       </c>
     </row>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
+          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
         </is>
       </c>
     </row>
@@ -3685,17 +3685,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
+          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
         </is>
       </c>
     </row>
@@ -3707,39 +3707,39 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1bade8eb7eadd514699d4beb714531ad</t>
+          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>7f6686d018b515a022e8221b104b5d17</t>
+          <t>1bade8eb7eadd514699d4beb714531ad</t>
         </is>
       </c>
     </row>
@@ -3751,17 +3751,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>d9a68ec3e8c921641a3b51af68e57411</t>
+          <t>7f6686d018b515a022e8221b104b5d17</t>
         </is>
       </c>
     </row>
@@ -3773,17 +3773,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>05cbcf3b75043968d6dd8a48e4677098</t>
+          <t>d9a68ec3e8c921641a3b51af68e57411</t>
         </is>
       </c>
     </row>
@@ -3795,17 +3795,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ddc3a00cef97f70cf56264239041c94c</t>
+          <t>05cbcf3b75043968d6dd8a48e4677098</t>
         </is>
       </c>
     </row>
@@ -3817,17 +3817,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>b521eab70dc9836235f21a5cffd96d34</t>
+          <t>ddc3a00cef97f70cf56264239041c94c</t>
         </is>
       </c>
     </row>
@@ -3839,39 +3839,39 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
+          <t>b521eab70dc9836235f21a5cffd96d34</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1b726b745327977401045b7434de6ad4</t>
+          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
         </is>
       </c>
     </row>
@@ -3883,17 +3883,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>e7887381980432a7be5ddf4dec0772ad</t>
+          <t>1b726b745327977401045b7434de6ad4</t>
         </is>
       </c>
     </row>
@@ -3905,17 +3905,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>66dc986826177528dc9558195e1ddc89</t>
+          <t>e7887381980432a7be5ddf4dec0772ad</t>
         </is>
       </c>
     </row>
@@ -3927,17 +3927,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
+          <t>66dc986826177528dc9558195e1ddc89</t>
         </is>
       </c>
     </row>
@@ -3949,17 +3949,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>651be491d10a47ecc534295d84341c03</t>
+          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
         </is>
       </c>
     </row>
@@ -3971,39 +3971,39 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>030064272d82777681502745fcfa8c48</t>
+          <t>651be491d10a47ecc534295d84341c03</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
+          <t>030064272d82777681502745fcfa8c48</t>
         </is>
       </c>
     </row>
@@ -4015,17 +4015,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>9ab734898b1f8af906b65ff91bf2b399</t>
+          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
         </is>
       </c>
     </row>
@@ -4037,17 +4037,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
+          <t>9ab734898b1f8af906b65ff91bf2b399</t>
         </is>
       </c>
     </row>
@@ -4059,17 +4059,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>d71d82a7b5d978ad14e351817d176578</t>
+          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
         </is>
       </c>
     </row>
@@ -4081,17 +4081,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>441e25883733556af6fb6cbab74090fd</t>
+          <t>d71d82a7b5d978ad14e351817d176578</t>
         </is>
       </c>
     </row>
@@ -4103,39 +4103,39 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
+          <t>441e25883733556af6fb6cbab74090fd</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>12a287daec77135d0977274464ef0b95</t>
+          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
         </is>
       </c>
     </row>
@@ -4147,17 +4147,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>cd56441518205ee7063764d0ef94cbbe</t>
+          <t>12a287daec77135d0977274464ef0b95</t>
         </is>
       </c>
     </row>
@@ -4169,17 +4169,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
+          <t>cd56441518205ee7063764d0ef94cbbe</t>
         </is>
       </c>
     </row>
@@ -4191,17 +4191,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
+          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
         </is>
       </c>
     </row>
@@ -4213,17 +4213,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3da6804567e48789084138326fae4e3a</t>
+          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
         </is>
       </c>
     </row>
@@ -4235,39 +4235,39 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
+          <t>3da6804567e48789084138326fae4e3a</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>d84b6e3d631f17797de438384d7f4098</t>
+          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
         </is>
       </c>
     </row>
@@ -4279,17 +4279,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>1ef98087cb11be286a8eac26f55dbe52</t>
+          <t>d84b6e3d631f17797de438384d7f4098</t>
         </is>
       </c>
     </row>
@@ -4301,17 +4301,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
+          <t>1ef98087cb11be286a8eac26f55dbe52</t>
         </is>
       </c>
     </row>
@@ -4323,17 +4323,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>631c7162e33a11d4555121a188540c83</t>
+          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
         </is>
       </c>
     </row>
@@ -4345,17 +4345,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>7e0747b8808941d51c35de503473b62e</t>
+          <t>631c7162e33a11d4555121a188540c83</t>
         </is>
       </c>
     </row>
@@ -4367,39 +4367,39 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
+          <t>7e0747b8808941d51c35de503473b62e</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
+          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
         </is>
       </c>
     </row>
@@ -4411,17 +4411,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
+          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
         </is>
       </c>
     </row>
@@ -4433,17 +4433,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
+          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
         </is>
       </c>
     </row>
@@ -4455,17 +4455,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>f58627f79cda538eb70055e921fe12ae</t>
+          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
         </is>
       </c>
     </row>
@@ -4477,17 +4477,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
+          <t>f58627f79cda538eb70055e921fe12ae</t>
         </is>
       </c>
     </row>
@@ -4499,39 +4499,39 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>65b158d4349a90ca627b324d874c9b07</t>
+          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
+          <t>65b158d4349a90ca627b324d874c9b07</t>
         </is>
       </c>
     </row>
@@ -4543,17 +4543,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>c0c53783189297b37b2f84ddea0ec457</t>
+          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4565,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
+          <t>c0c53783189297b37b2f84ddea0ec457</t>
         </is>
       </c>
     </row>
@@ -4587,17 +4587,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>af67117d40dd4f8e0614f1b8e5466841</t>
+          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
         </is>
       </c>
     </row>
@@ -4609,17 +4609,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
+          <t>af67117d40dd4f8e0614f1b8e5466841</t>
         </is>
       </c>
     </row>
@@ -4631,39 +4631,39 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
+          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
+          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
         </is>
       </c>
     </row>
@@ -4675,17 +4675,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ce2c6810c902577904df02f0480c8856</t>
+          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
         </is>
       </c>
     </row>
@@ -4697,17 +4697,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>675f7e5fdc9df67320ee478223d5780e</t>
+          <t>ce2c6810c902577904df02f0480c8856</t>
         </is>
       </c>
     </row>
@@ -4719,39 +4719,39 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>db45c561e81392e48cb03d8e495a0cbc</t>
+          <t>675f7e5fdc9df67320ee478223d5780e</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
+          <t>db45c561e81392e48cb03d8e495a0cbc</t>
         </is>
       </c>
     </row>
@@ -4763,17 +4763,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>5594337e837b9398872733e9802d3eed</t>
+          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
         </is>
       </c>
     </row>
@@ -4785,17 +4785,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>222540970ddef547bfd1da48083bfec4</t>
+          <t>5594337e837b9398872733e9802d3eed</t>
         </is>
       </c>
     </row>
@@ -4807,39 +4807,39 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>7146a92a3509f39c831492469793d71a</t>
+          <t>222540970ddef547bfd1da48083bfec4</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
+          <t>7146a92a3509f39c831492469793d71a</t>
         </is>
       </c>
     </row>
@@ -4851,17 +4851,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>896946ab9bed611f26f5258724af6aef</t>
+          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
         </is>
       </c>
     </row>
@@ -4873,17 +4873,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
+          <t>896946ab9bed611f26f5258724af6aef</t>
         </is>
       </c>
     </row>
@@ -4895,17 +4895,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>599c07e03af97e501d20c70f9039f78a</t>
+          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
         </is>
       </c>
     </row>
@@ -4917,17 +4917,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>fdc9aea6a47208b45c56c733233b773f</t>
+          <t>599c07e03af97e501d20c70f9039f78a</t>
         </is>
       </c>
     </row>
@@ -4939,39 +4939,39 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
+          <t>fdc9aea6a47208b45c56c733233b773f</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
+          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
         </is>
       </c>
     </row>
@@ -4983,17 +4983,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
+          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
         </is>
       </c>
     </row>
@@ -5005,17 +5005,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>448f7685611e0190c9224d23715a8577</t>
+          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
         </is>
       </c>
     </row>
@@ -5027,17 +5027,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
+          <t>448f7685611e0190c9224d23715a8577</t>
         </is>
       </c>
     </row>
@@ -5049,17 +5049,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>e543eac89077e981d3fa7f0ee8c421de</t>
+          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
         </is>
       </c>
     </row>
@@ -5071,39 +5071,39 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>f36f1f22a48b184358823b6168a904fd</t>
+          <t>e543eac89077e981d3fa7f0ee8c421de</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
+          <t>f36f1f22a48b184358823b6168a904fd</t>
         </is>
       </c>
     </row>
@@ -5115,17 +5115,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>890b61e7f6b048b821ba4ab8690184fa</t>
+          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
         </is>
       </c>
     </row>
@@ -5137,17 +5137,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>c3f385559425e886e928d1addc3241a6</t>
+          <t>890b61e7f6b048b821ba4ab8690184fa</t>
         </is>
       </c>
     </row>
@@ -5159,17 +5159,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0348510c72282255f50931e482d3ea7a</t>
+          <t>c3f385559425e886e928d1addc3241a6</t>
         </is>
       </c>
     </row>
@@ -5181,17 +5181,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>b5866fc58081412e5367df643ca6a4d1</t>
+          <t>0348510c72282255f50931e482d3ea7a</t>
         </is>
       </c>
     </row>
@@ -5203,39 +5203,39 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>1c049c31b9f84f53da889c48e2a21d59</t>
+          <t>b5866fc58081412e5367df643ca6a4d1</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>a0939c649b9264c7e798789c2632aa93</t>
+          <t>1c049c31b9f84f53da889c48e2a21d59</t>
         </is>
       </c>
     </row>
@@ -5247,17 +5247,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>f2b6896f7ea7237bd52501f80e502396</t>
+          <t>a0939c649b9264c7e798789c2632aa93</t>
         </is>
       </c>
     </row>
@@ -5269,17 +5269,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
+          <t>f2b6896f7ea7237bd52501f80e502396</t>
         </is>
       </c>
     </row>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>b1517fb23721192de7e666da8cd2ae00</t>
+          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
         </is>
       </c>
     </row>
@@ -5313,17 +5313,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
+          <t>b1517fb23721192de7e666da8cd2ae00</t>
         </is>
       </c>
     </row>
@@ -5335,39 +5335,39 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
+          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>fa55d5394111eaa7823551564ac74cd2</t>
+          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
         </is>
       </c>
     </row>
@@ -5379,17 +5379,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>cbcb77548de26b6843ab31d7a7258b62</t>
+          <t>fa55d5394111eaa7823551564ac74cd2</t>
         </is>
       </c>
     </row>
@@ -5401,17 +5401,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
+          <t>cbcb77548de26b6843ab31d7a7258b62</t>
         </is>
       </c>
     </row>
@@ -5423,17 +5423,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
+          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
         </is>
       </c>
     </row>
@@ -5445,17 +5445,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>fc15f132649a8c8626190dc864bbdf8c</t>
+          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
         </is>
       </c>
     </row>
@@ -5467,39 +5467,39 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
+          <t>fc15f132649a8c8626190dc864bbdf8c</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
+          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
         </is>
       </c>
     </row>
@@ -5511,17 +5511,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>eaf465492d0dd1890de82be665350657</t>
+          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
         </is>
       </c>
     </row>
@@ -5533,17 +5533,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
+          <t>eaf465492d0dd1890de82be665350657</t>
         </is>
       </c>
     </row>
@@ -5555,39 +5555,39 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
+          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
+          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
         </is>
       </c>
     </row>
@@ -5599,17 +5599,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
+          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
         </is>
       </c>
     </row>
@@ -5621,17 +5621,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>073cc8988b143e26e931784c3ad795a6</t>
+          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
         </is>
       </c>
     </row>
@@ -5643,17 +5643,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
+          <t>073cc8988b143e26e931784c3ad795a6</t>
         </is>
       </c>
     </row>
@@ -5665,17 +5665,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>423ecfdb73c88432232a28d96ebb4e06</t>
+          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
         </is>
       </c>
     </row>
@@ -5687,39 +5687,39 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>dc7cb29466311558acc2c70e166b478a</t>
+          <t>423ecfdb73c88432232a28d96ebb4e06</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1512187ce7f40824b1138e225fe4ca97</t>
+          <t>dc7cb29466311558acc2c70e166b478a</t>
         </is>
       </c>
     </row>
@@ -5731,17 +5731,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>530d5de622f46e1960ed5b1c32d168a9</t>
+          <t>1512187ce7f40824b1138e225fe4ca97</t>
         </is>
       </c>
     </row>
@@ -5753,17 +5753,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
+          <t>530d5de622f46e1960ed5b1c32d168a9</t>
         </is>
       </c>
     </row>
@@ -5775,17 +5775,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
+          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
         </is>
       </c>
     </row>
@@ -5797,17 +5797,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
+          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
         </is>
       </c>
     </row>
@@ -5819,39 +5819,39 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>da20a8257ef0b55e81334933cb9ab662</t>
+          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>19033774f5c5379ee9345010a6de77ae</t>
+          <t>da20a8257ef0b55e81334933cb9ab662</t>
         </is>
       </c>
     </row>
@@ -5863,17 +5863,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>15b1df11e5b3161b2a04ee2547163e99</t>
+          <t>19033774f5c5379ee9345010a6de77ae</t>
         </is>
       </c>
     </row>
@@ -5885,17 +5885,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>4ccecca2e30861ef3016419381db7f6e</t>
+          <t>15b1df11e5b3161b2a04ee2547163e99</t>
         </is>
       </c>
     </row>
@@ -5907,39 +5907,39 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2673a9d78c32b1daf5b3454478e89077</t>
+          <t>4ccecca2e30861ef3016419381db7f6e</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
+          <t>2673a9d78c32b1daf5b3454478e89077</t>
         </is>
       </c>
     </row>
@@ -5951,17 +5951,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
+          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
         </is>
       </c>
     </row>
@@ -5973,17 +5973,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>3b8ddf443835f9caf3e618a0040eca41</t>
+          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
         </is>
       </c>
     </row>
@@ -5995,39 +5995,39 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>bc988679f582cbb5da2d641f5021c5d3</t>
+          <t>3b8ddf443835f9caf3e618a0040eca41</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
+          <t>bc988679f582cbb5da2d641f5021c5d3</t>
         </is>
       </c>
     </row>
@@ -6039,17 +6039,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
+          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
         </is>
       </c>
     </row>
@@ -6061,17 +6061,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
+          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
         </is>
       </c>
     </row>
@@ -6083,17 +6083,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
+          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
         </is>
       </c>
     </row>
@@ -6105,17 +6105,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>14d4a437a999e6e0f036516091a7557e</t>
+          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
         </is>
       </c>
     </row>
@@ -6127,39 +6127,39 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
+          <t>14d4a437a999e6e0f036516091a7557e</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>cf757438c9ea944760ea9f1afc5bb956</t>
+          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
         </is>
       </c>
     </row>
@@ -6171,17 +6171,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
+          <t>cf757438c9ea944760ea9f1afc5bb956</t>
         </is>
       </c>
     </row>
@@ -6193,17 +6193,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>1d740651ca0623939589150c7a572502</t>
+          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
         </is>
       </c>
     </row>
@@ -6215,17 +6215,17 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>eabb43133e9136a808bc7f4442f01000</t>
+          <t>1d740651ca0623939589150c7a572502</t>
         </is>
       </c>
     </row>
@@ -6237,17 +6237,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>cc0a219656db7ef26587ed59bbf1643f</t>
+          <t>eabb43133e9136a808bc7f4442f01000</t>
         </is>
       </c>
     </row>
@@ -6259,39 +6259,39 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
+          <t>cc0a219656db7ef26587ed59bbf1643f</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>94155b2af89d9468c0c10275f449f153</t>
+          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
         </is>
       </c>
     </row>
@@ -6303,17 +6303,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>482e8d9b4647d9820af3125511fc98cd</t>
+          <t>94155b2af89d9468c0c10275f449f153</t>
         </is>
       </c>
     </row>
@@ -6325,17 +6325,17 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
+          <t>482e8d9b4647d9820af3125511fc98cd</t>
         </is>
       </c>
     </row>
@@ -6347,39 +6347,39 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>07fdf9e297ca66fa0821341e3be1933b</t>
+          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>022967f2ae03fec0aab2fe733b126a60</t>
+          <t>07fdf9e297ca66fa0821341e3be1933b</t>
         </is>
       </c>
     </row>
@@ -6391,17 +6391,17 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>35e549de6071e76e023673d7769c2e78</t>
+          <t>022967f2ae03fec0aab2fe733b126a60</t>
         </is>
       </c>
     </row>
@@ -6413,17 +6413,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
+          <t>35e549de6071e76e023673d7769c2e78</t>
         </is>
       </c>
     </row>
@@ -6435,39 +6435,39 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>e915219272385f93ad8ef32b3423b1fe</t>
+          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>959f9ff2a40cafde128c12da37549313</t>
+          <t>e915219272385f93ad8ef32b3423b1fe</t>
         </is>
       </c>
     </row>
@@ -6479,17 +6479,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
+          <t>959f9ff2a40cafde128c12da37549313</t>
         </is>
       </c>
     </row>
@@ -6501,17 +6501,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>0cebda065505c2792d4c1f4a90a7876e</t>
+          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
         </is>
       </c>
     </row>
@@ -6523,17 +6523,17 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>cc489fe3b383290713dd13f363a1ee7e</t>
+          <t>0cebda065505c2792d4c1f4a90a7876e</t>
         </is>
       </c>
     </row>
@@ -6545,17 +6545,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
+          <t>cc489fe3b383290713dd13f363a1ee7e</t>
         </is>
       </c>
     </row>
@@ -6567,39 +6567,39 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
+          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
+          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
         </is>
       </c>
     </row>
@@ -6611,17 +6611,17 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>b35118ff409b5edf589447f9ec75aba3</t>
+          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
         </is>
       </c>
     </row>
@@ -6633,17 +6633,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>4244ef54d4741012ac22809514f07f7e</t>
+          <t>b35118ff409b5edf589447f9ec75aba3</t>
         </is>
       </c>
     </row>
@@ -6655,39 +6655,39 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
+          <t>4244ef54d4741012ac22809514f07f7e</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>5ec675ed69c80465cf9a5980208efac8</t>
+          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
         </is>
       </c>
     </row>
@@ -6699,17 +6699,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
+          <t>5ec675ed69c80465cf9a5980208efac8</t>
         </is>
       </c>
     </row>
@@ -6721,17 +6721,17 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>83b591bfb240c51b2feff8f02eac8bde</t>
+          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
         </is>
       </c>
     </row>
@@ -6743,39 +6743,39 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>fdbbea86e280a8f754339a064f9ad2df</t>
+          <t>83b591bfb240c51b2feff8f02eac8bde</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>83df618fab57a656368d5845025160ba</t>
+          <t>fdbbea86e280a8f754339a064f9ad2df</t>
         </is>
       </c>
     </row>
@@ -6787,17 +6787,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>ed156bf787405393f94f5b08b6dfa1d5</t>
+          <t>83df618fab57a656368d5845025160ba</t>
         </is>
       </c>
     </row>
@@ -6809,17 +6809,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2e3cfb30b7cbf6043eb3e9d5bacf0b18</t>
+          <t>ed156bf787405393f94f5b08b6dfa1d5</t>
         </is>
       </c>
     </row>
@@ -6831,17 +6831,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>19f8ee90bb8e7bca2ac1549cc9fe179b</t>
+          <t>2e3cfb30b7cbf6043eb3e9d5bacf0b18</t>
         </is>
       </c>
     </row>
@@ -6853,17 +6853,17 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>f465cb6202ec5ddbd1ed72b8c78f29c4</t>
+          <t>19f8ee90bb8e7bca2ac1549cc9fe179b</t>
         </is>
       </c>
     </row>
@@ -6875,39 +6875,39 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>145228a6e467c702614f92fcc2edd40c</t>
+          <t>f465cb6202ec5ddbd1ed72b8c78f29c4</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>eb96d86c522877b53801473cd8218493</t>
+          <t>145228a6e467c702614f92fcc2edd40c</t>
         </is>
       </c>
     </row>
@@ -6919,17 +6919,17 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>7bbbd4113f997288935340a631399686</t>
+          <t>eb96d86c522877b53801473cd8218493</t>
         </is>
       </c>
     </row>
@@ -6941,17 +6941,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>67f05845194e8066380b40b6998615fc</t>
+          <t>7bbbd4113f997288935340a631399686</t>
         </is>
       </c>
     </row>
@@ -6963,17 +6963,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>6abf123155a576220e1cddaf51fa35b3</t>
+          <t>67f05845194e8066380b40b6998615fc</t>
         </is>
       </c>
     </row>
@@ -6985,17 +6985,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>594de8b190f950ca66bcfc13121bc8d8</t>
+          <t>6abf123155a576220e1cddaf51fa35b3</t>
         </is>
       </c>
     </row>
@@ -7007,39 +7007,39 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>45776652a71c7e43a7dbe8393e82f400</t>
+          <t>594de8b190f950ca66bcfc13121bc8d8</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>99ea023c228e5c40d69e18edd5e1f547</t>
+          <t>45776652a71c7e43a7dbe8393e82f400</t>
         </is>
       </c>
     </row>
@@ -7051,17 +7051,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>05246f474115e163f50d0462df9182e8</t>
+          <t>99ea023c228e5c40d69e18edd5e1f547</t>
         </is>
       </c>
     </row>
@@ -7073,17 +7073,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>92feef4c0c74655e7328a95c1a0310c5</t>
+          <t>05246f474115e163f50d0462df9182e8</t>
         </is>
       </c>
     </row>
@@ -7095,17 +7095,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>a5cd14824e288e39830e704e58e52fb2</t>
+          <t>92feef4c0c74655e7328a95c1a0310c5</t>
         </is>
       </c>
     </row>
@@ -7117,17 +7117,17 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>c796157608dcc7efde22511a4b440335</t>
+          <t>a5cd14824e288e39830e704e58e52fb2</t>
         </is>
       </c>
     </row>
@@ -7139,39 +7139,39 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>1c20a1f8300104da529c7c553ddc11a1</t>
+          <t>c796157608dcc7efde22511a4b440335</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>793aa6ad7d3c360a6266747d90795cc4</t>
+          <t>1c20a1f8300104da529c7c553ddc11a1</t>
         </is>
       </c>
     </row>
@@ -7183,17 +7183,17 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>b7d85926561ff125928b68e7fffa646b</t>
+          <t>793aa6ad7d3c360a6266747d90795cc4</t>
         </is>
       </c>
     </row>
@@ -7205,17 +7205,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>97c06b5d99a708b9c9eff62077b8a6bc</t>
+          <t>b7d85926561ff125928b68e7fffa646b</t>
         </is>
       </c>
     </row>
@@ -7227,17 +7227,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>4c6165e5c87d83d52a173679d320383f</t>
+          <t>97c06b5d99a708b9c9eff62077b8a6bc</t>
         </is>
       </c>
     </row>
@@ -7249,17 +7249,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>b46e3d7933c7f77c78d536d33f9b5c4a</t>
+          <t>4c6165e5c87d83d52a173679d320383f</t>
         </is>
       </c>
     </row>
@@ -7271,39 +7271,39 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>94e6263912bc758ee3db81c62a94a8f6</t>
+          <t>b46e3d7933c7f77c78d536d33f9b5c4a</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>36954c258a5a46747ead05d8d89022b4</t>
+          <t>94e6263912bc758ee3db81c62a94a8f6</t>
         </is>
       </c>
     </row>
@@ -7315,17 +7315,17 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>aa762422e005c4a157d202fff8e8dd00</t>
+          <t>36954c258a5a46747ead05d8d89022b4</t>
         </is>
       </c>
     </row>
@@ -7337,17 +7337,17 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>31a3e2fdf2da08dceee4636c8fb87588</t>
+          <t>aa762422e005c4a157d202fff8e8dd00</t>
         </is>
       </c>
     </row>
@@ -7359,17 +7359,17 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>eccaf95f10ad80dd85880046c7b9753a</t>
+          <t>31a3e2fdf2da08dceee4636c8fb87588</t>
         </is>
       </c>
     </row>
@@ -7381,17 +7381,17 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>188c85421a6d02003be3bae8b4e2e074</t>
+          <t>eccaf95f10ad80dd85880046c7b9753a</t>
         </is>
       </c>
     </row>
@@ -7403,39 +7403,39 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>aa935c4992d6296c3088fc4ca5e00b46</t>
+          <t>188c85421a6d02003be3bae8b4e2e074</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>e43c906f97bf934c6a64f98465fd23bb</t>
+          <t>aa935c4992d6296c3088fc4ca5e00b46</t>
         </is>
       </c>
     </row>
@@ -7447,17 +7447,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>720417d493fe763f5e7ba81d1cf6e126</t>
+          <t>e43c906f97bf934c6a64f98465fd23bb</t>
         </is>
       </c>
     </row>
@@ -7469,17 +7469,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>8fdfa2d630da44e5766a5c91da6360c1</t>
+          <t>720417d493fe763f5e7ba81d1cf6e126</t>
         </is>
       </c>
     </row>
@@ -7491,17 +7491,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>283e31f63c2a6e0f2bf8231d205f51b2</t>
+          <t>8fdfa2d630da44e5766a5c91da6360c1</t>
         </is>
       </c>
     </row>
@@ -7513,17 +7513,17 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>d817c27fd56f79bf1a329780097bd54b</t>
+          <t>283e31f63c2a6e0f2bf8231d205f51b2</t>
         </is>
       </c>
     </row>
@@ -7535,39 +7535,39 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>493544a5e246aa7cea2479b4d454a183</t>
+          <t>d817c27fd56f79bf1a329780097bd54b</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>2f1c376370096ec205e0a8318b7f6df8</t>
+          <t>493544a5e246aa7cea2479b4d454a183</t>
         </is>
       </c>
     </row>
@@ -7579,17 +7579,17 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>3dac0f41036e712d4278f140035ecaa9</t>
+          <t>2f1c376370096ec205e0a8318b7f6df8</t>
         </is>
       </c>
     </row>
@@ -7601,17 +7601,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>a6901170e8b2a9956d2883216465a6f5</t>
+          <t>3dac0f41036e712d4278f140035ecaa9</t>
         </is>
       </c>
     </row>
@@ -7623,17 +7623,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>8bf08b9db2691fc0b2a673e456c99431</t>
+          <t>a6901170e8b2a9956d2883216465a6f5</t>
         </is>
       </c>
     </row>
@@ -7645,17 +7645,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>61b56754bd643b5d45ab13c4083f7980</t>
+          <t>8bf08b9db2691fc0b2a673e456c99431</t>
         </is>
       </c>
     </row>
@@ -7667,39 +7667,39 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>5ce16aada281ae4e11359a4e853b65d8</t>
+          <t>61b56754bd643b5d45ab13c4083f7980</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>e78a003a9679790c19fc11974d2d0453</t>
+          <t>5ce16aada281ae4e11359a4e853b65d8</t>
         </is>
       </c>
     </row>
@@ -7711,17 +7711,17 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>0c8a0d2dc6f1d7e37ee63d74760808b8</t>
+          <t>e78a003a9679790c19fc11974d2d0453</t>
         </is>
       </c>
     </row>
@@ -7733,17 +7733,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>f42d7da7fcaa24bc9409e857bdefff30</t>
+          <t>0c8a0d2dc6f1d7e37ee63d74760808b8</t>
         </is>
       </c>
     </row>
@@ -7755,17 +7755,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>4fab55b87cb153239536cca3947f4513</t>
+          <t>f42d7da7fcaa24bc9409e857bdefff30</t>
         </is>
       </c>
     </row>
@@ -7777,17 +7777,17 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>d5b62813ebc2d78bdbdf08b2c42e1280</t>
+          <t>4fab55b87cb153239536cca3947f4513</t>
         </is>
       </c>
     </row>
@@ -7799,39 +7799,39 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>2c49260d2646a0944b56933f7d4029fb</t>
+          <t>d5b62813ebc2d78bdbdf08b2c42e1280</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2f79cc74468fac966e373914a1f6516d</t>
+          <t>2c49260d2646a0944b56933f7d4029fb</t>
         </is>
       </c>
     </row>
@@ -7843,17 +7843,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>09ec9d58839bef77654226d82336a32d</t>
+          <t>2f79cc74468fac966e373914a1f6516d</t>
         </is>
       </c>
     </row>
@@ -7865,17 +7865,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>4be3e3c2a271217ab2f6788cb3dc7fd6</t>
+          <t>09ec9d58839bef77654226d82336a32d</t>
         </is>
       </c>
     </row>
@@ -7887,17 +7887,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>8a3a42a8c246a9a2b58a64e407f0cb29</t>
+          <t>4be3e3c2a271217ab2f6788cb3dc7fd6</t>
         </is>
       </c>
     </row>
@@ -7909,17 +7909,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>7a0fcb142fb19b892ab8e38d06494fb1</t>
+          <t>8a3a42a8c246a9a2b58a64e407f0cb29</t>
         </is>
       </c>
     </row>
@@ -7931,39 +7931,39 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>94278d0a7d891e7a9307036c14b82d41</t>
+          <t>7a0fcb142fb19b892ab8e38d06494fb1</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>363854659883df19d9996a9d81477e89</t>
+          <t>94278d0a7d891e7a9307036c14b82d41</t>
         </is>
       </c>
     </row>
@@ -7975,17 +7975,17 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>45394e7dbb73997e62d298ef62ecd8d7</t>
+          <t>363854659883df19d9996a9d81477e89</t>
         </is>
       </c>
     </row>
@@ -7997,17 +7997,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>776ad030354617d05f4d4ce8ff0481ae</t>
+          <t>45394e7dbb73997e62d298ef62ecd8d7</t>
         </is>
       </c>
     </row>
@@ -8019,17 +8019,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>075de3efc95aed64e8417181aa03b732</t>
+          <t>776ad030354617d05f4d4ce8ff0481ae</t>
         </is>
       </c>
     </row>
@@ -8041,17 +8041,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>45eeec29b35688e4e0416cb6c00a0e58</t>
+          <t>075de3efc95aed64e8417181aa03b732</t>
         </is>
       </c>
     </row>
@@ -8063,39 +8063,39 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>67b2fe123490609b486c4f4022496b2e</t>
+          <t>45eeec29b35688e4e0416cb6c00a0e58</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
+          <t>67b2fe123490609b486c4f4022496b2e</t>
         </is>
       </c>
     </row>
@@ -8107,17 +8107,17 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>9e4168fc0c7808bebd35c485396ea56c</t>
+          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
         </is>
       </c>
     </row>
@@ -8129,17 +8129,17 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>0e7173198b5c4efee2d2d373e3766bdb</t>
+          <t>9e4168fc0c7808bebd35c485396ea56c</t>
         </is>
       </c>
     </row>
@@ -8151,17 +8151,17 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>958d1a8901c7e4f4890ff0db334836f0</t>
+          <t>0e7173198b5c4efee2d2d373e3766bdb</t>
         </is>
       </c>
     </row>
@@ -8173,17 +8173,17 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>7fc30e7930edb4d0f0dc921e5e70a3f6</t>
+          <t>958d1a8901c7e4f4890ff0db334836f0</t>
         </is>
       </c>
     </row>
@@ -8195,39 +8195,39 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>f1c9c5e5cea427f44b97a4a65af1fa0b</t>
+          <t>7fc30e7930edb4d0f0dc921e5e70a3f6</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
+          <t>f1c9c5e5cea427f44b97a4a65af1fa0b</t>
         </is>
       </c>
     </row>
@@ -8239,17 +8239,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>f76279d2edfbfbaefc15b6ea12a2a83e</t>
+          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
         </is>
       </c>
     </row>
@@ -8261,17 +8261,17 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>40567cfb40f22da1aa2b08377edd2a15</t>
+          <t>f76279d2edfbfbaefc15b6ea12a2a83e</t>
         </is>
       </c>
     </row>
@@ -8283,17 +8283,17 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>f0fdf339b197a18e092baf73d0712bdd</t>
+          <t>40567cfb40f22da1aa2b08377edd2a15</t>
         </is>
       </c>
     </row>
@@ -8305,17 +8305,17 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>840a5db84c548c58a6d3bb36d0b758d0</t>
+          <t>f0fdf339b197a18e092baf73d0712bdd</t>
         </is>
       </c>
     </row>
@@ -8327,39 +8327,39 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>e7e3965cf4435a1703cc5ee0a5fd8ae3</t>
+          <t>840a5db84c548c58a6d3bb36d0b758d0</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>36231b0ec168e47d61fd256ff16c652b</t>
+          <t>e7e3965cf4435a1703cc5ee0a5fd8ae3</t>
         </is>
       </c>
     </row>
@@ -8371,17 +8371,17 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>5be145510b50bb75e686a5226f9d0d6c</t>
+          <t>36231b0ec168e47d61fd256ff16c652b</t>
         </is>
       </c>
     </row>
@@ -8393,17 +8393,17 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>03228534673ac90d808023b466908e39</t>
+          <t>5be145510b50bb75e686a5226f9d0d6c</t>
         </is>
       </c>
     </row>
@@ -8415,17 +8415,17 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>be81f2c53a6a09905ff6cdbd20421c90</t>
+          <t>03228534673ac90d808023b466908e39</t>
         </is>
       </c>
     </row>
@@ -8437,17 +8437,17 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>db3cb61e0d74f28a1f26dd190407bde1</t>
+          <t>be81f2c53a6a09905ff6cdbd20421c90</t>
         </is>
       </c>
     </row>
@@ -8459,39 +8459,39 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>025536e3e2121979213300abe0246102</t>
+          <t>db3cb61e0d74f28a1f26dd190407bde1</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>6f54d58f6f212345826b174a10e30261</t>
+          <t>025536e3e2121979213300abe0246102</t>
         </is>
       </c>
     </row>
@@ -8503,17 +8503,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>1a3876d1da179b81a5c7ace54cf3b85c</t>
+          <t>6f54d58f6f212345826b174a10e30261</t>
         </is>
       </c>
     </row>
@@ -8525,17 +8525,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>8ec7d62c99ae0474aad04a0f58bca61c</t>
+          <t>1a3876d1da179b81a5c7ace54cf3b85c</t>
         </is>
       </c>
     </row>
@@ -8547,17 +8547,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>f67b8f20f9a6500e47ad51eb3e295fc7</t>
+          <t>8ec7d62c99ae0474aad04a0f58bca61c</t>
         </is>
       </c>
     </row>
@@ -8569,17 +8569,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>a29d83759366fcfacd31b90bcf76daad</t>
+          <t>f67b8f20f9a6500e47ad51eb3e295fc7</t>
         </is>
       </c>
     </row>
@@ -8591,39 +8591,39 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>ac1fca114c808f1640047497ddc00702</t>
+          <t>a29d83759366fcfacd31b90bcf76daad</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
+          <t>ac1fca114c808f1640047497ddc00702</t>
         </is>
       </c>
     </row>
@@ -8635,17 +8635,17 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>7cdb7e52d29859c4e340fb6c84014749</t>
+          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
         </is>
       </c>
     </row>
@@ -8657,17 +8657,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>da66dd2a759ee30147a320f3206623cd</t>
+          <t>7cdb7e52d29859c4e340fb6c84014749</t>
         </is>
       </c>
     </row>
@@ -8679,17 +8679,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>30250ce09306308aebb9474f12fa92ec</t>
+          <t>da66dd2a759ee30147a320f3206623cd</t>
         </is>
       </c>
     </row>
@@ -8701,17 +8701,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>243f3490787b5a7417546b88a0f0b047</t>
+          <t>30250ce09306308aebb9474f12fa92ec</t>
         </is>
       </c>
     </row>
@@ -8723,39 +8723,39 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>147becad951f52352e7c7bd83ff4ed18</t>
+          <t>243f3490787b5a7417546b88a0f0b047</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
+          <t>147becad951f52352e7c7bd83ff4ed18</t>
         </is>
       </c>
     </row>
@@ -8767,17 +8767,17 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>dd4ac96e4b78cf36f35d08bd03f0ee3e</t>
+          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
         </is>
       </c>
     </row>
@@ -8789,17 +8789,17 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>67f33c491bd136346b5e83b7339c7076</t>
+          <t>dd4ac96e4b78cf36f35d08bd03f0ee3e</t>
         </is>
       </c>
     </row>
@@ -8811,17 +8811,17 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>4f67e26410d154bae815ee60170caa5a</t>
+          <t>67f33c491bd136346b5e83b7339c7076</t>
         </is>
       </c>
     </row>
@@ -8833,17 +8833,17 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>cb211e965855d849974f08963d96c40a</t>
+          <t>4f67e26410d154bae815ee60170caa5a</t>
         </is>
       </c>
     </row>
@@ -8855,39 +8855,39 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>b2d19eafb644c39bd87dddf45deff971</t>
+          <t>cb211e965855d849974f08963d96c40a</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
+          <t>b2d19eafb644c39bd87dddf45deff971</t>
         </is>
       </c>
     </row>
@@ -8899,17 +8899,17 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>31785a02d8b2f6145d077877668cc362</t>
+          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
         </is>
       </c>
     </row>
@@ -8921,17 +8921,17 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>ae6b1c6363420cc54dbbf0aef654b182</t>
+          <t>31785a02d8b2f6145d077877668cc362</t>
         </is>
       </c>
     </row>
@@ -8943,17 +8943,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>f7e3807fe5d30bfdba0620f9b31a339e</t>
+          <t>ae6b1c6363420cc54dbbf0aef654b182</t>
         </is>
       </c>
     </row>
@@ -8965,17 +8965,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>cf8ee4e0654b4c91dd2fb44ec697fe04</t>
+          <t>f7e3807fe5d30bfdba0620f9b31a339e</t>
         </is>
       </c>
     </row>
@@ -8987,15 +8987,37 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
+          <t>7.1.1-42962-1</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>cf8ee4e0654b4c91dd2fb44ec697fe04</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
           <t>7.1.0-42661-1</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
+      <c r="C391" t="inlineStr">
         <is>
           <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4017xs%2B_42661.pat</t>
         </is>
       </c>
-      <c r="D390" t="inlineStr">
+      <c r="D391" t="inlineStr">
         <is>
           <t>2b16f828ab77fc2ee354c3ee3e55b855</t>
         </is>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>590930cf1b5ea59e98d2caf9d8a50d18</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>f051382db004b9bbf169e2b1da454914</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fbeda2c4f1bd0da48ab469e5a767c95f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>245c3ccd788a17be79187ff32c074888</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>b308d45d9ffb849f696230917420d2e2</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>a7c5ac7a5963aac8bf9a599a8a6f6b86</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7609e7c977d9d44baed886e846d7cf50</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>c1c9b295ca7f1434c0f1eeab4f989316</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>b590bc9f0df784be4d6bae13d551f76b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1318c234b08c06ad0a6b49a3d739fb95</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ee1d1f09d11b6b9fa3f0edf6627a1544</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>d1ebc3c9a2b9e04980a85c4784904f91</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>a028a246334bb45b398a240ecfe194e8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5063db1ed248fb36074ce8d2aba645a9</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>d28994a9dcdae9730b4d1370a39d3130</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1d8ecfcb2a956488ae355c79a72bb9ec</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6ce48443d5809d8bd586cfdd6520b685</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>234e958a0dcf489dae866c14d30ed761</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>c23e7b3a8dfec5551cd57d6397ebb079</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>a116d65da8908275ea681dd7ac06b831</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>c000af5015b63683cd133f955952703c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89699e60f438788936cd531da5448259</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1fd1d6e733bb096f418f68e06f81022e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4bc6b4b8cfa7005505a6168a08c92b5f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6f9fa1ff5b9b2dded366b1a2d2687aea</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93a5a2b9515b39e18d0b48df84d5c007</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>b4b72eb8d4e84b2e2a8c29fc0a1ac6aa</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ba68278f0eb3f3c6815fcd40aea00174</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>302fdefb00c8d4f8bf95ac25dca1e864</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8af12dfa839057343d4b0d7f57efad16</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ff027f65c9712059a5a54bfbfb5a52b7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>fffec3510c954fc718a1aecba2f98fc6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>18f849121a9a1918aca94c6774524910</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>e4860802d7037e92fc7ce67ec724e0b1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>82dc294d7f99545d9d7e2ff9bcae114b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>bd5ed66d4f74e97416c0724737f88315</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>e93f143ffe7a4612635efbd4b537b26a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5dac92403628186c629d2ab5aedbcc57</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>51a5104488a6f09dbc9a91689aa4a363</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>dfc0962c3def7d757e88a2de8e47cb4d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cbe674d818bc06b7eefef2b9c58fc859</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6a7efda6e842ebee9597120e4a68870a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>da6d86151013569e4b4d2f12515e0a5c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>e54b32884cbc1b913324c8cda5b2f978</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>c854e197ec6b7b57c5a6667a0a225a19</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>c57d39b167f64ffcb826ba0ceaa168ef</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>134c17ae983809784f9cbfd133c64ea7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1a8a5e1d8461e9a3af638dae7f121ad3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>d337b8a44008bb726c28489e30577cee</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>bc024b7d92523bc0057232e0d1b23aa1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>b77984bcefef6ddc2e847a336cb2d764</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>29111f8860063c4a9a84827a2d9e019a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>34fa653e965663cd663d7d1e2b9e60d3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>dcdae26b1419f67f53a7936e6176cc7c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>536af980d23f2d79fcbdfb117444ca06</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>45036d62086128fbccbb0c07c1dadc6f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>462cb5f704faa7a32651be4b4e17746e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>eb12a7f890f75cbec459be88e288fe3b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>59d48e64ad4d0e5bc35f9eec8869d9c5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>8513269cb1ee01030e8d7cd3d57fc8d6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5716f9a0aadb529cfa131c0c0a399c3e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7b53fbb5c813af9db29b39382b5e5d68</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ae6cdda2edff9458b2fff7114474f38d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16c5bc2fb92f892900c68b6e01194d9d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>939109f7fcdcce5e20a3cec9d6ced85a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>948e1799bcd25fbafd5eca2cfd11b338</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>b3a6f54e2be6578c3e3594801208556b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>50d27c3c6ba5571f4de5c1f787e804a5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>33a068ae26e9e88e57c4b4e6ed218c98</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1bb660489f3617975213b9e587fed7b4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2c443d1fa7b8542c58a203eaf9dbf224</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3e5e09f4d4b0f09ab03f28d12b76f03a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>b00d3d1ccf1b1a6982b2b594420e0f3c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9ea5e0fe94c01072da36e2f69172abb3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7fe3c9ae80396a2ea9ed9909b8746c4b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>669834673fab793775ee86547d920aa0</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ce86c68e6e93fe7cdcc63b165a70a878</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>456fc142cf8d3f1c329601c9d9ed66f5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>d3b223e1e973fcf5c67c64e72775a576</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7af76cca8226ecf95b25630bffa76b3d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>b9b452577b38adc82aca42e031be267b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>5735baee87d812edbd1a13bb7641d3b7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>50089a9ccd2b724f24de04c86f8ac2aa</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>dbfb5437026b296436f8b7a658a3e981</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>f8254ae94c0b46a79d3d2a9b23282f87</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0bd416ce234943719f646a0db895b81f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ca3dc79e2cb77faafd76959e8367e83a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>e5605b52000e9e8a63657e0599268932</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>f39d37dee5a64a3b00c2b5fc03aad432</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>62d79e110b5355f32c23b2aa2eb51c24</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4d901cefef7204d44fd4d0cbcbfc5b52</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4c3a37f192511d17d956fad40ddfac8d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>d627699bdcee9943a53fdfb0a62e0bb8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4d83fa3404cf8b4c4eac895ae9ad6a92</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>9691061ea45d029c515e22de919afa9a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1f2d07cae47692f36ef04651184d86a0</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>7d563ad4aceaa1fd177011a7bb165ecf</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>7ab8bda950fc06556b108d298cb2a640</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>83dd377fa9d66f21e2ab2536bb9a3943</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>390c2e64a19b894047df903d031abd0e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6ff89c899fa9ef0e546a45bc8a5d1b50</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9ecc37490cb6e4de3af666db5766cb21</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>c811400d228502f37370b527b5624967</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>39cbc11bb2861aca14c382c6a6b460b3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>83a24f5a0354c415160b546eadce092b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>302f4427cc76bc3830afc5cff1424298</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1860b260c80de7103d236f2eae0f0dfb</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>4e6e9ef504996ddf0bea3de46c0879fc</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>55a7e4ccbf6fcba9238a11976a4a7381</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3846db325eb44d939730a338719ca9b5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>753b33e8c92bbf331be8e58dd97c242f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>69792ae34d9b3c6e707d0e3e6b82816f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>fa3936a53299b1a1142e4c614e2b360c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1ab30d0ab9d9d5e53942e101c1011513</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>74bcec33670a196b08cdf65512f1f4e6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>8504b920d4af57a5daa3d573cac34870</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>fdff6232dacf9bd3b189506f51577128</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>fe642d1e762e8a050aa5d307e0f4c0d1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>36a6736d6dcb5f4ff570871809831183</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>768f381ac51a665b16554bace91abe32</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>5729fdc37d56ba46e556a5b6aa931b42</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>6073f5daa75a0eda84e6a3f3cbae4920</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>148f8ed0dc0b47f441ba5c7f8c02e19d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4345e7cff9ba4fe97793c254c87b3ed5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>fddf1a9eb447b15b1031f58199ead0b7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>fe64fb7cbcdb699b086579a4a12029f6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>6aa37856c3bf2a390f99420b2e7dffa4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>5c4dea4a45d96e1a6d5bcc041d300079</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>a5ec53983ba6a47824a27bc0f1253e73</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>e3455afd4644cb882cb2c9bede08c7bf</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>fd448e5391b33575fcf8c25f11c09f23</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2002e02d355c43e266222307e041302a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>23a98723cacf1e1bd248cf8ab07bd788</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>d433ae251ba95754edde1586851d1e0a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0bf3e6259a2df4892ea602ff62c60c7c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>57e899896177917e2dfbff88320555d8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>faab7cd3b7456a406f4be1afe9012d5d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>169493af5375eb9da89ff324a3fe129a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>e071c4984d041309f151de29b9ba82b5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>9562d49a07f5481208b672ff777f3cbf</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>12a28689a1816b6d8cb329edbe385e78</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>e55ec9e91ec7e4db5854ea6978f126e3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>6f79dba48c5c57c1aa7ca57cc56a1b89</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>c5bf9e2e99f8c76659d7d78eb68c49c8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4fe7d22917dc2497fbe66884ec3ea3b5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1376f3daf42b193bbf0d24abd1b70371</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>c45e3f1e6e2a186ffcef26bd44ffc80e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>12de74a0fdd92ea8ceb150b7de750b6a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ad919ffd00549a94396fc5ebc9cb010b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1bade8eb7eadd514699d4beb714531ad</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>7f6686d018b515a022e8221b104b5d17</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>d9a68ec3e8c921641a3b51af68e57411</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>05cbcf3b75043968d6dd8a48e4677098</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ddc3a00cef97f70cf56264239041c94c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>b521eab70dc9836235f21a5cffd96d34</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0da6adfbf0fa63740cedeaf92d789e7e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1b726b745327977401045b7434de6ad4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>e7887381980432a7be5ddf4dec0772ad</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>66dc986826177528dc9558195e1ddc89</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2e69250e65f75bd4bb9e8274d865bc70</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>651be491d10a47ecc534295d84341c03</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>030064272d82777681502745fcfa8c48</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>63f72c76715cb0262a2f0af9a7bf0916</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>9ab734898b1f8af906b65ff91bf2b399</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>8706a4ce04bdb3e6fed2b6197b4197ea</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>d71d82a7b5d978ad14e351817d176578</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>441e25883733556af6fb6cbab74090fd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>9fbcbffb36e86b86584b416e45d8d0bd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>12a287daec77135d0977274464ef0b95</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>cd56441518205ee7063764d0ef94cbbe</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>f6a9c300a8aba8b7971d8ecd67a9a254</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>dfdd8d6db83b0ec2d47ef6f1ed0bff5e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>3da6804567e48789084138326fae4e3a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ce7b512d6920e51fdaa3f20cb345d17d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>d84b6e3d631f17797de438384d7f4098</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>1ef98087cb11be286a8eac26f55dbe52</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>e2ab155d5a03d61eb2c146c2e2972861</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>631c7162e33a11d4555121a188540c83</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>7e0747b8808941d51c35de503473b62e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0c0b793d8ae1f0a1ecba66e280bd81e7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>a60ea90c9d4a8b90475b54d4d6561166</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ba8245e29676793f24e9d8ceea1a2e20</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>d99aceea19f54ac5cfef05e90cc29b04</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>f58627f79cda538eb70055e921fe12ae</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>d19fd46faea20ff55490e8ac507c1ecd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>65b158d4349a90ca627b324d874c9b07</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>bdae40f01a28fa53fba8df2f91f87f73</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>c0c53783189297b37b2f84ddea0ec457</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>1f55e89932b6d4ac013c8bbb2a530cd6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>af67117d40dd4f8e0614f1b8e5466841</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>e90f3c57fb4322c1a60afdd67a3e0b9c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2ae49c5a93a6d31aed0c357e396f66f5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>d562596bb92d17f2f8b62cb57b1a1cc1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>ce2c6810c902577904df02f0480c8856</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>675f7e5fdc9df67320ee478223d5780e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>db45c561e81392e48cb03d8e495a0cbc</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>dab42c27a9db1df4c9c20a2d0714499f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>5594337e837b9398872733e9802d3eed</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>222540970ddef547bfd1da48083bfec4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>7146a92a3509f39c831492469793d71a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ddd7dcaaa433939719b795bf4fe1a5b8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>896946ab9bed611f26f5258724af6aef</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>c41091b3d3ac6ab66dfe781c4a5e1272</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>599c07e03af97e501d20c70f9039f78a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>fdc9aea6a47208b45c56c733233b773f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>f2b75cbe77757dbc74ba18bf19fbbe24</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>b3fed73d8331651e6ed17c44b07e98d0</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>e91236e37fdbbb3a4f368dffa5a63013</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>448f7685611e0190c9224d23715a8577</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>bcf1a8b41452fd8bf8f35d2e698894ce</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>e543eac89077e981d3fa7f0ee8c421de</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>f36f1f22a48b184358823b6168a904fd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0c0f10dc29a4be1584d0cbd4601ded70</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>890b61e7f6b048b821ba4ab8690184fa</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>c3f385559425e886e928d1addc3241a6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5191,7 +5191,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0348510c72282255f50931e482d3ea7a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>b5866fc58081412e5367df643ca6a4d1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>1c049c31b9f84f53da889c48e2a21d59</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>a0939c649b9264c7e798789c2632aa93</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>f2b6896f7ea7237bd52501f80e502396</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>4f2190517ec5a9eceec9e0ab6060ce3e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>b1517fb23721192de7e666da8cd2ae00</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>6007b81c39a9671d51cfae2ad1e37a24</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>5dd0954d761e8ac81f3e2f50e088fb8e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>fa55d5394111eaa7823551564ac74cd2</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>cbcb77548de26b6843ab31d7a7258b62</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>339a5bd6bdcb65b32a57c344fef41dff</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>a55ff87947b0ad53e981dc1ffd23c829</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>fc15f132649a8c8626190dc864bbdf8c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>ddbbbcf8ccb8d9d345df3e08debc66f6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>c70e37548ce20eb582db6b2cb6a441c0</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>eaf465492d0dd1890de82be665350657</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>fdba06d53a80b15da55ac12ff2e155a5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>5b12e689f7ab0fcfc477d9be1bba84ad</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>13e81d4da0c3f26fa213bc37d5ae59e0</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>89901ca8b6f50a2d0b02c854350f5da9</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>073cc8988b143e26e931784c3ad795a6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>784eefe4dce2e83edcdd82f8983a2d0b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>423ecfdb73c88432232a28d96ebb4e06</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>dc7cb29466311558acc2c70e166b478a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>1512187ce7f40824b1138e225fe4ca97</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>530d5de622f46e1960ed5b1c32d168a9</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>ca14c4bea2f77bcc751d16fdd9edbbdc</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>ea2944d5f6c41fa7339c0f74dd80c1ea</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>d8ea285232aa6b69eb14c2337ea245ca</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>da20a8257ef0b55e81334933cb9ab662</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>19033774f5c5379ee9345010a6de77ae</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>15b1df11e5b3161b2a04ee2547163e99</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>4ccecca2e30861ef3016419381db7f6e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2673a9d78c32b1daf5b3454478e89077</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>f7cbb94b1a9856f3e5672c97a5c875f9</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>db43c65b125ff4c67e407fa02ca4eabd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>3b8ddf443835f9caf3e618a0040eca41</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>bc988679f582cbb5da2d641f5021c5d3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>765a1787c76f96b45559bf96d9d6f6a7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>cc80d9b3b2c53eee527f1fc49d34fec4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>3b8a56642dd24e5b42bc56a5783855a1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6115,7 +6115,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>0a92b55e567d3ea336dabf6e46d1eb8f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>14d4a437a999e6e0f036516091a7557e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>e21d8a4e5f5c7f3b1c493697112ce99a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>cf757438c9ea944760ea9f1afc5bb956</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>236dbf3601ffec5259a3c9d42bb640ba</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>1d740651ca0623939589150c7a572502</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>eabb43133e9136a808bc7f4442f01000</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>cc0a219656db7ef26587ed59bbf1643f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>ae40bcb16dc2c6977371bd0349dde3c2</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>94155b2af89d9468c0c10275f449f153</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>482e8d9b4647d9820af3125511fc98cd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>59e012ddd8ede601d3cfc3e3d5e2324d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>07fdf9e297ca66fa0821341e3be1933b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>022967f2ae03fec0aab2fe733b126a60</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>35e549de6071e76e023673d7769c2e78</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>bdc69bf4f4fd3b0c040c4117f46084fe</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>e915219272385f93ad8ef32b3423b1fe</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>959f9ff2a40cafde128c12da37549313</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>64c75bdf8d28761cb294e41bf3aee2e9</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>0cebda065505c2792d4c1f4a90a7876e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>cc489fe3b383290713dd13f363a1ee7e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>7c21732ca4f4cb4cf43538a3d9497cf8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6599,7 +6599,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>ece886eba8b0c2eaf260704dbd20f9a7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>7f283cdb4807c2f5c37f45fe6657bc9c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>b35118ff409b5edf589447f9ec75aba3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>4244ef54d4741012ac22809514f07f7e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>cf53d42f5a98b9f6af6dcc57c56fa09b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>5ec675ed69c80465cf9a5980208efac8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>b6cecc4a11211306f2cc328e3b6d49d1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>83b591bfb240c51b2feff8f02eac8bde</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>fdbbea86e280a8f754339a064f9ad2df</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>83df618fab57a656368d5845025160ba</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>ed156bf787405393f94f5b08b6dfa1d5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2e3cfb30b7cbf6043eb3e9d5bacf0b18</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>19f8ee90bb8e7bca2ac1549cc9fe179b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>f465cb6202ec5ddbd1ed72b8c78f29c4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>145228a6e467c702614f92fcc2edd40c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>eb96d86c522877b53801473cd8218493</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>7bbbd4113f997288935340a631399686</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>67f05845194e8066380b40b6998615fc</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>6abf123155a576220e1cddaf51fa35b3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>594de8b190f950ca66bcfc13121bc8d8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>45776652a71c7e43a7dbe8393e82f400</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>99ea023c228e5c40d69e18edd5e1f547</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>05246f474115e163f50d0462df9182e8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>92feef4c0c74655e7328a95c1a0310c5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>a5cd14824e288e39830e704e58e52fb2</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>c796157608dcc7efde22511a4b440335</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>1c20a1f8300104da529c7c553ddc11a1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>793aa6ad7d3c360a6266747d90795cc4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>b7d85926561ff125928b68e7fffa646b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>97c06b5d99a708b9c9eff62077b8a6bc</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>4c6165e5c87d83d52a173679d320383f</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>b46e3d7933c7f77c78d536d33f9b5c4a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>94e6263912bc758ee3db81c62a94a8f6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>36954c258a5a46747ead05d8d89022b4</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>aa762422e005c4a157d202fff8e8dd00</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>31a3e2fdf2da08dceee4636c8fb87588</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>eccaf95f10ad80dd85880046c7b9753a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>188c85421a6d02003be3bae8b4e2e074</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>aa935c4992d6296c3088fc4ca5e00b46</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>e43c906f97bf934c6a64f98465fd23bb</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>720417d493fe763f5e7ba81d1cf6e126</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>8fdfa2d630da44e5766a5c91da6360c1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>283e31f63c2a6e0f2bf8231d205f51b2</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>d817c27fd56f79bf1a329780097bd54b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>493544a5e246aa7cea2479b4d454a183</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7589,7 +7589,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>2f1c376370096ec205e0a8318b7f6df8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>3dac0f41036e712d4278f140035ecaa9</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>a6901170e8b2a9956d2883216465a6f5</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>8bf08b9db2691fc0b2a673e456c99431</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>61b56754bd643b5d45ab13c4083f7980</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>5ce16aada281ae4e11359a4e853b65d8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>e78a003a9679790c19fc11974d2d0453</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>0c8a0d2dc6f1d7e37ee63d74760808b8</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>f42d7da7fcaa24bc9409e857bdefff30</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7787,7 +7787,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>4fab55b87cb153239536cca3947f4513</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>d5b62813ebc2d78bdbdf08b2c42e1280</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2c49260d2646a0944b56933f7d4029fb</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>2f79cc74468fac966e373914a1f6516d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>09ec9d58839bef77654226d82336a32d</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>4be3e3c2a271217ab2f6788cb3dc7fd6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>8a3a42a8c246a9a2b58a64e407f0cb29</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>7a0fcb142fb19b892ab8e38d06494fb1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>94278d0a7d891e7a9307036c14b82d41</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>363854659883df19d9996a9d81477e89</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>45394e7dbb73997e62d298ef62ecd8d7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>776ad030354617d05f4d4ce8ff0481ae</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>075de3efc95aed64e8417181aa03b732</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>45eeec29b35688e4e0416cb6c00a0e58</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>67b2fe123490609b486c4f4022496b2e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>b9adae4c7537000a4b2a44030fa91cdb</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>9e4168fc0c7808bebd35c485396ea56c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>0e7173198b5c4efee2d2d373e3766bdb</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>958d1a8901c7e4f4890ff0db334836f0</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>7fc30e7930edb4d0f0dc921e5e70a3f6</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>f1c9c5e5cea427f44b97a4a65af1fa0b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>0ce1d25a401b5ce65c67934ffc35a8ad</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>f76279d2edfbfbaefc15b6ea12a2a83e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8293,7 +8293,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>40567cfb40f22da1aa2b08377edd2a15</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>f0fdf339b197a18e092baf73d0712bdd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>840a5db84c548c58a6d3bb36d0b758d0</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>e7e3965cf4435a1703cc5ee0a5fd8ae3</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>36231b0ec168e47d61fd256ff16c652b</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>5be145510b50bb75e686a5226f9d0d6c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>03228534673ac90d808023b466908e39</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>be81f2c53a6a09905ff6cdbd20421c90</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>db3cb61e0d74f28a1f26dd190407bde1</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>025536e3e2121979213300abe0246102</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>6f54d58f6f212345826b174a10e30261</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>1a3876d1da179b81a5c7ace54cf3b85c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>8ec7d62c99ae0474aad04a0f58bca61c</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>f67b8f20f9a6500e47ad51eb3e295fc7</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>a29d83759366fcfacd31b90bcf76daad</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>ac1fca114c808f1640047497ddc00702</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8645,7 +8645,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>dac8e4f0d32eae2869a6cd35084b67dc</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>7cdb7e52d29859c4e340fb6c84014749</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>da66dd2a759ee30147a320f3206623cd</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>30250ce09306308aebb9474f12fa92ec</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>243f3490787b5a7417546b88a0f0b047</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>147becad951f52352e7c7bd83ff4ed18</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>80a328b9ce7a4b3a690e9c3df48e83cb</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>dd4ac96e4b78cf36f35d08bd03f0ee3e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>67f33c491bd136346b5e83b7339c7076</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8843,7 +8843,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>4f67e26410d154bae815ee60170caa5a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>cb211e965855d849974f08963d96c40a</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>b2d19eafb644c39bd87dddf45deff971</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>5fd95bc6bb9a3a6c57237b63eb685e23</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>31785a02d8b2f6145d077877668cc362</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>ae6b1c6363420cc54dbbf0aef654b182</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>f7e3807fe5d30bfdba0620f9b31a339e</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>cf8ee4e0654b4c91dd2fb44ec697fe04</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>2b16f828ab77fc2ee354c3ee3e55b855</t>
+          <t>00000000000000000000000000000000</t>
         </is>
       </c>
     </row>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,7 +1524,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1825+</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1825%2B_72806.pat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1546,17 +1546,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1568,17 +1568,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1590,17 +1590,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1612,17 +1612,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1634,17 +1634,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1656,17 +1656,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1700,17 +1700,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1722,17 +1722,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1744,17 +1744,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1766,17 +1766,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1788,17 +1788,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1810,17 +1810,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1832,17 +1832,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1854,17 +1854,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1876,17 +1876,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1898,17 +1898,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1920,17 +1920,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1942,17 +1942,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1964,17 +1964,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1986,17 +1986,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2008,17 +2008,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2030,17 +2030,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2052,17 +2052,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2074,17 +2074,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2096,17 +2096,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2162,7 +2162,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2206,17 +2206,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2228,17 +2228,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2250,17 +2250,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2294,17 +2294,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2338,17 +2338,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2360,17 +2360,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2382,17 +2382,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2404,17 +2404,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2426,17 +2426,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2448,17 +2448,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2470,17 +2470,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2492,17 +2492,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2514,17 +2514,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2536,17 +2536,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2558,17 +2558,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2580,17 +2580,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2602,17 +2602,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2624,17 +2624,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2646,17 +2646,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2668,17 +2668,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2690,17 +2690,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2712,17 +2712,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2734,17 +2734,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2756,17 +2756,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2778,17 +2778,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2800,17 +2800,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2822,17 +2822,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2844,17 +2844,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS925+</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2888,17 +2888,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2910,17 +2910,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2932,17 +2932,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2954,17 +2954,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2976,17 +2976,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2998,17 +2998,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3020,17 +3020,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DS925+</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3042,17 +3042,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3064,17 +3064,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3086,17 +3086,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3108,17 +3108,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3130,17 +3130,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3152,17 +3152,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3174,17 +3174,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3196,17 +3196,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3218,17 +3218,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3240,17 +3240,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3262,17 +3262,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3284,17 +3284,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3306,17 +3306,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3328,17 +3328,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3350,17 +3350,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3372,17 +3372,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3394,17 +3394,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3416,7 +3416,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3438,7 +3438,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3482,7 +3482,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3504,17 +3504,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3526,17 +3526,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3548,17 +3548,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3570,17 +3570,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3592,17 +3592,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3614,17 +3614,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3636,17 +3636,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3658,17 +3658,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3680,17 +3680,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3702,17 +3702,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3724,17 +3724,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3746,17 +3746,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3768,17 +3768,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3790,17 +3790,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3812,17 +3812,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3834,17 +3834,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3856,17 +3856,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3878,17 +3878,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3900,17 +3900,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3922,17 +3922,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3944,17 +3944,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3966,17 +3966,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3988,17 +3988,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4010,17 +4010,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4032,17 +4032,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4076,17 +4076,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4098,17 +4098,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4120,17 +4120,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4142,17 +4142,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4164,17 +4164,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4186,17 +4186,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4208,17 +4208,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4230,17 +4230,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4252,17 +4252,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4274,17 +4274,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4296,17 +4296,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4318,17 +4318,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4340,17 +4340,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4362,17 +4362,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4384,17 +4384,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4406,17 +4406,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4428,17 +4428,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4450,17 +4450,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4472,17 +4472,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4494,17 +4494,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4516,17 +4516,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4538,17 +4538,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4560,17 +4560,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4582,17 +4582,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4604,17 +4604,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4626,17 +4626,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4670,17 +4670,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4692,17 +4692,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4714,17 +4714,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4736,17 +4736,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4758,17 +4758,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4780,17 +4780,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4802,17 +4802,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4824,17 +4824,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2825RP+</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2825RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4846,7 +4846,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4868,7 +4868,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4934,7 +4934,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4956,7 +4956,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4978,7 +4978,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5000,7 +5000,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5022,7 +5022,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5044,7 +5044,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5066,7 +5066,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5110,7 +5110,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5154,7 +5154,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5220,7 +5220,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5242,7 +5242,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5286,7 +5286,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5330,7 +5330,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5374,7 +5374,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5396,17 +5396,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5440,17 +5440,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5462,17 +5462,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5484,17 +5484,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5506,17 +5506,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5528,17 +5528,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5550,17 +5550,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5572,17 +5572,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5594,7 +5594,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5616,7 +5616,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5638,7 +5638,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5660,7 +5660,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5682,7 +5682,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5726,7 +5726,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5748,17 +5748,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5770,17 +5770,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5792,17 +5792,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5814,17 +5814,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5858,17 +5858,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5880,17 +5880,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5902,17 +5902,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5924,17 +5924,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5946,17 +5946,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5968,17 +5968,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5990,17 +5990,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6012,17 +6012,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6034,7 +6034,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6100,7 +6100,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6144,7 +6144,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6166,7 +6166,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6188,17 +6188,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6210,17 +6210,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6232,17 +6232,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6254,17 +6254,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6276,17 +6276,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6298,17 +6298,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6320,17 +6320,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6342,17 +6342,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6364,17 +6364,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6386,17 +6386,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6408,17 +6408,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6452,17 +6452,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6474,7 +6474,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6496,17 +6496,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6518,17 +6518,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6540,17 +6540,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6562,17 +6562,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6584,17 +6584,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6606,17 +6606,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6628,17 +6628,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6650,17 +6650,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6672,17 +6672,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6694,17 +6694,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6716,17 +6716,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6738,17 +6738,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6760,17 +6760,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6782,7 +6782,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6826,7 +6826,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6848,7 +6848,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6870,7 +6870,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6892,7 +6892,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6914,7 +6914,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6936,7 +6936,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6980,7 +6980,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7002,7 +7002,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7046,7 +7046,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7090,7 +7090,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -7112,7 +7112,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7134,7 +7134,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7156,7 +7156,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -7178,7 +7178,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -7200,7 +7200,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -7222,7 +7222,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -7244,7 +7244,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7266,7 +7266,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7288,7 +7288,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7310,7 +7310,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7332,7 +7332,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7354,7 +7354,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -7376,7 +7376,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7442,7 +7442,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7464,7 +7464,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7486,7 +7486,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7530,7 +7530,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7552,7 +7552,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -7574,7 +7574,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7596,7 +7596,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7640,7 +7640,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7684,7 +7684,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7706,7 +7706,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7728,7 +7728,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7750,7 +7750,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7772,7 +7772,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7794,7 +7794,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7816,7 +7816,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7860,7 +7860,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7882,7 +7882,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7904,7 +7904,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7926,7 +7926,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7948,7 +7948,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7970,7 +7970,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7992,7 +7992,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -8036,7 +8036,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -8102,7 +8102,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -8124,7 +8124,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -8146,7 +8146,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -8168,7 +8168,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -8190,7 +8190,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -8212,7 +8212,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8234,7 +8234,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8256,7 +8256,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -8278,7 +8278,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -8300,7 +8300,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -8322,7 +8322,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -8344,7 +8344,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -8366,7 +8366,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8388,7 +8388,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -8398,7 +8398,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8410,7 +8410,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -8432,7 +8432,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -8454,7 +8454,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -8476,7 +8476,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -8498,7 +8498,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -8520,7 +8520,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -8530,7 +8530,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -8542,7 +8542,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -8564,7 +8564,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -8574,7 +8574,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -8586,7 +8586,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -8608,7 +8608,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -8630,7 +8630,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -8640,7 +8640,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -8652,7 +8652,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8674,7 +8674,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -8696,7 +8696,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -8718,7 +8718,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -8740,7 +8740,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -8762,7 +8762,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS4017xs+</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -8784,7 +8784,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS4017xs+</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -8806,7 +8806,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS4017xs+</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -8828,7 +8828,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS4017xs+</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -8850,7 +8850,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS4017xs+</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8872,7 +8872,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS4017xs+</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -8882,142 +8882,10 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
-        <is>
-          <t>00000000000000000000000000000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>RS4017xs+</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>7.2.2-72806-0</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>00000000000000000000000000000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>RS4017xs+</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>7.0.1-42218-0</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>00000000000000000000000000000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>RS4017xs+</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>7.2.1-69057-1</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>00000000000000000000000000000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>RS4017xs+</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>7.2.0-64570-1</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>00000000000000000000000000000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>RS4017xs+</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>7.1.1-42962-1</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>00000000000000000000000000000000</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>RS4017xs+</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>7.1.0-42661-1</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4017xs%2B_42661.pat</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
         <is>
           <t>00000000000000000000000000000000</t>
         </is>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,7 +1546,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1634,7 +1634,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1678,7 +1678,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1700,17 +1700,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1722,17 +1722,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1744,17 +1744,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1766,17 +1766,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1788,17 +1788,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1810,17 +1810,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1832,17 +1832,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1854,17 +1854,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1876,17 +1876,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1898,17 +1898,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1920,17 +1920,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1942,17 +1942,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1964,17 +1964,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1986,17 +1986,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2008,17 +2008,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2030,17 +2030,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2052,17 +2052,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2074,17 +2074,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2118,17 +2118,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2140,17 +2140,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2162,17 +2162,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2184,17 +2184,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2206,17 +2206,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2228,17 +2228,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2250,17 +2250,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2294,17 +2294,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2338,17 +2338,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2360,17 +2360,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2382,17 +2382,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2404,17 +2404,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2426,17 +2426,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2448,17 +2448,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2470,17 +2470,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS425+</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS425%2B_72806.pat</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2492,17 +2492,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2514,17 +2514,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2536,17 +2536,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2558,17 +2558,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2580,17 +2580,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2602,17 +2602,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2624,17 +2624,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2646,17 +2646,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2668,17 +2668,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2690,17 +2690,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2712,17 +2712,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2734,17 +2734,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2756,17 +2756,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2778,17 +2778,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2800,17 +2800,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2822,17 +2822,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2844,17 +2844,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS725+</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS725%2B_72806.pat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2866,7 +2866,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DS925+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2888,17 +2888,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2910,7 +2910,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2954,7 +2954,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2976,17 +2976,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2998,17 +2998,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3020,7 +3020,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3042,7 +3042,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3064,17 +3064,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3086,17 +3086,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DS925+</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3130,17 +3130,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3152,17 +3152,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3174,17 +3174,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3196,17 +3196,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3218,17 +3218,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3240,17 +3240,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3262,17 +3262,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3284,17 +3284,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3306,17 +3306,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3328,17 +3328,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3350,7 +3350,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3372,17 +3372,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3394,17 +3394,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3416,17 +3416,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3438,17 +3438,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3482,17 +3482,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3504,17 +3504,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3526,17 +3526,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3548,17 +3548,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3570,17 +3570,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3614,7 +3614,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3658,7 +3658,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3680,7 +3680,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3746,17 +3746,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3768,17 +3768,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3790,17 +3790,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3812,17 +3812,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3834,17 +3834,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3856,17 +3856,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3878,17 +3878,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3900,17 +3900,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3922,17 +3922,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3944,17 +3944,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3966,17 +3966,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3988,17 +3988,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4010,17 +4010,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4032,17 +4032,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4076,17 +4076,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4098,17 +4098,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4120,17 +4120,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4142,17 +4142,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4164,17 +4164,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4186,17 +4186,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4208,17 +4208,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4230,17 +4230,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4252,17 +4252,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4274,17 +4274,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4296,17 +4296,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4318,17 +4318,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4340,17 +4340,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4362,17 +4362,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4384,17 +4384,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4406,17 +4406,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4428,17 +4428,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4450,17 +4450,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4472,17 +4472,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4494,17 +4494,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4516,17 +4516,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4538,17 +4538,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4560,17 +4560,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4582,17 +4582,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4604,7 +4604,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4626,17 +4626,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4670,17 +4670,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4692,17 +4692,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4714,17 +4714,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4736,17 +4736,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4758,17 +4758,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4780,17 +4780,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4802,17 +4802,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4824,7 +4824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RS2825RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2825RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4846,17 +4846,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4868,17 +4868,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4890,17 +4890,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4912,17 +4912,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4934,17 +4934,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4956,17 +4956,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4978,17 +4978,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5000,17 +5000,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5022,17 +5022,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5044,17 +5044,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS2825RP+</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2825RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5066,17 +5066,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5088,17 +5088,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5110,17 +5110,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5132,17 +5132,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5154,17 +5154,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5176,17 +5176,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5198,17 +5198,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5220,17 +5220,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5242,17 +5242,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5264,17 +5264,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5286,17 +5286,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5308,17 +5308,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5330,17 +5330,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5352,17 +5352,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5374,17 +5374,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5396,17 +5396,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5440,17 +5440,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5462,7 +5462,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5484,7 +5484,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5506,7 +5506,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5528,7 +5528,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5550,7 +5550,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5572,7 +5572,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5594,7 +5594,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5616,17 +5616,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5638,17 +5638,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5660,17 +5660,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5682,17 +5682,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5704,17 +5704,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5726,17 +5726,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5748,17 +5748,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5770,17 +5770,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5792,17 +5792,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5814,7 +5814,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5858,17 +5858,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5880,17 +5880,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5902,17 +5902,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5924,17 +5924,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5946,17 +5946,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5968,17 +5968,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5990,17 +5990,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6012,17 +6012,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6034,7 +6034,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6056,17 +6056,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6078,17 +6078,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6100,17 +6100,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6122,17 +6122,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6144,17 +6144,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6166,17 +6166,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6188,17 +6188,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6210,17 +6210,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6232,17 +6232,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6254,7 +6254,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6276,17 +6276,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6298,17 +6298,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6320,17 +6320,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6342,17 +6342,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6364,17 +6364,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6386,17 +6386,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6408,17 +6408,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6452,17 +6452,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6474,7 +6474,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6496,7 +6496,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6518,7 +6518,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6540,7 +6540,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6562,7 +6562,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6584,17 +6584,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6606,17 +6606,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6628,17 +6628,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6650,17 +6650,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6672,17 +6672,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6694,17 +6694,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6716,17 +6716,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6738,17 +6738,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6760,17 +6760,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6782,7 +6782,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6804,17 +6804,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6826,17 +6826,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6848,17 +6848,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6870,17 +6870,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6892,17 +6892,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6914,17 +6914,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6936,17 +6936,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6958,17 +6958,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6980,17 +6980,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7002,17 +7002,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7024,17 +7024,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7046,17 +7046,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7068,17 +7068,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7090,17 +7090,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -7112,17 +7112,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7134,17 +7134,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7156,17 +7156,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -7178,17 +7178,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -7200,17 +7200,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -7222,17 +7222,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -7244,17 +7244,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7266,17 +7266,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7288,17 +7288,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7310,17 +7310,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7332,17 +7332,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7354,17 +7354,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -7376,17 +7376,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7398,17 +7398,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7420,17 +7420,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7442,17 +7442,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7464,17 +7464,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7486,17 +7486,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -7508,17 +7508,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7530,17 +7530,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7552,17 +7552,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -7574,17 +7574,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7596,17 +7596,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7618,17 +7618,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7640,17 +7640,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7662,17 +7662,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7684,17 +7684,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7706,17 +7706,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7728,17 +7728,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7750,17 +7750,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7772,17 +7772,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7794,17 +7794,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7816,17 +7816,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7838,17 +7838,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7860,17 +7860,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7882,17 +7882,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7904,17 +7904,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7926,17 +7926,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7948,17 +7948,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7970,17 +7970,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7992,17 +7992,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -8014,17 +8014,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -8036,17 +8036,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8058,17 +8058,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8080,17 +8080,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -8102,17 +8102,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -8124,17 +8124,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -8146,17 +8146,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -8168,17 +8168,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -8190,17 +8190,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -8212,17 +8212,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8234,17 +8234,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8256,17 +8256,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -8278,17 +8278,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -8300,17 +8300,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -8322,17 +8322,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -8344,17 +8344,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -8366,17 +8366,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8388,17 +8388,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8410,17 +8410,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -8432,17 +8432,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -8454,17 +8454,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -8476,17 +8476,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -8498,17 +8498,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -8520,17 +8520,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -8542,17 +8542,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -8564,17 +8564,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -8586,17 +8586,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -8608,17 +8608,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -8630,17 +8630,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -8652,17 +8652,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8674,17 +8674,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -8696,17 +8696,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -8718,17 +8718,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -8740,17 +8740,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -8762,17 +8762,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -8784,17 +8784,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -8806,17 +8806,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -8828,17 +8828,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -8850,17 +8850,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8872,20 +8872,240 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
+          <t>RS3617xs+</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>7.0.1-42218-0</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>RS3617xs+</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>7.2.1-69057-1</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>RS3617xs+</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>7.2.0-64570-1</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>RS3617xs+</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>7.1.1-42962-1</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>RS3617xs+</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>7.1.0-42661-1</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
           <t>RS4017xs+</t>
         </is>
       </c>
-      <c r="B385" t="inlineStr">
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>7.2.2-72806-0</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>7.0.1-42218-0</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>7.2.1-69057-1</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>7.2.0-64570-1</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>7.1.1-42962-1</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
         <is>
           <t>7.1.0-42661-1</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
+      <c r="C395" t="inlineStr">
         <is>
           <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4017xs%2B_42661.pat</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr">
+      <c r="D395" t="inlineStr">
         <is>
           <t>00000000000000000000000000000000</t>
         </is>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1722,7 +1722,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS225+</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS225%2B_72806.pat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1749,12 +1749,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1854,17 +1854,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1986,17 +1986,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2013,12 +2013,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2118,17 +2118,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2145,12 +2145,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2167,12 +2167,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2250,17 +2250,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2382,17 +2382,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2409,12 +2409,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2470,17 +2470,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DS425+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS425%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS425+</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS425%2B_72806.pat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2624,17 +2624,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2673,12 +2673,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2695,12 +2695,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2756,17 +2756,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2827,12 +2827,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2844,17 +2844,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DS725+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS725%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2866,7 +2866,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS725+</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS725%2B_72806.pat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2915,12 +2915,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2998,17 +2998,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3086,17 +3086,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DS925+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS925+</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3135,12 +3135,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3196,17 +3196,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3223,12 +3223,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3328,17 +3328,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3355,12 +3355,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3377,12 +3377,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>DVA3221</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3553,12 +3553,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3575,12 +3575,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3592,17 +3592,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS2500</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3619,12 +3619,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3724,17 +3724,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3812,17 +3812,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3839,12 +3839,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3927,12 +3927,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3944,17 +3944,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4037,12 +4037,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4076,17 +4076,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4103,12 +4103,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4125,12 +4125,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4169,12 +4169,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4191,12 +4191,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4208,17 +4208,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4235,12 +4235,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4340,17 +4340,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4411,12 +4411,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4455,12 +4455,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4472,17 +4472,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4543,12 +4543,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4565,12 +4565,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4604,17 +4604,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4675,12 +4675,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4719,12 +4719,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4736,17 +4736,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4763,12 +4763,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4785,12 +4785,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4824,17 +4824,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4895,12 +4895,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4912,17 +4912,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4983,12 +4983,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5005,12 +5005,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5027,12 +5027,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5044,17 +5044,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RS2825RP+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2825RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5066,7 +5066,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS2825RP+</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2825RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5093,12 +5093,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5159,12 +5159,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5198,17 +5198,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5225,12 +5225,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5291,12 +5291,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5313,12 +5313,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5330,17 +5330,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5357,12 +5357,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5445,12 +5445,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5462,17 +5462,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5533,12 +5533,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5594,17 +5594,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5643,12 +5643,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5665,12 +5665,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5682,17 +5682,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5709,12 +5709,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5731,12 +5731,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5753,12 +5753,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5797,12 +5797,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5814,17 +5814,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5863,12 +5863,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5907,12 +5907,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5929,12 +5929,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5946,17 +5946,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5995,12 +5995,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6034,17 +6034,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6083,12 +6083,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6105,12 +6105,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6122,17 +6122,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6149,12 +6149,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6171,12 +6171,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6215,12 +6215,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6254,17 +6254,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6281,12 +6281,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6303,12 +6303,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6325,12 +6325,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6347,12 +6347,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6369,12 +6369,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6386,17 +6386,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6413,12 +6413,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6435,12 +6435,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6457,12 +6457,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6474,17 +6474,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6501,12 +6501,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6523,12 +6523,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6545,12 +6545,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6562,17 +6562,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6589,12 +6589,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6611,12 +6611,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6633,12 +6633,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6655,12 +6655,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6677,12 +6677,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6694,17 +6694,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6721,12 +6721,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6765,12 +6765,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6782,17 +6782,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6809,12 +6809,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6831,12 +6831,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6853,12 +6853,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6870,17 +6870,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6941,12 +6941,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6963,12 +6963,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6985,12 +6985,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7002,17 +7002,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7029,12 +7029,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7051,12 +7051,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7073,12 +7073,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7095,12 +7095,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -7117,12 +7117,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7134,17 +7134,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7161,12 +7161,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -7183,12 +7183,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -7205,12 +7205,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -7227,12 +7227,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -7249,12 +7249,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7266,17 +7266,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7293,12 +7293,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7315,12 +7315,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7337,12 +7337,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7359,12 +7359,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -7381,12 +7381,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7398,17 +7398,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7447,12 +7447,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7469,12 +7469,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7491,12 +7491,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -7513,12 +7513,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7530,17 +7530,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7557,12 +7557,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -7579,12 +7579,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7601,12 +7601,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7623,12 +7623,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7645,12 +7645,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7662,17 +7662,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7689,12 +7689,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7711,12 +7711,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7733,12 +7733,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7755,12 +7755,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7777,12 +7777,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7794,17 +7794,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7821,12 +7821,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7843,12 +7843,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7865,12 +7865,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7887,12 +7887,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7926,17 +7926,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7953,12 +7953,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7975,12 +7975,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7997,12 +7997,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -8019,12 +8019,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8058,17 +8058,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>FS2017</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -8129,12 +8129,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -8151,12 +8151,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -8173,12 +8173,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -8190,17 +8190,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>RS18017xs+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -8217,12 +8217,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -8239,12 +8239,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -8261,12 +8261,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -8283,12 +8283,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -8305,12 +8305,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -8322,17 +8322,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>RS2418+</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -8349,12 +8349,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418%2B_72806.pat</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -8371,12 +8371,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418%2B_42218.pat</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -8393,12 +8393,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418%2B_69057.pat</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -8415,12 +8415,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418%2B_64570.pat</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -8437,12 +8437,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418%2B_42962.pat</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -8454,17 +8454,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>RS2418RP+</t>
+          <t>RS2418+</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418%2B_42661.pat</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -8481,12 +8481,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2418RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -8503,12 +8503,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2418RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -8525,12 +8525,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2418RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -8547,12 +8547,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2418RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -8569,12 +8569,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2418RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -8586,17 +8586,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>RS2818RP+</t>
+          <t>RS2418RP+</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2418RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -8613,12 +8613,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2818RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -8635,12 +8635,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2818RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -8657,12 +8657,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2818RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8679,12 +8679,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2818RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -8701,12 +8701,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2818RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -8718,17 +8718,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>RS3617RPxs</t>
+          <t>RS2818RP+</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2818RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -8745,12 +8745,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -8767,12 +8767,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -8789,12 +8789,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -8811,12 +8811,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -8850,17 +8850,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RS3617xs+</t>
+          <t>RS3617RPxs</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8877,12 +8877,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3617xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -8899,12 +8899,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3617xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -8921,12 +8921,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3617xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -8943,12 +8943,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3617xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -8965,12 +8965,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3617xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -8982,17 +8982,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>RS4017xs+</t>
+          <t>RS3617xs+</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3617xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -9009,12 +9009,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -9031,12 +9031,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -9053,12 +9053,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -9075,12 +9075,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -9097,15 +9097,37 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
+          <t>7.1.1-42962-1</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4017xs%2B_42962.pat</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>00000000000000000000000000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>RS4017xs+</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
           <t>7.1.0-42661-1</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C396" t="inlineStr">
         <is>
           <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4017xs%2B_42661.pat</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr">
+      <c r="D396" t="inlineStr">
         <is>
           <t>00000000000000000000000000000000</t>
         </is>

--- a/docs/pats.xlsx
+++ b/docs/pats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D396"/>
+  <dimension ref="A1:D384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS1525+</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_HD6500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1525%2B_72806.pat</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,17 +468,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS1825+</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1825%2B_72806.pat</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -490,17 +490,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS225+</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS225%2B_72806.pat</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,17 +512,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HD6500</t>
+          <t>DS425+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS425%2B_72806.pat</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS725+</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1019%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS725%2B_72806.pat</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -556,17 +556,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>DS925+</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1019%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1019%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_HD6500_72806.pat</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -600,17 +600,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1019%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_HD6500_69057.pat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -622,17 +622,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1019%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_HD6500_64570.pat</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -644,17 +644,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DS1019+</t>
+          <t>HD6500</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1019%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_HD6500_42962.pat</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>RS2825RP+</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1520%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2825RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -688,17 +688,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1520%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1019%2B_72806.pat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -710,17 +710,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1520%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1019%2B_42218.pat</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -732,17 +732,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1520%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1019%2B_69057.pat</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -754,17 +754,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1520%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1019%2B_64570.pat</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -776,17 +776,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS1520+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1520%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1019%2B_42962.pat</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -798,17 +798,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1019+</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1522%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1019%2B_42661.pat</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -820,17 +820,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1522%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1520%2B_72806.pat</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -842,17 +842,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1522%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1520%2B_42218.pat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -864,17 +864,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS1522+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1522%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1520%2B_69057.pat</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -886,17 +886,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DS1525+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1525%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1520%2B_64570.pat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -908,17 +908,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1520%2B_42962.pat</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -930,17 +930,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1520+</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1520%2B_42661.pat</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -952,17 +952,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1522%2B_72806.pat</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -974,17 +974,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1522%2B_69057.pat</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -996,17 +996,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1522%2B_64570.pat</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1018,17 +1018,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DS1621+</t>
+          <t>DS1522+</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1522%2B_42962.pat</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1040,7 +1040,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621%2B_72806.pat</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621%2B_42218.pat</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621%2B_69057.pat</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1106,7 +1106,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621%2B_64570.pat</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621%2B_42962.pat</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1150,7 +1150,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DS1621xs+</t>
+          <t>DS1621+</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621%2B_42661.pat</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1194,7 +1194,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1238,7 +1238,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1260,7 +1260,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1282,7 +1282,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DS1819+</t>
+          <t>DS1621xs+</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1304,7 +1304,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1819%2B_72806.pat</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1326,7 +1326,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1819%2B_42218.pat</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1819%2B_69057.pat</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1370,7 +1370,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1819%2B_64570.pat</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1392,7 +1392,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1819%2B_42962.pat</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1414,7 +1414,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DS1821+</t>
+          <t>DS1819+</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1819%2B_42661.pat</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1821%2B_72806.pat</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1458,17 +1458,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1821%2B_42218.pat</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1480,17 +1480,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1821%2B_69057.pat</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1502,17 +1502,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DS1823xs+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1821%2B_64570.pat</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1524,17 +1524,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DS1825+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1825%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1821%2B_42962.pat</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1546,17 +1546,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1821+</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1821%2B_42661.pat</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1568,17 +1568,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1823xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1823xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1823xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1634,17 +1634,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DS220+</t>
+          <t>DS1823xs+</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS1823xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS220%2B_72806.pat</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1678,17 +1678,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS220%2B_42218.pat</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1700,7 +1700,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DS224+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS220%2B_69057.pat</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1722,17 +1722,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DS225+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS225%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS220%2B_64570.pat</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1744,17 +1744,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS220%2B_42962.pat</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1766,17 +1766,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS220+</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS220%2B_42661.pat</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1788,17 +1788,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS224%2B_72806.pat</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1810,17 +1810,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DS2419+</t>
+          <t>DS224+</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS224%2B_69057.pat</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2B_72806.pat</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2B_42218.pat</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1876,17 +1876,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2B_69057.pat</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1898,17 +1898,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2B_64570.pat</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1920,17 +1920,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2B_42962.pat</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1942,17 +1942,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DS2419+II</t>
+          <t>DS2419+</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2B_42661.pat</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2419%2BII_72806.pat</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2419%2BII_42218.pat</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2008,17 +2008,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2419%2BII_69057.pat</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2030,17 +2030,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2419%2BII_64570.pat</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2052,17 +2052,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2419%2BII_42962.pat</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2074,17 +2074,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DS2422+</t>
+          <t>DS2419+II</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2419%2BII_42661.pat</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS2422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS2422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2140,17 +2140,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS2422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2162,17 +2162,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS2422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2184,17 +2184,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS2422%2B_42661.pat</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2206,17 +2206,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DS3622xs+</t>
+          <t>DS2422+</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS2422%2B_42218.pat</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3622xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3622xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3622xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2294,17 +2294,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3622xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2316,17 +2316,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3622xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2338,17 +2338,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DS420+</t>
+          <t>DS3622xs+</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3622xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS420%2B_72806.pat</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS420%2B_42218.pat</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2404,17 +2404,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS420%2B_69057.pat</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2426,17 +2426,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS420%2B_64570.pat</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2448,17 +2448,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS420%2B_42962.pat</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2470,17 +2470,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DS423+</t>
+          <t>DS420+</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS420%2B_42661.pat</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DS425+</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS425%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2514,17 +2514,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2536,17 +2536,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2558,17 +2558,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DS620slim</t>
+          <t>DS423+</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2585,12 +2585,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS620slim_72806.pat</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS620slim_42218.pat</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_DS620slim_69057.pat</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2646,17 +2646,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS620slim_64570.pat</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2668,17 +2668,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS620slim_42962.pat</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2690,17 +2690,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DS720+</t>
+          <t>DS620slim</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS620slim_42661.pat</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2717,12 +2717,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS720%2B_72806.pat</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS720%2B_42218.pat</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS720%2B_69057.pat</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2778,17 +2778,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS720%2B_64570.pat</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2800,17 +2800,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS720%2B_42962.pat</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2822,17 +2822,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DS723+</t>
+          <t>DS720+</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS720%2B_42661.pat</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS723%2B_72806.pat</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2866,17 +2866,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DS725+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS725%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS723%2B_69057.pat</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2888,17 +2888,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS723%2B_64570.pat</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2910,17 +2910,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DS920+</t>
+          <t>DS723+</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS723%2B_42962.pat</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS920%2B_72806.pat</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS920%2B_42218.pat</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS920%2B_69057.pat</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3003,12 +3003,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS920%2B_64570.pat</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3020,17 +3020,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS920%2B_42962.pat</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3042,17 +3042,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DS923+</t>
+          <t>DS920+</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS920%2B_42661.pat</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS923%2B_72806.pat</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS923%2B_69057.pat</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3108,17 +3108,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DS925+</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS925%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS923%2B_64570.pat</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3130,17 +3130,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DVA1622</t>
+          <t>DS923+</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_DS923%2B_42962.pat</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA1622_72806.pat</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA1622_69057.pat</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA1622_64570.pat</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3218,17 +3218,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DVA3219</t>
+          <t>DVA1622</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA1622_42962.pat</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3245,12 +3245,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3219_72806.pat</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3267,12 +3267,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3219_42218.pat</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3289,12 +3289,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3219_69057.pat</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3219_64570.pat</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3219_42962.pat</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3350,17 +3350,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>DVA3219</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DVA3221_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3219_42661.pat</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3372,17 +3372,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DVA3221_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3394,17 +3394,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DVA3221_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3416,17 +3416,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DVA3221_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3438,17 +3438,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DVA3221_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3460,17 +3460,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DVA3221</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DVA3221_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3482,17 +3482,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3400</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2500_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3504,17 +3504,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2500_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3526,17 +3526,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2500_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3548,17 +3548,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2500_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3570,17 +3570,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3410</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2500_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3592,17 +3592,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FS2500</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2500_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3614,17 +3614,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3636,17 +3636,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3658,17 +3658,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3680,17 +3680,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3702,17 +3702,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS3600</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3724,17 +3724,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FS3400</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3746,17 +3746,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3768,17 +3768,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3790,7 +3790,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FS3410</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3834,17 +3834,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>FS6400</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3856,17 +3856,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3878,17 +3878,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3900,17 +3900,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3922,17 +3922,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3944,17 +3944,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FS3600</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3966,17 +3966,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221+</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3988,17 +3988,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS6400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4010,17 +4010,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_FS6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4032,17 +4032,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4054,17 +4054,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4076,17 +4076,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FS6400</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS6400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4098,17 +4098,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1221RP+</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4120,17 +4120,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4142,17 +4142,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4164,17 +4164,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4186,17 +4186,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4208,17 +4208,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RS1221+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4230,17 +4230,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS1619xs+</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1221RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4252,17 +4252,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1221RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4274,17 +4274,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1221RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4296,17 +4296,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1221RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4318,17 +4318,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1221RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4340,17 +4340,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RS1221RP+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1221RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4362,17 +4362,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421+</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS1619xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4384,17 +4384,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS1619xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4406,17 +4406,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS1619xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4428,17 +4428,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS1619xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4450,17 +4450,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS1619xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4472,17 +4472,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RS1619xs+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS1619xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4494,17 +4494,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2421RP+</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4516,17 +4516,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4538,7 +4538,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4582,17 +4582,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2423+</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4604,17 +4604,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RS2421+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4626,17 +4626,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2421RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4648,17 +4648,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2421RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4670,17 +4670,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2423RP+</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2421RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4692,17 +4692,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2421RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4714,17 +4714,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2421RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4736,17 +4736,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RS2421RP+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2421RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4758,17 +4758,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4780,17 +4780,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4802,17 +4802,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS2821RP+</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4824,17 +4824,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>RS2423+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4846,17 +4846,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2423RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4868,7 +4868,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2423RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4890,7 +4890,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2423RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4912,17 +4912,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>RS2423RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_RS2423RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4934,17 +4934,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3618xs</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2821RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4956,17 +4956,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS2821RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4978,17 +4978,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS2821RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5000,17 +5000,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS2821RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5022,17 +5022,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS2821RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5044,17 +5044,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>RS2821RP+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS2821RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5066,17 +5066,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RS2825RP+</t>
+          <t>RS3621RPxs</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS2825RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3618xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5110,7 +5110,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3618xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3618xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5154,7 +5154,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3618xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5176,7 +5176,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3618xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5198,7 +5198,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>RS3618xs</t>
+          <t>RS3621xs+</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3618xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5220,7 +5220,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621RPxs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5242,7 +5242,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621RPxs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5264,7 +5264,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621RPxs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5286,7 +5286,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621RPxs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621RPxs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5330,7 +5330,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RS3621RPxs</t>
+          <t>RS4021xs+</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621RPxs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS3621xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5374,17 +5374,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS3621xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -5396,17 +5396,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS3621xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS422+</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS3621xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5440,17 +5440,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS3621xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -5462,17 +5462,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RS3621xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS3621xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5484,17 +5484,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS4021xs%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5506,17 +5506,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS4021xs%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5528,17 +5528,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS4021xs%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5550,17 +5550,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820+</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS4021xs%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5572,17 +5572,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS4021xs%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5594,17 +5594,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>RS4021xs+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS4021xs%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5616,17 +5616,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS422%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5638,17 +5638,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS422%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5660,17 +5660,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS422%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5682,17 +5682,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>RS422+</t>
+          <t>RS820RP+</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS422%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5726,17 +5726,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5748,17 +5748,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5770,17 +5770,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS822+</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5792,17 +5792,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5814,17 +5814,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>RS820+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS820RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5858,17 +5858,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>RS822RP+</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS820RP%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5880,17 +5880,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS820RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5902,17 +5902,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS820RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5924,17 +5924,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS820RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5946,17 +5946,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>RS820RP+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS820RP%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5968,17 +5968,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5990,17 +5990,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>SA3200D</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6012,17 +6012,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6034,17 +6034,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RS822+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6056,17 +6056,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS822RP%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6078,17 +6078,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS822RP%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6100,17 +6100,17 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS822RP%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6122,17 +6122,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RS822RP+</t>
+          <t>SA3400</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS822RP%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6144,7 +6144,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3200D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6166,17 +6166,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3200D_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6188,17 +6188,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3200D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6210,17 +6210,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3400D</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3200D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6232,17 +6232,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3200D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6254,17 +6254,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SA3200D</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3200D_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6276,17 +6276,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6298,17 +6298,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3410</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3400_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -6320,17 +6320,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6342,17 +6342,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6364,17 +6364,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -6386,17 +6386,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SA3400</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3400_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6408,17 +6408,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3400D_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6430,17 +6430,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3600</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3400D_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6452,17 +6452,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3400D_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6474,17 +6474,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SA3400D</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.1-69057-0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3400D_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6496,17 +6496,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3410_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6518,17 +6518,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA3610</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3410_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6540,17 +6540,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3410_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6562,17 +6562,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SA3410</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3410_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6584,17 +6584,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3600_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6606,17 +6606,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>SA6400</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>7.0.1-42218-0</t>
+          <t>7.1.1-42962-0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_SA3600_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6628,17 +6628,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA3600_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6650,17 +6650,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3600_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6672,17 +6672,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>7.1.1-42962-1</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_SA3600_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6694,17 +6694,17 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SA3600</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>7.1.0-42661-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_SA3600_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6716,17 +6716,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA3610_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6738,17 +6738,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>DS1618+</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>7.2.1-69057-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057/DSM_SA3610_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6760,17 +6760,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.2.2-72806-0</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA3610_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6782,17 +6782,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SA3610</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.0.1-42218-0</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA3610_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6804,17 +6804,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>7.2.2-72806-0</t>
+          <t>7.2.1-69057-1</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_SA6400_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6826,17 +6826,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>7.2.1-69057-1</t>
+          <t>7.2.0-64570-1</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_SA6400_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6848,17 +6848,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>7.2.0-64570-1</t>
+          <t>7.1.1-42962-1</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_SA6400_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6870,17 +6870,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SA6400</t>
+          <t>DS218+</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>7.1.1-42962-0</t>
+          <t>7.1.0-42661-1</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962/DSM_SA6400_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6892,7 +6892,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS1618%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6914,7 +6914,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS1618%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6936,7 +6936,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS1618%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6958,7 +6958,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS1618%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6980,7 +6980,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS1618%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7002,7 +7002,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DS1618+</t>
+          <t>DS3018xs</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS1618%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS218%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7046,7 +7046,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS218%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS218%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7090,7 +7090,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS218%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -7112,7 +7112,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS218%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7134,7 +7134,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>DS218+</t>
+          <t>DS3617xs</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS218%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7156,7 +7156,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3018xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -7178,7 +7178,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3018xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -7200,7 +7200,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -7210,7 +7210,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3018xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -7222,7 +7222,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3018xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -7244,7 +7244,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3018xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7266,7 +7266,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>DS3018xs</t>
+          <t>DS3617xsII</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3018xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7288,7 +7288,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xs_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -7310,7 +7310,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xs_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7332,7 +7332,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xs_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7354,7 +7354,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xs_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -7376,7 +7376,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xs_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>DS3617xs</t>
+          <t>DS418play</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xs_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7420,7 +7420,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS3617xsII_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -7442,7 +7442,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS3617xsII_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7464,7 +7464,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS3617xsII_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7486,7 +7486,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS3617xsII_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -7518,7 +7518,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS3617xsII_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7530,7 +7530,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>DS3617xsII</t>
+          <t>DS718+</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -7540,7 +7540,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS3617xsII_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7552,7 +7552,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS418play_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -7574,7 +7574,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS418play_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7596,7 +7596,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS418play_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7618,7 +7618,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS418play_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -7640,7 +7640,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS418play_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7662,7 +7662,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>DS418play</t>
+          <t>DS918+</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS418play_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -7684,7 +7684,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS718%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7706,7 +7706,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS718%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7728,7 +7728,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS718%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7750,7 +7750,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS718%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -7772,7 +7772,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS718%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -7794,7 +7794,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>DS718+</t>
+          <t>FS1018</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS718%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7816,7 +7816,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_DS918%2B_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS2017_72806.pat</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7838,7 +7838,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_DS918%2B_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS2017_42218.pat</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7860,7 +7860,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_DS918%2B_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS2017_69057.pat</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7882,7 +7882,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_DS918%2B_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS2017_64570.pat</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7904,7 +7904,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_DS918%2B_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS2017_42962.pat</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7926,7 +7926,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>DS918+</t>
+          <t>FS2017</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_DS918%2B_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS2017_42661.pat</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7948,7 +7948,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_FS1018_72806.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.2/72806/DSM_RS18017xs%2B_72806.pat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7970,7 +7970,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_FS1018_42218.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.0.1/42218/DSM_RS18017xs%2B_42218.pat</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7992,7 +7992,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_FS1018_69057.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2.1/69057-1/DSM_RS18017xs%2B_69057.pat</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -8014,7 +8014,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_FS1018_64570.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.2/64570-1/DSM_RS18017xs%2B_64570.pat</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -8036,7 +8036,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_FS1018_42962.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1.1/42962-1/DSM_RS18017xs%2B_42962.pat</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>FS1018</t>
+          <t>RS18017xs+</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_FS1018_42661.pat</t>
+          <t>https://global.synologydownload.com/download/DSM/release/7.1/42661-1/DSM_RS18017xs%2B_42661.pat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -8080,7 +8080,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>FS